--- a/code/excels/building/building_item_card.xlsx
+++ b/code/excels/building/building_item_card.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="722">
   <si>
     <t>主键</t>
   </si>
@@ -1028,1162 +1028,1168 @@
     <t>heroes/rubick</t>
   </si>
   <si>
-    <t>item_building_hero_sand_king</t>
+    <t>item_building_hero_sandking</t>
+  </si>
+  <si>
+    <t>沙王</t>
+  </si>
+  <si>
+    <t>building_hero_sandking</t>
+  </si>
+  <si>
+    <t>heroes/sand_king</t>
+  </si>
+  <si>
+    <t>item_building_hero_shadow_demon</t>
+  </si>
+  <si>
+    <t>building_hero_shadow_demon</t>
+  </si>
+  <si>
+    <t>heroes/shadow_demon</t>
+  </si>
+  <si>
+    <t>item_building_hero_shadow_shaman</t>
+  </si>
+  <si>
+    <t>building_hero_shadow_shaman</t>
+  </si>
+  <si>
+    <t>heroes/shadow_shaman</t>
+  </si>
+  <si>
+    <t>item_building_hero_shredder</t>
+  </si>
+  <si>
+    <t>伐木机</t>
+  </si>
+  <si>
+    <t>building_hero_shredder</t>
+  </si>
+  <si>
+    <t>heroes/shredder</t>
+  </si>
+  <si>
+    <t>item_building_hero_silencer</t>
+  </si>
+  <si>
+    <t>building_hero_silencer</t>
+  </si>
+  <si>
+    <t>heroes/silencer</t>
+  </si>
+  <si>
+    <t>item_building_hero_skeleton_king</t>
+  </si>
+  <si>
+    <t>骷髅王</t>
+  </si>
+  <si>
+    <t>building_hero_skeleton_king</t>
+  </si>
+  <si>
+    <t>heroes/skeleton_king</t>
+  </si>
+  <si>
+    <t>item_building_hero_skywrath_mage</t>
+  </si>
+  <si>
+    <t>building_hero_skywrath_mage</t>
+  </si>
+  <si>
+    <t>heroes/skywrath_mage</t>
+  </si>
+  <si>
+    <t>item_building_hero_slardar</t>
+  </si>
+  <si>
+    <t>斯拉达</t>
+  </si>
+  <si>
+    <t>building_hero_slardar</t>
+  </si>
+  <si>
+    <t>heroes/slardar</t>
+  </si>
+  <si>
+    <t>item_building_hero_slark</t>
+  </si>
+  <si>
+    <t>斯拉克</t>
+  </si>
+  <si>
+    <t>building_hero_slark</t>
+  </si>
+  <si>
+    <t>heroes/slark</t>
+  </si>
+  <si>
+    <t>item_building_hero_snapfire</t>
+  </si>
+  <si>
+    <t>building_hero_snapfire</t>
+  </si>
+  <si>
+    <t>heroes/snapfire</t>
+  </si>
+  <si>
+    <t>item_building_hero_sniper</t>
+  </si>
+  <si>
+    <t>狙击手</t>
+  </si>
+  <si>
+    <t>building_hero_sniper</t>
+  </si>
+  <si>
+    <t>heroes/sniper</t>
+  </si>
+  <si>
+    <t>item_building_hero_spectre</t>
+  </si>
+  <si>
+    <t>building_hero_spectre</t>
+  </si>
+  <si>
+    <t>heroes/spectre</t>
+  </si>
+  <si>
+    <t>item_building_hero_spirit_breaker</t>
+  </si>
+  <si>
+    <t>building_hero_spirit_breaker</t>
+  </si>
+  <si>
+    <t>heroes/spirit_breaker</t>
+  </si>
+  <si>
+    <t>item_building_hero_storm_spirit</t>
+  </si>
+  <si>
+    <t>风暴之灵</t>
+  </si>
+  <si>
+    <t>building_hero_storm_spirit</t>
+  </si>
+  <si>
+    <t>heroes/storm_spirit</t>
+  </si>
+  <si>
+    <t>item_building_hero_sven</t>
+  </si>
+  <si>
+    <t>斯文</t>
+  </si>
+  <si>
+    <t>building_hero_sven</t>
+  </si>
+  <si>
+    <t>heroes/sven</t>
+  </si>
+  <si>
+    <t>item_building_hero_target_dummy</t>
+  </si>
+  <si>
+    <t>building_hero_target_dummy</t>
+  </si>
+  <si>
+    <t>heroes/target_dummy</t>
+  </si>
+  <si>
+    <t>item_building_hero_techies</t>
+  </si>
+  <si>
+    <t>building_hero_techies</t>
+  </si>
+  <si>
+    <t>heroes/techies</t>
+  </si>
+  <si>
+    <t>item_building_hero_templar_assassin</t>
+  </si>
+  <si>
+    <t>圣堂刺客</t>
+  </si>
+  <si>
+    <t>building_hero_templar_assassin</t>
+  </si>
+  <si>
+    <t>heroes/templar_assassin</t>
+  </si>
+  <si>
+    <t>item_building_hero_terrorblade</t>
+  </si>
+  <si>
+    <t>building_hero_terrorblade</t>
+  </si>
+  <si>
+    <t>heroes/terrorblade</t>
+  </si>
+  <si>
+    <t>item_building_hero_tidehunter</t>
+  </si>
+  <si>
+    <t>building_hero_tidehunter</t>
+  </si>
+  <si>
+    <t>heroes/tidehunter</t>
+  </si>
+  <si>
+    <t>item_building_hero_tinker</t>
+  </si>
+  <si>
+    <t>修补匠</t>
+  </si>
+  <si>
+    <t>building_hero_tinker</t>
+  </si>
+  <si>
+    <t>heroes/tinker</t>
+  </si>
+  <si>
+    <t>item_building_hero_tiny</t>
+  </si>
+  <si>
+    <t>building_hero_tiny</t>
+  </si>
+  <si>
+    <t>heroes/tiny</t>
+  </si>
+  <si>
+    <t>item_building_hero_treant</t>
+  </si>
+  <si>
+    <t>building_hero_treant</t>
+  </si>
+  <si>
+    <t>heroes/treant</t>
+  </si>
+  <si>
+    <t>item_building_hero_troll_warlord</t>
+  </si>
+  <si>
+    <t>巨魔战将</t>
+  </si>
+  <si>
+    <t>building_hero_troll_warlord</t>
+  </si>
+  <si>
+    <t>heroes/troll_warlord</t>
+  </si>
+  <si>
+    <t>item_building_hero_tusk</t>
+  </si>
+  <si>
+    <t>海民</t>
+  </si>
+  <si>
+    <t>building_hero_tusk</t>
+  </si>
+  <si>
+    <t>heroes/tusk</t>
+  </si>
+  <si>
+    <t>item_building_hero_undying</t>
+  </si>
+  <si>
+    <t>building_hero_undying</t>
+  </si>
+  <si>
+    <t>heroes/undying</t>
+  </si>
+  <si>
+    <t>item_building_hero_ursa</t>
+  </si>
+  <si>
+    <t>熊战士</t>
+  </si>
+  <si>
+    <t>building_hero_ursa</t>
+  </si>
+  <si>
+    <t>heroes/ursa</t>
+  </si>
+  <si>
+    <t>item_building_hero_vengefulspirit</t>
+  </si>
+  <si>
+    <t>building_hero_vengefulspirit</t>
+  </si>
+  <si>
+    <t>heroes/vengefulspirit</t>
+  </si>
+  <si>
+    <t>item_building_hero_venomancer</t>
+  </si>
+  <si>
+    <t>剧毒术士</t>
+  </si>
+  <si>
+    <t>building_hero_venomancer</t>
+  </si>
+  <si>
+    <t>heroes/venomancer</t>
+  </si>
+  <si>
+    <t>item_building_hero_viper</t>
+  </si>
+  <si>
+    <t>冥界亚龙</t>
+  </si>
+  <si>
+    <t>building_hero_viper</t>
+  </si>
+  <si>
+    <t>heroes/viper</t>
+  </si>
+  <si>
+    <t>item_building_hero_visage</t>
+  </si>
+  <si>
+    <t>building_hero_visage</t>
+  </si>
+  <si>
+    <t>heroes/visage</t>
+  </si>
+  <si>
+    <t>item_building_hero_void_spirit</t>
+  </si>
+  <si>
+    <t>虚无之灵</t>
+  </si>
+  <si>
+    <t>building_hero_void_spirit</t>
+  </si>
+  <si>
+    <t>heroes/void_spirit</t>
+  </si>
+  <si>
+    <t>item_building_hero_warlock</t>
+  </si>
+  <si>
+    <t>building_hero_warlock</t>
+  </si>
+  <si>
+    <t>heroes/warlock</t>
+  </si>
+  <si>
+    <t>item_building_hero_weaver</t>
+  </si>
+  <si>
+    <t>building_hero_weaver</t>
+  </si>
+  <si>
+    <t>heroes/weaver</t>
+  </si>
+  <si>
+    <t>item_building_hero_windrunner</t>
+  </si>
+  <si>
+    <t>building_hero_windrunner</t>
+  </si>
+  <si>
+    <t>heroes/windrunner</t>
+  </si>
+  <si>
+    <t>item_building_hero_winter_wyvern</t>
+  </si>
+  <si>
+    <t>冰霜巨龙</t>
+  </si>
+  <si>
+    <t>building_hero_winter_wyvern</t>
+  </si>
+  <si>
+    <t>heroes/winter_wyvern</t>
+  </si>
+  <si>
+    <t>item_building_hero_wisp</t>
+  </si>
+  <si>
+    <t>building_hero_wisp</t>
+  </si>
+  <si>
+    <t>heroes/wisp</t>
+  </si>
+  <si>
+    <t>item_building_hero_witch_doctor</t>
+  </si>
+  <si>
+    <t>building_hero_witch_doctor</t>
+  </si>
+  <si>
+    <t>heroes/witch_doctor</t>
+  </si>
+  <si>
+    <t>item_building_hero_zuus</t>
+  </si>
+  <si>
+    <t>宙斯</t>
+  </si>
+  <si>
+    <t>building_hero_zuus</t>
+  </si>
+  <si>
+    <t>heroes/zuus</t>
+  </si>
+  <si>
+    <t>item_building_hero_t01</t>
+  </si>
+  <si>
+    <t>夜魇近战兵</t>
+  </si>
+  <si>
+    <t>building_hero_t01</t>
+  </si>
+  <si>
+    <t>heroes/t01</t>
+  </si>
+  <si>
+    <t>item_building_hero_t02</t>
+  </si>
+  <si>
+    <t>夜魇远程兵</t>
+  </si>
+  <si>
+    <t>building_hero_t02</t>
+  </si>
+  <si>
+    <t>heroes/t02</t>
+  </si>
+  <si>
+    <t>item_building_hero_t03</t>
+  </si>
+  <si>
+    <t>狂暴枭兽</t>
+  </si>
+  <si>
+    <t>building_hero_t03</t>
+  </si>
+  <si>
+    <t>heroes/t03</t>
+  </si>
+  <si>
+    <t>item_building_hero_t04</t>
+  </si>
+  <si>
+    <t>死灵幽魂</t>
+  </si>
+  <si>
+    <t>building_hero_t04</t>
+  </si>
+  <si>
+    <t>heroes/t04</t>
+  </si>
+  <si>
+    <t>item_building_hero_t05</t>
+  </si>
+  <si>
+    <t>天辉近战兵</t>
+  </si>
+  <si>
+    <t>building_hero_t05</t>
+  </si>
+  <si>
+    <t>heroes/t05</t>
+  </si>
+  <si>
+    <t>item_building_hero_t06</t>
+  </si>
+  <si>
+    <t>天辉远程兵</t>
+  </si>
+  <si>
+    <t>building_hero_t06</t>
+  </si>
+  <si>
+    <t>heroes/t06</t>
+  </si>
+  <si>
+    <t>item_building_hero_t07</t>
+  </si>
+  <si>
+    <t>萨特·地狱使者</t>
+  </si>
+  <si>
+    <t>building_hero_t07</t>
+  </si>
+  <si>
+    <t>heroes/t07</t>
+  </si>
+  <si>
+    <t>item_building_hero_t08</t>
+  </si>
+  <si>
+    <t>风暴巫师</t>
+  </si>
+  <si>
+    <t>building_hero_t08</t>
+  </si>
+  <si>
+    <t>heroes/t08</t>
+  </si>
+  <si>
+    <t>item_building_hero_t10</t>
+  </si>
+  <si>
+    <t>半人马酋长</t>
+  </si>
+  <si>
+    <t>building_hero_t10</t>
+  </si>
+  <si>
+    <t>heroes/t10</t>
+  </si>
+  <si>
+    <t>item_building_hero_t11</t>
+  </si>
+  <si>
+    <t>黑暗巨魔萨满</t>
+  </si>
+  <si>
+    <t>building_hero_t11</t>
+  </si>
+  <si>
+    <t>heroes/t11</t>
+  </si>
+  <si>
+    <t>item_building_hero_t12</t>
+  </si>
+  <si>
+    <t>食人魔棒槌手</t>
+  </si>
+  <si>
+    <t>building_hero_t12</t>
+  </si>
+  <si>
+    <t>heroes/t12</t>
+  </si>
+  <si>
+    <t>item_building_hero_t15</t>
+  </si>
+  <si>
+    <t>狗头人奴隶主</t>
+  </si>
+  <si>
+    <t>building_hero_t15</t>
+  </si>
+  <si>
+    <t>heroes/t15</t>
+  </si>
+  <si>
+    <t>item_building_hero_t16</t>
+  </si>
+  <si>
+    <t>雷肤兽</t>
+  </si>
+  <si>
+    <t>building_hero_t16</t>
+  </si>
+  <si>
+    <t>heroes/t16</t>
+  </si>
+  <si>
+    <t>item_building_hero_t17</t>
+  </si>
+  <si>
+    <t>森林巨魔巫师</t>
+  </si>
+  <si>
+    <t>building_hero_t17</t>
+  </si>
+  <si>
+    <t>heroes/t17</t>
+  </si>
+  <si>
+    <t>item_building_hero_t19</t>
+  </si>
+  <si>
+    <t>狂暴熊怪</t>
+  </si>
+  <si>
+    <t>building_hero_t19</t>
+  </si>
+  <si>
+    <t>heroes/t19</t>
+  </si>
+  <si>
+    <t>item_building_hero_t21</t>
+  </si>
+  <si>
+    <t>虚灵守卫</t>
+  </si>
+  <si>
+    <t>building_hero_t21</t>
+  </si>
+  <si>
+    <t>heroes/t21</t>
+  </si>
+  <si>
+    <t>item_building_hero_t22</t>
+  </si>
+  <si>
+    <t>魔火精灵</t>
+  </si>
+  <si>
+    <t>building_hero_t22</t>
+  </si>
+  <si>
+    <t>heroes/t22</t>
+  </si>
+  <si>
+    <t>item_building_hero_t23</t>
+  </si>
+  <si>
+    <t>恐怖之狼</t>
+  </si>
+  <si>
+    <t>building_hero_t23</t>
+  </si>
+  <si>
+    <t>heroes/t23</t>
+  </si>
+  <si>
+    <t>item_building_hero_t25</t>
+  </si>
+  <si>
+    <t>恶魔之魂</t>
+  </si>
+  <si>
+    <t>building_hero_t25</t>
+  </si>
+  <si>
+    <t>heroes/t25</t>
+  </si>
+  <si>
+    <t>item_building_hero_t27</t>
+  </si>
+  <si>
+    <t>风元素使</t>
+  </si>
+  <si>
+    <t>building_hero_t27</t>
+  </si>
+  <si>
+    <t>heroes/t27</t>
+  </si>
+  <si>
+    <t>item_building_hero_t28</t>
+  </si>
+  <si>
+    <t>土元素使</t>
+  </si>
+  <si>
+    <t>building_hero_t28</t>
+  </si>
+  <si>
+    <t>heroes/t28</t>
+  </si>
+  <si>
+    <t>item_building_hero_t29</t>
+  </si>
+  <si>
+    <t>火元素使</t>
+  </si>
+  <si>
+    <t>building_hero_t29</t>
+  </si>
+  <si>
+    <t>heroes/t29</t>
+  </si>
+  <si>
+    <t>item_building_hero_t34</t>
+  </si>
+  <si>
+    <t>花岗石傀儡</t>
+  </si>
+  <si>
+    <t>building_hero_t34</t>
+  </si>
+  <si>
+    <t>heroes/t34</t>
+  </si>
+  <si>
+    <t>item_building_hero_t35</t>
+  </si>
+  <si>
+    <t>地狱火</t>
+  </si>
+  <si>
+    <t>building_hero_t35</t>
+  </si>
+  <si>
+    <t>heroes/t35</t>
+  </si>
+  <si>
+    <t>item_building_hero_t36</t>
+  </si>
+  <si>
+    <t>远古黑龙</t>
+  </si>
+  <si>
+    <t>building_hero_t36</t>
+  </si>
+  <si>
+    <t>heroes/t36</t>
+  </si>
+  <si>
+    <t>item_building_hero_t37</t>
+  </si>
+  <si>
+    <t>虚无元素使</t>
+  </si>
+  <si>
+    <t>building_hero_t37</t>
+  </si>
+  <si>
+    <t>heroes/t37</t>
+  </si>
+  <si>
+    <t>item_building_hero_t41</t>
+  </si>
+  <si>
+    <t>巨魔勇士</t>
+  </si>
+  <si>
+    <t>building_hero_t41</t>
+  </si>
+  <si>
+    <t>heroes/t41</t>
+  </si>
+  <si>
+    <t>item_building_unit_mango_tree</t>
+  </si>
+  <si>
+    <t>芒果树</t>
+  </si>
+  <si>
+    <t>building_unit_mango_tree</t>
+  </si>
+  <si>
+    <t>heroes/building_unit_mango_tree</t>
+  </si>
+  <si>
+    <t>item_building_hero_spirit_bear</t>
+  </si>
+  <si>
+    <t>熊灵</t>
+  </si>
+  <si>
+    <t>building_hero_spirit_bear</t>
+  </si>
+  <si>
+    <t>heroes/spirit_bear</t>
+  </si>
+  <si>
+    <t>字段注释</t>
+  </si>
+  <si>
+    <t>表名</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>building_item_card</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>K+</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>item_building_hero_</t>
+  </si>
+  <si>
+    <t>building_hero_</t>
+  </si>
+  <si>
+    <t>npc/items/building/item_building_hero_</t>
+  </si>
+  <si>
+    <t>heroes/npc_dota_hero_</t>
+  </si>
+  <si>
+    <t>antimage</t>
+  </si>
+  <si>
+    <t>axe</t>
+  </si>
+  <si>
+    <t>bane</t>
+  </si>
+  <si>
+    <t>bloodseeker</t>
+  </si>
+  <si>
+    <t>crystal_maiden</t>
+  </si>
+  <si>
+    <t>drow_ranger</t>
+  </si>
+  <si>
+    <t>earthshaker</t>
+  </si>
+  <si>
+    <t>juggernaut</t>
+  </si>
+  <si>
+    <t>mirana</t>
+  </si>
+  <si>
+    <t>nevermore</t>
+  </si>
+  <si>
+    <t>morphling</t>
+  </si>
+  <si>
+    <t>phantom_lancer</t>
+  </si>
+  <si>
+    <t>puck</t>
+  </si>
+  <si>
+    <t>pudge</t>
+  </si>
+  <si>
+    <t>razor</t>
+  </si>
+  <si>
+    <t>sand_king</t>
+  </si>
+  <si>
+    <t>storm_spirit</t>
+  </si>
+  <si>
+    <t>sven</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>vengefulspirit</t>
+  </si>
+  <si>
+    <t>windrunner</t>
+  </si>
+  <si>
+    <t>zuus</t>
+  </si>
+  <si>
+    <t>kunkka</t>
+  </si>
+  <si>
+    <t>lina</t>
+  </si>
+  <si>
+    <t>lich</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>shadow_shaman</t>
+  </si>
+  <si>
+    <t>slardar</t>
+  </si>
+  <si>
+    <t>tidehunter</t>
+  </si>
+  <si>
+    <t>witch_doctor</t>
+  </si>
+  <si>
+    <t>riki</t>
+  </si>
+  <si>
+    <t>enigma</t>
+  </si>
+  <si>
+    <t>tinker</t>
+  </si>
+  <si>
+    <t>sniper</t>
+  </si>
+  <si>
+    <t>necrolyte</t>
+  </si>
+  <si>
+    <t>warlock</t>
+  </si>
+  <si>
+    <t>beastmaster</t>
+  </si>
+  <si>
+    <t>queenofpain</t>
+  </si>
+  <si>
+    <t>venomancer</t>
+  </si>
+  <si>
+    <t>faceless_void</t>
+  </si>
+  <si>
+    <t>skeleton_king</t>
+  </si>
+  <si>
+    <t>death_prophet</t>
+  </si>
+  <si>
+    <t>phantom_assassin</t>
+  </si>
+  <si>
+    <t>pugna</t>
+  </si>
+  <si>
+    <t>templar_assassin</t>
+  </si>
+  <si>
+    <t>viper</t>
+  </si>
+  <si>
+    <t>luna</t>
+  </si>
+  <si>
+    <t>dragon_knight</t>
+  </si>
+  <si>
+    <t>dazzle</t>
+  </si>
+  <si>
+    <t>rattletrap</t>
+  </si>
+  <si>
+    <t>leshrac</t>
+  </si>
+  <si>
+    <t>furion</t>
+  </si>
+  <si>
+    <t>life_stealer</t>
+  </si>
+  <si>
+    <t>dark_seer</t>
+  </si>
+  <si>
+    <t>clinkz</t>
+  </si>
+  <si>
+    <t>omniknight</t>
+  </si>
+  <si>
+    <t>enchantress</t>
+  </si>
+  <si>
+    <t>huskar</t>
+  </si>
+  <si>
+    <t>night_stalker</t>
+  </si>
+  <si>
+    <t>broodmother</t>
+  </si>
+  <si>
+    <t>bounty_hunter</t>
+  </si>
+  <si>
+    <t>weaver</t>
+  </si>
+  <si>
+    <t>jakiro</t>
+  </si>
+  <si>
+    <t>batrider</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>spectre</t>
+  </si>
+  <si>
+    <t>doom_bringer</t>
+  </si>
+  <si>
+    <t>ancient_apparition</t>
+  </si>
+  <si>
+    <t>ursa</t>
+  </si>
+  <si>
+    <t>spirit_breaker</t>
+  </si>
+  <si>
+    <t>gyrocopter</t>
+  </si>
+  <si>
+    <t>alchemist</t>
+  </si>
+  <si>
+    <t>invoker</t>
+  </si>
+  <si>
+    <t>silencer</t>
+  </si>
+  <si>
+    <t>obsidian_destroyer</t>
+  </si>
+  <si>
+    <t>lycan</t>
+  </si>
+  <si>
+    <t>brewmaster</t>
+  </si>
+  <si>
+    <t>shadow_demon</t>
+  </si>
+  <si>
+    <t>lone_druid</t>
+  </si>
+  <si>
+    <t>chaos_knight</t>
+  </si>
+  <si>
+    <t>meepo</t>
+  </si>
+  <si>
+    <t>treant</t>
+  </si>
+  <si>
+    <t>ogre_magi</t>
+  </si>
+  <si>
+    <t>undying</t>
+  </si>
+  <si>
+    <t>rubick</t>
+  </si>
+  <si>
+    <t>disruptor</t>
+  </si>
+  <si>
+    <t>nyx_assassin</t>
+  </si>
+  <si>
+    <t>naga_siren</t>
+  </si>
+  <si>
+    <t>keeper_of_the_light</t>
+  </si>
+  <si>
+    <t>wisp</t>
+  </si>
+  <si>
+    <t>visage</t>
+  </si>
+  <si>
+    <t>slark</t>
+  </si>
+  <si>
+    <t>medusa</t>
+  </si>
+  <si>
+    <t>troll_warlord</t>
+  </si>
+  <si>
+    <t>centaur</t>
+  </si>
+  <si>
+    <t>magnataur</t>
+  </si>
+  <si>
+    <t>shredder</t>
+  </si>
+  <si>
+    <t>bristleback</t>
+  </si>
+  <si>
+    <t>tusk</t>
+  </si>
+  <si>
+    <t>skywrath_mage</t>
+  </si>
+  <si>
+    <t>abaddon</t>
+  </si>
+  <si>
+    <t>elder_titan</t>
+  </si>
+  <si>
+    <t>legion_commander</t>
+  </si>
+  <si>
+    <t>ember_spirit</t>
+  </si>
+  <si>
+    <t>earth_spirit</t>
+  </si>
+  <si>
+    <t>terrorblade</t>
+  </si>
+  <si>
+    <t>phoenix</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>techies</t>
+  </si>
+  <si>
+    <t>target_dummy</t>
+  </si>
+  <si>
+    <t>winter_wyvern</t>
+  </si>
+  <si>
+    <t>arc_warden</t>
+  </si>
+  <si>
+    <t>abyssal_underlord</t>
+  </si>
+  <si>
+    <t>monkey_king</t>
+  </si>
+  <si>
+    <t>pangolier</t>
+  </si>
+  <si>
+    <t>dark_willow</t>
+  </si>
+  <si>
+    <t>grimstroke</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>void_spirit</t>
+  </si>
+  <si>
+    <t>snapfire</t>
+  </si>
+  <si>
+    <t>hoodwink</t>
+  </si>
+  <si>
+    <t>dawnbreaker</t>
   </si>
   <si>
     <t>building_hero_sand_king</t>
-  </si>
-  <si>
-    <t>heroes/sand_king</t>
-  </si>
-  <si>
-    <t>item_building_hero_shadow_demon</t>
-  </si>
-  <si>
-    <t>building_hero_shadow_demon</t>
-  </si>
-  <si>
-    <t>heroes/shadow_demon</t>
-  </si>
-  <si>
-    <t>item_building_hero_shadow_shaman</t>
-  </si>
-  <si>
-    <t>building_hero_shadow_shaman</t>
-  </si>
-  <si>
-    <t>heroes/shadow_shaman</t>
-  </si>
-  <si>
-    <t>item_building_hero_shredder</t>
-  </si>
-  <si>
-    <t>伐木机</t>
-  </si>
-  <si>
-    <t>building_hero_shredder</t>
-  </si>
-  <si>
-    <t>heroes/shredder</t>
-  </si>
-  <si>
-    <t>item_building_hero_silencer</t>
-  </si>
-  <si>
-    <t>building_hero_silencer</t>
-  </si>
-  <si>
-    <t>heroes/silencer</t>
-  </si>
-  <si>
-    <t>item_building_hero_skeleton_king</t>
-  </si>
-  <si>
-    <t>骷髅王</t>
-  </si>
-  <si>
-    <t>building_hero_skeleton_king</t>
-  </si>
-  <si>
-    <t>heroes/skeleton_king</t>
-  </si>
-  <si>
-    <t>item_building_hero_skywrath_mage</t>
-  </si>
-  <si>
-    <t>building_hero_skywrath_mage</t>
-  </si>
-  <si>
-    <t>heroes/skywrath_mage</t>
-  </si>
-  <si>
-    <t>item_building_hero_slardar</t>
-  </si>
-  <si>
-    <t>斯拉达</t>
-  </si>
-  <si>
-    <t>building_hero_slardar</t>
-  </si>
-  <si>
-    <t>heroes/slardar</t>
-  </si>
-  <si>
-    <t>item_building_hero_slark</t>
-  </si>
-  <si>
-    <t>斯拉克</t>
-  </si>
-  <si>
-    <t>building_hero_slark</t>
-  </si>
-  <si>
-    <t>heroes/slark</t>
-  </si>
-  <si>
-    <t>item_building_hero_snapfire</t>
-  </si>
-  <si>
-    <t>building_hero_snapfire</t>
-  </si>
-  <si>
-    <t>heroes/snapfire</t>
-  </si>
-  <si>
-    <t>item_building_hero_sniper</t>
-  </si>
-  <si>
-    <t>狙击手</t>
-  </si>
-  <si>
-    <t>building_hero_sniper</t>
-  </si>
-  <si>
-    <t>heroes/sniper</t>
-  </si>
-  <si>
-    <t>item_building_hero_spectre</t>
-  </si>
-  <si>
-    <t>building_hero_spectre</t>
-  </si>
-  <si>
-    <t>heroes/spectre</t>
-  </si>
-  <si>
-    <t>item_building_hero_spirit_breaker</t>
-  </si>
-  <si>
-    <t>building_hero_spirit_breaker</t>
-  </si>
-  <si>
-    <t>heroes/spirit_breaker</t>
-  </si>
-  <si>
-    <t>item_building_hero_storm_spirit</t>
-  </si>
-  <si>
-    <t>风暴之灵</t>
-  </si>
-  <si>
-    <t>building_hero_storm_spirit</t>
-  </si>
-  <si>
-    <t>heroes/storm_spirit</t>
-  </si>
-  <si>
-    <t>item_building_hero_sven</t>
-  </si>
-  <si>
-    <t>斯文</t>
-  </si>
-  <si>
-    <t>building_hero_sven</t>
-  </si>
-  <si>
-    <t>heroes/sven</t>
-  </si>
-  <si>
-    <t>item_building_hero_target_dummy</t>
-  </si>
-  <si>
-    <t>building_hero_target_dummy</t>
-  </si>
-  <si>
-    <t>heroes/target_dummy</t>
-  </si>
-  <si>
-    <t>item_building_hero_techies</t>
-  </si>
-  <si>
-    <t>building_hero_techies</t>
-  </si>
-  <si>
-    <t>heroes/techies</t>
-  </si>
-  <si>
-    <t>item_building_hero_templar_assassin</t>
-  </si>
-  <si>
-    <t>圣堂刺客</t>
-  </si>
-  <si>
-    <t>building_hero_templar_assassin</t>
-  </si>
-  <si>
-    <t>heroes/templar_assassin</t>
-  </si>
-  <si>
-    <t>item_building_hero_terrorblade</t>
-  </si>
-  <si>
-    <t>building_hero_terrorblade</t>
-  </si>
-  <si>
-    <t>heroes/terrorblade</t>
-  </si>
-  <si>
-    <t>item_building_hero_tidehunter</t>
-  </si>
-  <si>
-    <t>building_hero_tidehunter</t>
-  </si>
-  <si>
-    <t>heroes/tidehunter</t>
-  </si>
-  <si>
-    <t>item_building_hero_tinker</t>
-  </si>
-  <si>
-    <t>修补匠</t>
-  </si>
-  <si>
-    <t>building_hero_tinker</t>
-  </si>
-  <si>
-    <t>heroes/tinker</t>
-  </si>
-  <si>
-    <t>item_building_hero_tiny</t>
-  </si>
-  <si>
-    <t>building_hero_tiny</t>
-  </si>
-  <si>
-    <t>heroes/tiny</t>
-  </si>
-  <si>
-    <t>item_building_hero_treant</t>
-  </si>
-  <si>
-    <t>building_hero_treant</t>
-  </si>
-  <si>
-    <t>heroes/treant</t>
-  </si>
-  <si>
-    <t>item_building_hero_troll_warlord</t>
-  </si>
-  <si>
-    <t>巨魔战将</t>
-  </si>
-  <si>
-    <t>building_hero_troll_warlord</t>
-  </si>
-  <si>
-    <t>heroes/troll_warlord</t>
-  </si>
-  <si>
-    <t>item_building_hero_tusk</t>
-  </si>
-  <si>
-    <t>海民</t>
-  </si>
-  <si>
-    <t>building_hero_tusk</t>
-  </si>
-  <si>
-    <t>heroes/tusk</t>
-  </si>
-  <si>
-    <t>item_building_hero_undying</t>
-  </si>
-  <si>
-    <t>building_hero_undying</t>
-  </si>
-  <si>
-    <t>heroes/undying</t>
-  </si>
-  <si>
-    <t>item_building_hero_ursa</t>
-  </si>
-  <si>
-    <t>熊战士</t>
-  </si>
-  <si>
-    <t>building_hero_ursa</t>
-  </si>
-  <si>
-    <t>heroes/ursa</t>
-  </si>
-  <si>
-    <t>item_building_hero_vengefulspirit</t>
-  </si>
-  <si>
-    <t>building_hero_vengefulspirit</t>
-  </si>
-  <si>
-    <t>heroes/vengefulspirit</t>
-  </si>
-  <si>
-    <t>item_building_hero_venomancer</t>
-  </si>
-  <si>
-    <t>剧毒术士</t>
-  </si>
-  <si>
-    <t>building_hero_venomancer</t>
-  </si>
-  <si>
-    <t>heroes/venomancer</t>
-  </si>
-  <si>
-    <t>item_building_hero_viper</t>
-  </si>
-  <si>
-    <t>冥界亚龙</t>
-  </si>
-  <si>
-    <t>building_hero_viper</t>
-  </si>
-  <si>
-    <t>heroes/viper</t>
-  </si>
-  <si>
-    <t>item_building_hero_visage</t>
-  </si>
-  <si>
-    <t>building_hero_visage</t>
-  </si>
-  <si>
-    <t>heroes/visage</t>
-  </si>
-  <si>
-    <t>item_building_hero_void_spirit</t>
-  </si>
-  <si>
-    <t>虚无之灵</t>
-  </si>
-  <si>
-    <t>building_hero_void_spirit</t>
-  </si>
-  <si>
-    <t>heroes/void_spirit</t>
-  </si>
-  <si>
-    <t>item_building_hero_warlock</t>
-  </si>
-  <si>
-    <t>building_hero_warlock</t>
-  </si>
-  <si>
-    <t>heroes/warlock</t>
-  </si>
-  <si>
-    <t>item_building_hero_weaver</t>
-  </si>
-  <si>
-    <t>building_hero_weaver</t>
-  </si>
-  <si>
-    <t>heroes/weaver</t>
-  </si>
-  <si>
-    <t>item_building_hero_windrunner</t>
-  </si>
-  <si>
-    <t>building_hero_windrunner</t>
-  </si>
-  <si>
-    <t>heroes/windrunner</t>
-  </si>
-  <si>
-    <t>item_building_hero_winter_wyvern</t>
-  </si>
-  <si>
-    <t>冰霜巨龙</t>
-  </si>
-  <si>
-    <t>building_hero_winter_wyvern</t>
-  </si>
-  <si>
-    <t>heroes/winter_wyvern</t>
-  </si>
-  <si>
-    <t>item_building_hero_wisp</t>
-  </si>
-  <si>
-    <t>building_hero_wisp</t>
-  </si>
-  <si>
-    <t>heroes/wisp</t>
-  </si>
-  <si>
-    <t>item_building_hero_witch_doctor</t>
-  </si>
-  <si>
-    <t>building_hero_witch_doctor</t>
-  </si>
-  <si>
-    <t>heroes/witch_doctor</t>
-  </si>
-  <si>
-    <t>item_building_hero_zuus</t>
-  </si>
-  <si>
-    <t>宙斯</t>
-  </si>
-  <si>
-    <t>building_hero_zuus</t>
-  </si>
-  <si>
-    <t>heroes/zuus</t>
-  </si>
-  <si>
-    <t>item_building_hero_t01</t>
-  </si>
-  <si>
-    <t>夜魇近战兵</t>
-  </si>
-  <si>
-    <t>building_hero_t01</t>
-  </si>
-  <si>
-    <t>heroes/t01</t>
-  </si>
-  <si>
-    <t>item_building_hero_t02</t>
-  </si>
-  <si>
-    <t>夜魇远程兵</t>
-  </si>
-  <si>
-    <t>building_hero_t02</t>
-  </si>
-  <si>
-    <t>heroes/t02</t>
-  </si>
-  <si>
-    <t>item_building_hero_t03</t>
-  </si>
-  <si>
-    <t>狂暴枭兽</t>
-  </si>
-  <si>
-    <t>building_hero_t03</t>
-  </si>
-  <si>
-    <t>heroes/t03</t>
-  </si>
-  <si>
-    <t>item_building_hero_t04</t>
-  </si>
-  <si>
-    <t>死灵幽魂</t>
-  </si>
-  <si>
-    <t>building_hero_t04</t>
-  </si>
-  <si>
-    <t>heroes/t04</t>
-  </si>
-  <si>
-    <t>item_building_hero_t05</t>
-  </si>
-  <si>
-    <t>天辉近战兵</t>
-  </si>
-  <si>
-    <t>building_hero_t05</t>
-  </si>
-  <si>
-    <t>heroes/t05</t>
-  </si>
-  <si>
-    <t>item_building_hero_t06</t>
-  </si>
-  <si>
-    <t>天辉远程兵</t>
-  </si>
-  <si>
-    <t>building_hero_t06</t>
-  </si>
-  <si>
-    <t>heroes/t06</t>
-  </si>
-  <si>
-    <t>item_building_hero_t07</t>
-  </si>
-  <si>
-    <t>萨特·地狱使者</t>
-  </si>
-  <si>
-    <t>building_hero_t07</t>
-  </si>
-  <si>
-    <t>heroes/t07</t>
-  </si>
-  <si>
-    <t>item_building_hero_t08</t>
-  </si>
-  <si>
-    <t>风暴巫师</t>
-  </si>
-  <si>
-    <t>building_hero_t08</t>
-  </si>
-  <si>
-    <t>heroes/t08</t>
-  </si>
-  <si>
-    <t>item_building_hero_t10</t>
-  </si>
-  <si>
-    <t>半人马酋长</t>
-  </si>
-  <si>
-    <t>building_hero_t10</t>
-  </si>
-  <si>
-    <t>heroes/t10</t>
-  </si>
-  <si>
-    <t>item_building_hero_t11</t>
-  </si>
-  <si>
-    <t>黑暗巨魔萨满</t>
-  </si>
-  <si>
-    <t>building_hero_t11</t>
-  </si>
-  <si>
-    <t>heroes/t11</t>
-  </si>
-  <si>
-    <t>item_building_hero_t12</t>
-  </si>
-  <si>
-    <t>食人魔棒槌手</t>
-  </si>
-  <si>
-    <t>building_hero_t12</t>
-  </si>
-  <si>
-    <t>heroes/t12</t>
-  </si>
-  <si>
-    <t>item_building_hero_t15</t>
-  </si>
-  <si>
-    <t>狗头人奴隶主</t>
-  </si>
-  <si>
-    <t>building_hero_t15</t>
-  </si>
-  <si>
-    <t>heroes/t15</t>
-  </si>
-  <si>
-    <t>item_building_hero_t16</t>
-  </si>
-  <si>
-    <t>雷肤兽</t>
-  </si>
-  <si>
-    <t>building_hero_t16</t>
-  </si>
-  <si>
-    <t>heroes/t16</t>
-  </si>
-  <si>
-    <t>item_building_hero_t17</t>
-  </si>
-  <si>
-    <t>森林巨魔巫师</t>
-  </si>
-  <si>
-    <t>building_hero_t17</t>
-  </si>
-  <si>
-    <t>heroes/t17</t>
-  </si>
-  <si>
-    <t>item_building_hero_t19</t>
-  </si>
-  <si>
-    <t>狂暴熊怪</t>
-  </si>
-  <si>
-    <t>building_hero_t19</t>
-  </si>
-  <si>
-    <t>heroes/t19</t>
-  </si>
-  <si>
-    <t>item_building_hero_t21</t>
-  </si>
-  <si>
-    <t>虚灵守卫</t>
-  </si>
-  <si>
-    <t>building_hero_t21</t>
-  </si>
-  <si>
-    <t>heroes/t21</t>
-  </si>
-  <si>
-    <t>item_building_hero_t22</t>
-  </si>
-  <si>
-    <t>魔火精灵</t>
-  </si>
-  <si>
-    <t>building_hero_t22</t>
-  </si>
-  <si>
-    <t>heroes/t22</t>
-  </si>
-  <si>
-    <t>item_building_hero_t23</t>
-  </si>
-  <si>
-    <t>恐怖之狼</t>
-  </si>
-  <si>
-    <t>building_hero_t23</t>
-  </si>
-  <si>
-    <t>heroes/t23</t>
-  </si>
-  <si>
-    <t>item_building_hero_t25</t>
-  </si>
-  <si>
-    <t>恶魔之魂</t>
-  </si>
-  <si>
-    <t>building_hero_t25</t>
-  </si>
-  <si>
-    <t>heroes/t25</t>
-  </si>
-  <si>
-    <t>item_building_hero_t27</t>
-  </si>
-  <si>
-    <t>风元素使</t>
-  </si>
-  <si>
-    <t>building_hero_t27</t>
-  </si>
-  <si>
-    <t>heroes/t27</t>
-  </si>
-  <si>
-    <t>item_building_hero_t28</t>
-  </si>
-  <si>
-    <t>土元素使</t>
-  </si>
-  <si>
-    <t>building_hero_t28</t>
-  </si>
-  <si>
-    <t>heroes/t28</t>
-  </si>
-  <si>
-    <t>item_building_hero_t29</t>
-  </si>
-  <si>
-    <t>火元素使</t>
-  </si>
-  <si>
-    <t>building_hero_t29</t>
-  </si>
-  <si>
-    <t>heroes/t29</t>
-  </si>
-  <si>
-    <t>item_building_hero_t34</t>
-  </si>
-  <si>
-    <t>花岗石傀儡</t>
-  </si>
-  <si>
-    <t>building_hero_t34</t>
-  </si>
-  <si>
-    <t>heroes/t34</t>
-  </si>
-  <si>
-    <t>item_building_hero_t35</t>
-  </si>
-  <si>
-    <t>地狱火</t>
-  </si>
-  <si>
-    <t>building_hero_t35</t>
-  </si>
-  <si>
-    <t>heroes/t35</t>
-  </si>
-  <si>
-    <t>item_building_hero_t36</t>
-  </si>
-  <si>
-    <t>远古黑龙</t>
-  </si>
-  <si>
-    <t>building_hero_t36</t>
-  </si>
-  <si>
-    <t>heroes/t36</t>
-  </si>
-  <si>
-    <t>item_building_hero_t37</t>
-  </si>
-  <si>
-    <t>虚无元素使</t>
-  </si>
-  <si>
-    <t>building_hero_t37</t>
-  </si>
-  <si>
-    <t>heroes/t37</t>
-  </si>
-  <si>
-    <t>item_building_hero_t41</t>
-  </si>
-  <si>
-    <t>巨魔勇士</t>
-  </si>
-  <si>
-    <t>building_hero_t41</t>
-  </si>
-  <si>
-    <t>heroes/t41</t>
-  </si>
-  <si>
-    <t>item_building_unit_mango_tree</t>
-  </si>
-  <si>
-    <t>芒果树</t>
-  </si>
-  <si>
-    <t>building_unit_mango_tree</t>
-  </si>
-  <si>
-    <t>heroes/building_unit_mango_tree</t>
-  </si>
-  <si>
-    <t>item_building_hero_spirit_bear</t>
-  </si>
-  <si>
-    <t>熊灵</t>
-  </si>
-  <si>
-    <t>building_hero_spirit_bear</t>
-  </si>
-  <si>
-    <t>heroes/spirit_bear</t>
-  </si>
-  <si>
-    <t>字段注释</t>
-  </si>
-  <si>
-    <t>表名</t>
-  </si>
-  <si>
-    <t>字段</t>
-  </si>
-  <si>
-    <t>building_item_card</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>K+</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>item_building_hero_</t>
-  </si>
-  <si>
-    <t>building_hero_</t>
-  </si>
-  <si>
-    <t>npc/items/building/item_building_hero_</t>
-  </si>
-  <si>
-    <t>heroes/npc_dota_hero_</t>
-  </si>
-  <si>
-    <t>antimage</t>
-  </si>
-  <si>
-    <t>axe</t>
-  </si>
-  <si>
-    <t>bane</t>
-  </si>
-  <si>
-    <t>bloodseeker</t>
-  </si>
-  <si>
-    <t>crystal_maiden</t>
-  </si>
-  <si>
-    <t>drow_ranger</t>
-  </si>
-  <si>
-    <t>earthshaker</t>
-  </si>
-  <si>
-    <t>juggernaut</t>
-  </si>
-  <si>
-    <t>mirana</t>
-  </si>
-  <si>
-    <t>nevermore</t>
-  </si>
-  <si>
-    <t>morphling</t>
-  </si>
-  <si>
-    <t>phantom_lancer</t>
-  </si>
-  <si>
-    <t>puck</t>
-  </si>
-  <si>
-    <t>pudge</t>
-  </si>
-  <si>
-    <t>razor</t>
-  </si>
-  <si>
-    <t>sand_king</t>
-  </si>
-  <si>
-    <t>storm_spirit</t>
-  </si>
-  <si>
-    <t>sven</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>vengefulspirit</t>
-  </si>
-  <si>
-    <t>windrunner</t>
-  </si>
-  <si>
-    <t>zuus</t>
-  </si>
-  <si>
-    <t>kunkka</t>
-  </si>
-  <si>
-    <t>lina</t>
-  </si>
-  <si>
-    <t>lich</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>shadow_shaman</t>
-  </si>
-  <si>
-    <t>slardar</t>
-  </si>
-  <si>
-    <t>tidehunter</t>
-  </si>
-  <si>
-    <t>witch_doctor</t>
-  </si>
-  <si>
-    <t>riki</t>
-  </si>
-  <si>
-    <t>enigma</t>
-  </si>
-  <si>
-    <t>tinker</t>
-  </si>
-  <si>
-    <t>sniper</t>
-  </si>
-  <si>
-    <t>necrolyte</t>
-  </si>
-  <si>
-    <t>warlock</t>
-  </si>
-  <si>
-    <t>beastmaster</t>
-  </si>
-  <si>
-    <t>queenofpain</t>
-  </si>
-  <si>
-    <t>venomancer</t>
-  </si>
-  <si>
-    <t>faceless_void</t>
-  </si>
-  <si>
-    <t>skeleton_king</t>
-  </si>
-  <si>
-    <t>death_prophet</t>
-  </si>
-  <si>
-    <t>phantom_assassin</t>
-  </si>
-  <si>
-    <t>pugna</t>
-  </si>
-  <si>
-    <t>templar_assassin</t>
-  </si>
-  <si>
-    <t>viper</t>
-  </si>
-  <si>
-    <t>luna</t>
-  </si>
-  <si>
-    <t>dragon_knight</t>
-  </si>
-  <si>
-    <t>dazzle</t>
-  </si>
-  <si>
-    <t>rattletrap</t>
-  </si>
-  <si>
-    <t>leshrac</t>
-  </si>
-  <si>
-    <t>furion</t>
-  </si>
-  <si>
-    <t>life_stealer</t>
-  </si>
-  <si>
-    <t>dark_seer</t>
-  </si>
-  <si>
-    <t>clinkz</t>
-  </si>
-  <si>
-    <t>omniknight</t>
-  </si>
-  <si>
-    <t>enchantress</t>
-  </si>
-  <si>
-    <t>huskar</t>
-  </si>
-  <si>
-    <t>night_stalker</t>
-  </si>
-  <si>
-    <t>broodmother</t>
-  </si>
-  <si>
-    <t>bounty_hunter</t>
-  </si>
-  <si>
-    <t>weaver</t>
-  </si>
-  <si>
-    <t>jakiro</t>
-  </si>
-  <si>
-    <t>batrider</t>
-  </si>
-  <si>
-    <t>chen</t>
-  </si>
-  <si>
-    <t>spectre</t>
-  </si>
-  <si>
-    <t>doom_bringer</t>
-  </si>
-  <si>
-    <t>ancient_apparition</t>
-  </si>
-  <si>
-    <t>ursa</t>
-  </si>
-  <si>
-    <t>spirit_breaker</t>
-  </si>
-  <si>
-    <t>gyrocopter</t>
-  </si>
-  <si>
-    <t>alchemist</t>
-  </si>
-  <si>
-    <t>invoker</t>
-  </si>
-  <si>
-    <t>silencer</t>
-  </si>
-  <si>
-    <t>obsidian_destroyer</t>
-  </si>
-  <si>
-    <t>lycan</t>
-  </si>
-  <si>
-    <t>brewmaster</t>
-  </si>
-  <si>
-    <t>shadow_demon</t>
-  </si>
-  <si>
-    <t>lone_druid</t>
-  </si>
-  <si>
-    <t>chaos_knight</t>
-  </si>
-  <si>
-    <t>meepo</t>
-  </si>
-  <si>
-    <t>treant</t>
-  </si>
-  <si>
-    <t>ogre_magi</t>
-  </si>
-  <si>
-    <t>undying</t>
-  </si>
-  <si>
-    <t>rubick</t>
-  </si>
-  <si>
-    <t>disruptor</t>
-  </si>
-  <si>
-    <t>nyx_assassin</t>
-  </si>
-  <si>
-    <t>naga_siren</t>
-  </si>
-  <si>
-    <t>keeper_of_the_light</t>
-  </si>
-  <si>
-    <t>wisp</t>
-  </si>
-  <si>
-    <t>visage</t>
-  </si>
-  <si>
-    <t>slark</t>
-  </si>
-  <si>
-    <t>medusa</t>
-  </si>
-  <si>
-    <t>troll_warlord</t>
-  </si>
-  <si>
-    <t>centaur</t>
-  </si>
-  <si>
-    <t>magnataur</t>
-  </si>
-  <si>
-    <t>shredder</t>
-  </si>
-  <si>
-    <t>bristleback</t>
-  </si>
-  <si>
-    <t>tusk</t>
-  </si>
-  <si>
-    <t>skywrath_mage</t>
-  </si>
-  <si>
-    <t>abaddon</t>
-  </si>
-  <si>
-    <t>elder_titan</t>
-  </si>
-  <si>
-    <t>legion_commander</t>
-  </si>
-  <si>
-    <t>ember_spirit</t>
-  </si>
-  <si>
-    <t>earth_spirit</t>
-  </si>
-  <si>
-    <t>terrorblade</t>
-  </si>
-  <si>
-    <t>phoenix</t>
-  </si>
-  <si>
-    <t>oracle</t>
-  </si>
-  <si>
-    <t>techies</t>
-  </si>
-  <si>
-    <t>target_dummy</t>
-  </si>
-  <si>
-    <t>winter_wyvern</t>
-  </si>
-  <si>
-    <t>arc_warden</t>
-  </si>
-  <si>
-    <t>abyssal_underlord</t>
-  </si>
-  <si>
-    <t>monkey_king</t>
-  </si>
-  <si>
-    <t>pangolier</t>
-  </si>
-  <si>
-    <t>dark_willow</t>
-  </si>
-  <si>
-    <t>grimstroke</t>
-  </si>
-  <si>
-    <t>mars</t>
-  </si>
-  <si>
-    <t>void_spirit</t>
-  </si>
-  <si>
-    <t>snapfire</t>
-  </si>
-  <si>
-    <t>hoodwink</t>
-  </si>
-  <si>
-    <t>dawnbreaker</t>
   </si>
 </sst>
 </file>
@@ -2941,6 +2947,7 @@
       <sheetName val="param"/>
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2970,22 +2977,22 @@
           <cell r="A3" t="str">
             <v>building_hero_abaddon</v>
           </cell>
-          <cell r="B3" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C3" t="e">
-            <v>#N/A</v>
+          <cell r="B3" t="str">
+            <v>亚巴顿</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>亚巴顿</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
             <v>building_hero_abyssal_underlord</v>
           </cell>
-          <cell r="B4" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C4" t="e">
-            <v>#N/A</v>
+          <cell r="B4" t="str">
+            <v>孽主</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>孽主</v>
           </cell>
         </row>
         <row r="5">
@@ -3003,33 +3010,33 @@
           <cell r="A6" t="str">
             <v>building_hero_ancient_apparition</v>
           </cell>
-          <cell r="B6" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C6" t="e">
-            <v>#N/A</v>
+          <cell r="B6" t="str">
+            <v>远古冰魄</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>远古冰魄</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
             <v>building_hero_antimage</v>
           </cell>
-          <cell r="B7" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C7" t="e">
-            <v>#N/A</v>
+          <cell r="B7" t="str">
+            <v>敌法师</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>敌法师</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
             <v>building_hero_arc_warden</v>
           </cell>
-          <cell r="B8" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C8" t="e">
-            <v>#N/A</v>
+          <cell r="B8" t="str">
+            <v>天穹守望者</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>天穹守望者</v>
           </cell>
         </row>
         <row r="9">
@@ -3047,44 +3054,44 @@
           <cell r="A10" t="str">
             <v>building_hero_bane</v>
           </cell>
-          <cell r="B10" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C10" t="e">
-            <v>#N/A</v>
+          <cell r="B10" t="str">
+            <v>祸乱之源</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>祸乱之源</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
             <v>building_hero_batrider</v>
           </cell>
-          <cell r="B11" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C11" t="e">
-            <v>#N/A</v>
+          <cell r="B11" t="str">
+            <v>蝙蝠骑士</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>蝙蝠骑士</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>building_hero_beastmaster</v>
           </cell>
-          <cell r="B12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C12" t="e">
-            <v>#N/A</v>
+          <cell r="B12" t="str">
+            <v>兽王</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>兽王</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
             <v>building_hero_bloodseeker</v>
           </cell>
-          <cell r="B13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C13" t="e">
-            <v>#N/A</v>
+          <cell r="B13" t="str">
+            <v>血魔</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>血魔</v>
           </cell>
         </row>
         <row r="14">
@@ -3102,33 +3109,33 @@
           <cell r="A15" t="str">
             <v>building_hero_brewmaster</v>
           </cell>
-          <cell r="B15" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C15" t="e">
-            <v>#N/A</v>
+          <cell r="B15" t="str">
+            <v>熊猫酒仙</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>熊猫酒仙</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>building_hero_bristleback</v>
           </cell>
-          <cell r="B16" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C16" t="e">
-            <v>#N/A</v>
+          <cell r="B16" t="str">
+            <v>刚被兽</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>刚被兽</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>building_hero_broodmother</v>
           </cell>
-          <cell r="B17" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C17" t="e">
-            <v>#N/A</v>
+          <cell r="B17" t="str">
+            <v>蜘蛛</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>蜘蛛</v>
           </cell>
         </row>
         <row r="18">
@@ -3157,22 +3164,22 @@
           <cell r="A20" t="str">
             <v>building_hero_chen</v>
           </cell>
-          <cell r="B20" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C20" t="e">
-            <v>#N/A</v>
+          <cell r="B20" t="str">
+            <v>陈</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>陈</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
             <v>building_hero_clinkz</v>
           </cell>
-          <cell r="B21" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C21" t="e">
-            <v>#N/A</v>
+          <cell r="B21" t="str">
+            <v>克林克兹</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>克林克兹</v>
           </cell>
         </row>
         <row r="22">
@@ -3190,44 +3197,44 @@
           <cell r="A23" t="str">
             <v>building_hero_dark_seer</v>
           </cell>
-          <cell r="B23" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C23" t="e">
-            <v>#N/A</v>
+          <cell r="B23" t="str">
+            <v>黑暗贤者</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>黑暗贤者</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
             <v>building_hero_dark_willow</v>
           </cell>
-          <cell r="B24" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C24" t="e">
-            <v>#N/A</v>
+          <cell r="B24" t="str">
+            <v>邪影芳灵</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>邪影芳灵</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
             <v>building_hero_dawnbreaker</v>
           </cell>
-          <cell r="B25" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C25" t="e">
-            <v>#N/A</v>
+          <cell r="B25" t="str">
+            <v>破晓辰星</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>破晓辰星</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
             <v>building_hero_dazzle</v>
           </cell>
-          <cell r="B26" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C26" t="e">
-            <v>#N/A</v>
+          <cell r="B26" t="str">
+            <v>戴泽</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>戴泽</v>
           </cell>
         </row>
         <row r="27">
@@ -3256,11 +3263,11 @@
           <cell r="A29" t="str">
             <v>building_hero_doom_bringer</v>
           </cell>
-          <cell r="B29" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C29" t="e">
-            <v>#N/A</v>
+          <cell r="B29" t="str">
+            <v>末日</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>末日</v>
           </cell>
         </row>
         <row r="30">
@@ -3278,11 +3285,11 @@
           <cell r="A31" t="str">
             <v>building_hero_drow_ranger</v>
           </cell>
-          <cell r="B31" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C31" t="e">
-            <v>#N/A</v>
+          <cell r="B31" t="str">
+            <v>卓尔游侠</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>卓尔游侠</v>
           </cell>
         </row>
         <row r="32">
@@ -3300,22 +3307,22 @@
           <cell r="A33" t="str">
             <v>building_hero_earthshaker</v>
           </cell>
-          <cell r="B33" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C33" t="e">
-            <v>#N/A</v>
+          <cell r="B33" t="str">
+            <v>撼地者</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>撼地者</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
             <v>building_hero_elder_titan</v>
           </cell>
-          <cell r="B34" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C34" t="e">
-            <v>#N/A</v>
+          <cell r="B34" t="str">
+            <v>上古巨神</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>上古巨神</v>
           </cell>
         </row>
         <row r="35">
@@ -3333,33 +3340,33 @@
           <cell r="A36" t="str">
             <v>building_hero_enchantress</v>
           </cell>
-          <cell r="B36" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C36" t="e">
-            <v>#N/A</v>
+          <cell r="B36" t="str">
+            <v>魅惑魔女</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>魅惑魔女</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
             <v>building_hero_enigma</v>
           </cell>
-          <cell r="B37" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C37" t="e">
-            <v>#N/A</v>
+          <cell r="B37" t="str">
+            <v>谜团</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>谜团</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
             <v>building_hero_faceless_void</v>
           </cell>
-          <cell r="B38" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C38" t="e">
-            <v>#N/A</v>
+          <cell r="B38" t="str">
+            <v>JB脸</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>JB脸</v>
           </cell>
         </row>
         <row r="39">
@@ -3377,11 +3384,11 @@
           <cell r="A40" t="str">
             <v>building_hero_grimstroke</v>
           </cell>
-          <cell r="B40" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C40" t="e">
-            <v>#N/A</v>
+          <cell r="B40" t="str">
+            <v>天涯墨客</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>天涯墨客</v>
           </cell>
         </row>
         <row r="41">
@@ -3399,11 +3406,11 @@
           <cell r="A42" t="str">
             <v>building_hero_hoodwink</v>
           </cell>
-          <cell r="B42" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C42" t="e">
-            <v>#N/A</v>
+          <cell r="B42" t="str">
+            <v>小松鼠</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>小松鼠</v>
           </cell>
         </row>
         <row r="43">
@@ -3421,22 +3428,22 @@
           <cell r="A44" t="str">
             <v>building_hero_invoker</v>
           </cell>
-          <cell r="B44" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C44" t="e">
-            <v>#N/A</v>
+          <cell r="B44" t="str">
+            <v>祈求着</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>祈求着</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
             <v>building_hero_jakiro</v>
           </cell>
-          <cell r="B45" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C45" t="e">
-            <v>#N/A</v>
+          <cell r="B45" t="str">
+            <v>双头龙</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>双头龙</v>
           </cell>
         </row>
         <row r="46">
@@ -3454,11 +3461,11 @@
           <cell r="A47" t="str">
             <v>building_hero_keeper_of_the_light</v>
           </cell>
-          <cell r="B47" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C47" t="e">
-            <v>#N/A</v>
+          <cell r="B47" t="str">
+            <v>光法</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>光法</v>
           </cell>
         </row>
         <row r="48">
@@ -3476,11 +3483,11 @@
           <cell r="A49" t="str">
             <v>building_hero_legion_commander</v>
           </cell>
-          <cell r="B49" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C49" t="e">
-            <v>#N/A</v>
+          <cell r="B49" t="str">
+            <v>军团</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>军团</v>
           </cell>
         </row>
         <row r="50">
@@ -3498,22 +3505,22 @@
           <cell r="A51" t="str">
             <v>building_hero_lich</v>
           </cell>
-          <cell r="B51" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C51" t="e">
-            <v>#N/A</v>
+          <cell r="B51" t="str">
+            <v>巫妖</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>巫妖</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
             <v>building_hero_life_stealer</v>
           </cell>
-          <cell r="B52" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C52" t="e">
-            <v>#N/A</v>
+          <cell r="B52" t="str">
+            <v>小狗</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>小狗</v>
           </cell>
         </row>
         <row r="53">
@@ -3531,11 +3538,11 @@
           <cell r="A54" t="str">
             <v>building_hero_lion</v>
           </cell>
-          <cell r="B54" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C54" t="e">
-            <v>#N/A</v>
+          <cell r="B54" t="str">
+            <v>莱恩</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>莱恩</v>
           </cell>
         </row>
         <row r="55">
@@ -3575,22 +3582,22 @@
           <cell r="A58" t="str">
             <v>building_hero_magnataur</v>
           </cell>
-          <cell r="B58" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C58" t="e">
-            <v>#N/A</v>
+          <cell r="B58" t="str">
+            <v>马格纳斯</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>马格纳斯</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
             <v>building_hero_marci</v>
           </cell>
-          <cell r="B59" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C59" t="e">
-            <v>#N/A</v>
+          <cell r="B59" t="str">
+            <v>玛西</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>玛西</v>
           </cell>
         </row>
         <row r="60">
@@ -3619,11 +3626,11 @@
           <cell r="A62" t="str">
             <v>building_hero_meepo</v>
           </cell>
-          <cell r="B62" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C62" t="e">
-            <v>#N/A</v>
+          <cell r="B62" t="str">
+            <v>米波</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>米波</v>
           </cell>
         </row>
         <row r="63">
@@ -3641,88 +3648,88 @@
           <cell r="A64" t="str">
             <v>building_hero_monkey_king</v>
           </cell>
-          <cell r="B64" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C64" t="e">
-            <v>#N/A</v>
+          <cell r="B64" t="str">
+            <v>大圣</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>大圣</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
             <v>building_hero_morphling</v>
           </cell>
-          <cell r="B65" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C65" t="e">
-            <v>#N/A</v>
+          <cell r="B65" t="str">
+            <v>水人</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>水人</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
             <v>building_hero_naga_siren</v>
           </cell>
-          <cell r="B66" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C66" t="e">
-            <v>#N/A</v>
+          <cell r="B66" t="str">
+            <v>娜迦海妖</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>娜迦海妖</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
             <v>building_hero_necrolyte</v>
           </cell>
-          <cell r="B67" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C67" t="e">
-            <v>#N/A</v>
+          <cell r="B67" t="str">
+            <v>瘟疫法师</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>瘟疫法师</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
             <v>building_hero_nevermore</v>
           </cell>
-          <cell r="B68" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C68" t="e">
-            <v>#N/A</v>
+          <cell r="B68" t="str">
+            <v>影魔</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>影魔</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
             <v>building_hero_night_stalker</v>
           </cell>
-          <cell r="B69" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C69" t="e">
-            <v>#N/A</v>
+          <cell r="B69" t="str">
+            <v>暗夜魔王</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>暗夜魔王</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
             <v>building_hero_nyx_assassin</v>
           </cell>
-          <cell r="B70" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C70" t="e">
-            <v>#N/A</v>
+          <cell r="B70" t="str">
+            <v>小强</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>小强</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
             <v>building_hero_obsidian_destroyer</v>
           </cell>
-          <cell r="B71" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C71" t="e">
-            <v>#N/A</v>
+          <cell r="B71" t="str">
+            <v>黑鸟</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>黑鸟</v>
           </cell>
         </row>
         <row r="72">
@@ -3751,11 +3758,11 @@
           <cell r="A74" t="str">
             <v>building_hero_oracle</v>
           </cell>
-          <cell r="B74" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C74" t="e">
-            <v>#N/A</v>
+          <cell r="B74" t="str">
+            <v>神谕者</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>神谕者</v>
           </cell>
         </row>
         <row r="75">
@@ -3784,22 +3791,22 @@
           <cell r="A77" t="str">
             <v>building_hero_phantom_lancer</v>
           </cell>
-          <cell r="B77" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C77" t="e">
-            <v>#N/A</v>
+          <cell r="B77" t="str">
+            <v>幻影长矛手</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>幻影长矛手</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
             <v>building_hero_phoenix</v>
           </cell>
-          <cell r="B78" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C78" t="e">
-            <v>#N/A</v>
+          <cell r="B78" t="str">
+            <v>凤凰</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>凤凰</v>
           </cell>
         </row>
         <row r="79">
@@ -3817,11 +3824,11 @@
           <cell r="A80" t="str">
             <v>building_hero_puck</v>
           </cell>
-          <cell r="B80" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C80" t="e">
-            <v>#N/A</v>
+          <cell r="B80" t="str">
+            <v>帕克</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>帕克</v>
           </cell>
         </row>
         <row r="81">
@@ -3850,88 +3857,88 @@
           <cell r="A83" t="str">
             <v>building_hero_queenofpain</v>
           </cell>
-          <cell r="B83" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C83" t="e">
-            <v>#N/A</v>
+          <cell r="B83" t="str">
+            <v>痛苦女王</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>痛苦女王</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
             <v>building_hero_rattletrap</v>
           </cell>
-          <cell r="B84" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C84" t="e">
-            <v>#N/A</v>
+          <cell r="B84" t="str">
+            <v>发条地精</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>发条地精</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
             <v>building_hero_razor</v>
           </cell>
-          <cell r="B85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C85" t="e">
-            <v>#N/A</v>
+          <cell r="B85" t="str">
+            <v>电棍</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>电棍</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
             <v>building_hero_riki</v>
           </cell>
-          <cell r="B86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C86" t="e">
-            <v>#N/A</v>
+          <cell r="B86" t="str">
+            <v>力丸</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>力丸</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
             <v>building_hero_rubick</v>
           </cell>
-          <cell r="B87" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C87" t="e">
-            <v>#N/A</v>
+          <cell r="B87" t="str">
+            <v>拉比克</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>拉比克</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>building_hero_sand_king</v>
-          </cell>
-          <cell r="B88" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C88" t="e">
-            <v>#N/A</v>
+            <v>building_hero_sandking</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>沙王</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>沙王</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
             <v>building_hero_shadow_demon</v>
           </cell>
-          <cell r="B89" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C89" t="e">
-            <v>#N/A</v>
+          <cell r="B89" t="str">
+            <v>暗影恶魔</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>暗影恶魔</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
             <v>building_hero_shadow_shaman</v>
           </cell>
-          <cell r="B90" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C90" t="e">
-            <v>#N/A</v>
+          <cell r="B90" t="str">
+            <v>小Y</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>小Y</v>
           </cell>
         </row>
         <row r="91">
@@ -3949,11 +3956,11 @@
           <cell r="A92" t="str">
             <v>building_hero_silencer</v>
           </cell>
-          <cell r="B92" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C92" t="e">
-            <v>#N/A</v>
+          <cell r="B92" t="str">
+            <v>沉默术士</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>沉默术士</v>
           </cell>
         </row>
         <row r="93">
@@ -3971,11 +3978,11 @@
           <cell r="A94" t="str">
             <v>building_hero_skywrath_mage</v>
           </cell>
-          <cell r="B94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C94" t="e">
-            <v>#N/A</v>
+          <cell r="B94" t="str">
+            <v>天怒法师</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>天怒法师</v>
           </cell>
         </row>
         <row r="95">
@@ -4004,11 +4011,11 @@
           <cell r="A97" t="str">
             <v>building_hero_snapfire</v>
           </cell>
-          <cell r="B97" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C97" t="e">
-            <v>#N/A</v>
+          <cell r="B97" t="str">
+            <v>电炎绝手</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>电炎绝手</v>
           </cell>
         </row>
         <row r="98">
@@ -4026,22 +4033,22 @@
           <cell r="A99" t="str">
             <v>building_hero_spectre</v>
           </cell>
-          <cell r="B99" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C99" t="e">
-            <v>#N/A</v>
+          <cell r="B99" t="str">
+            <v>幽鬼</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>幽鬼</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
             <v>building_hero_spirit_breaker</v>
           </cell>
-          <cell r="B100" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C100" t="e">
-            <v>#N/A</v>
+          <cell r="B100" t="str">
+            <v>裂魂人</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>裂魂人</v>
           </cell>
         </row>
         <row r="101">
@@ -4068,584 +4075,573 @@
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>building_hero_target_dummy</v>
-          </cell>
-          <cell r="B103" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C103" t="e">
-            <v>#N/A</v>
+            <v>building_hero_techies</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>地精工程师</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>地精工程师</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>building_hero_techies</v>
-          </cell>
-          <cell r="B104" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C104" t="e">
-            <v>#N/A</v>
+            <v>building_hero_templar_assassin</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>圣堂刺客</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>圣堂刺客</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>building_hero_templar_assassin</v>
+            <v>building_hero_terrorblade</v>
           </cell>
           <cell r="B105" t="str">
-            <v>圣堂刺客</v>
+            <v>灵魂守卫</v>
           </cell>
           <cell r="C105" t="str">
-            <v>圣堂刺客</v>
+            <v>灵魂守卫</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>building_hero_terrorblade</v>
-          </cell>
-          <cell r="B106" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C106" t="e">
-            <v>#N/A</v>
+            <v>building_hero_tidehunter</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>潮汐猎人</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>潮汐猎人</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>building_hero_tidehunter</v>
-          </cell>
-          <cell r="B107" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C107" t="e">
-            <v>#N/A</v>
+            <v>building_hero_tinker</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>修补匠</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>修补匠</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>building_hero_tinker</v>
+            <v>building_hero_tiny</v>
           </cell>
           <cell r="B108" t="str">
-            <v>修补匠</v>
+            <v>小小</v>
           </cell>
           <cell r="C108" t="str">
-            <v>修补匠</v>
+            <v>小小</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>building_hero_tiny</v>
-          </cell>
-          <cell r="B109" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C109" t="e">
-            <v>#N/A</v>
+            <v>building_hero_treant</v>
+          </cell>
+          <cell r="B109" t="str">
+            <v>大树</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>大树</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>building_hero_treant</v>
-          </cell>
-          <cell r="B110" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C110" t="e">
-            <v>#N/A</v>
+            <v>building_hero_troll_warlord</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>巨魔战将</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>巨魔战将</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>building_hero_troll_warlord</v>
+            <v>building_hero_tusk</v>
           </cell>
           <cell r="B111" t="str">
-            <v>巨魔战将</v>
+            <v>海民</v>
           </cell>
           <cell r="C111" t="str">
-            <v>巨魔战将</v>
+            <v>海民</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>building_hero_tusk</v>
+            <v>building_hero_undying</v>
           </cell>
           <cell r="B112" t="str">
-            <v>海民</v>
+            <v>不朽尸王</v>
           </cell>
           <cell r="C112" t="str">
-            <v>海民</v>
+            <v>不朽尸王</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>building_hero_undying</v>
-          </cell>
-          <cell r="B113" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C113" t="e">
-            <v>#N/A</v>
+            <v>building_hero_ursa</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>熊战士</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>熊战士</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>building_hero_ursa</v>
+            <v>building_hero_vengefulspirit</v>
           </cell>
           <cell r="B114" t="str">
-            <v>熊战士</v>
+            <v>复仇之魂</v>
           </cell>
           <cell r="C114" t="str">
-            <v>熊战士</v>
+            <v>复仇之魂</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>building_hero_vengefulspirit</v>
-          </cell>
-          <cell r="B115" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C115" t="e">
-            <v>#N/A</v>
+            <v>building_hero_venomancer</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>剧毒术士</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>剧毒术士</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>building_hero_venomancer</v>
+            <v>building_hero_viper</v>
           </cell>
           <cell r="B116" t="str">
-            <v>剧毒术士</v>
+            <v>冥界亚龙</v>
           </cell>
           <cell r="C116" t="str">
-            <v>剧毒术士</v>
+            <v>冥界亚龙</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>building_hero_viper</v>
+            <v>building_hero_visage</v>
           </cell>
           <cell r="B117" t="str">
-            <v>冥界亚龙</v>
+            <v>维萨吉</v>
           </cell>
           <cell r="C117" t="str">
-            <v>冥界亚龙</v>
+            <v>维萨吉</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>building_hero_visage</v>
-          </cell>
-          <cell r="B118" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C118" t="e">
-            <v>#N/A</v>
+            <v>building_hero_void_spirit</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>虚无之灵</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>虚无之灵</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>building_hero_void_spirit</v>
+            <v>building_hero_warlock</v>
           </cell>
           <cell r="B119" t="str">
-            <v>虚无之灵</v>
+            <v>术士</v>
           </cell>
           <cell r="C119" t="str">
-            <v>虚无之灵</v>
+            <v>术士</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>building_hero_warlock</v>
-          </cell>
-          <cell r="B120" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C120" t="e">
-            <v>#N/A</v>
+            <v>building_hero_weaver</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>编织者</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>编织者</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>building_hero_weaver</v>
-          </cell>
-          <cell r="B121" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C121" t="e">
-            <v>#N/A</v>
+            <v>building_hero_windrunner</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>风行者</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>风行者</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>building_hero_windrunner</v>
-          </cell>
-          <cell r="B122" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C122" t="e">
-            <v>#N/A</v>
+            <v>building_hero_winter_wyvern</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>冰霜巨龙</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>冰霜巨龙</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>building_hero_winter_wyvern</v>
+            <v>building_hero_wisp</v>
           </cell>
           <cell r="B123" t="str">
-            <v>冰霜巨龙</v>
+            <v>艾欧</v>
           </cell>
           <cell r="C123" t="str">
-            <v>冰霜巨龙</v>
+            <v>艾欧</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124" t="str">
-            <v>building_hero_wisp</v>
-          </cell>
-          <cell r="B124" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C124" t="e">
-            <v>#N/A</v>
+            <v>building_hero_witch_doctor</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>巫医</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>巫医</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>building_hero_witch_doctor</v>
-          </cell>
-          <cell r="B125" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C125" t="e">
-            <v>#N/A</v>
+            <v>building_hero_zeus</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>宙斯</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>宙斯</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>building_hero_zuus</v>
+            <v>building_hero_t01</v>
           </cell>
           <cell r="B126" t="str">
-            <v>宙斯</v>
+            <v>夜魇近战兵</v>
           </cell>
           <cell r="C126" t="str">
-            <v>宙斯</v>
+            <v>夜魇近战兵</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>building_hero_t01</v>
+            <v>building_hero_t02</v>
           </cell>
           <cell r="B127" t="str">
-            <v>夜魇近战兵</v>
+            <v>夜魇远程兵</v>
           </cell>
           <cell r="C127" t="str">
-            <v>夜魇近战兵</v>
+            <v>夜魇远程兵</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>building_hero_t02</v>
+            <v>building_hero_t03</v>
           </cell>
           <cell r="B128" t="str">
-            <v>夜魇远程兵</v>
+            <v>狂暴枭兽</v>
           </cell>
           <cell r="C128" t="str">
-            <v>夜魇远程兵</v>
+            <v>狂暴枭兽</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>building_hero_t03</v>
+            <v>building_hero_t04</v>
           </cell>
           <cell r="B129" t="str">
-            <v>狂暴枭兽</v>
+            <v>死灵幽魂</v>
           </cell>
           <cell r="C129" t="str">
-            <v>狂暴枭兽</v>
+            <v>死灵幽魂</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>building_hero_t04</v>
+            <v>building_hero_t05</v>
           </cell>
           <cell r="B130" t="str">
-            <v>死灵幽魂</v>
+            <v>天辉近战兵</v>
           </cell>
           <cell r="C130" t="str">
-            <v>死灵幽魂</v>
+            <v>天辉近战兵</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>building_hero_t05</v>
+            <v>building_hero_t06</v>
           </cell>
           <cell r="B131" t="str">
-            <v>天辉近战兵</v>
+            <v>天辉远程兵</v>
           </cell>
           <cell r="C131" t="str">
-            <v>天辉近战兵</v>
+            <v>天辉远程兵</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>building_hero_t06</v>
+            <v>building_hero_t07</v>
           </cell>
           <cell r="B132" t="str">
-            <v>天辉远程兵</v>
+            <v>萨特·地狱使者</v>
           </cell>
           <cell r="C132" t="str">
-            <v>天辉远程兵</v>
+            <v>萨特·地狱使者</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>building_hero_t07</v>
+            <v>building_hero_t08</v>
           </cell>
           <cell r="B133" t="str">
-            <v>萨特·地狱使者</v>
+            <v>风暴巫师</v>
           </cell>
           <cell r="C133" t="str">
-            <v>萨特·地狱使者</v>
+            <v>风暴巫师</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>building_hero_t08</v>
+            <v>building_hero_t10</v>
           </cell>
           <cell r="B134" t="str">
-            <v>风暴巫师</v>
+            <v>半人马酋长</v>
           </cell>
           <cell r="C134" t="str">
-            <v>风暴巫师</v>
+            <v>半人马酋长</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>building_hero_t10</v>
+            <v>building_hero_t11</v>
           </cell>
           <cell r="B135" t="str">
-            <v>半人马酋长</v>
+            <v>黑暗巨魔萨满</v>
           </cell>
           <cell r="C135" t="str">
-            <v>半人马酋长</v>
+            <v>黑暗巨魔萨满</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>building_hero_t11</v>
+            <v>building_hero_t12</v>
           </cell>
           <cell r="B136" t="str">
-            <v>黑暗巨魔萨满</v>
+            <v>食人魔棒槌手</v>
           </cell>
           <cell r="C136" t="str">
-            <v>黑暗巨魔萨满</v>
+            <v>食人魔棒槌手</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>building_hero_t12</v>
+            <v>building_hero_t15</v>
           </cell>
           <cell r="B137" t="str">
-            <v>食人魔棒槌手</v>
+            <v>狗头人奴隶主</v>
           </cell>
           <cell r="C137" t="str">
-            <v>食人魔棒槌手</v>
+            <v>狗头人奴隶主</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>building_hero_t15</v>
+            <v>building_hero_t16</v>
           </cell>
           <cell r="B138" t="str">
-            <v>狗头人奴隶主</v>
+            <v>雷肤兽</v>
           </cell>
           <cell r="C138" t="str">
-            <v>狗头人奴隶主</v>
+            <v>雷肤兽</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>building_hero_t16</v>
+            <v>building_hero_t17</v>
           </cell>
           <cell r="B139" t="str">
-            <v>雷肤兽</v>
+            <v>森林巨魔巫师</v>
           </cell>
           <cell r="C139" t="str">
-            <v>雷肤兽</v>
+            <v>森林巨魔巫师</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>building_hero_t17</v>
+            <v>building_hero_t19</v>
           </cell>
           <cell r="B140" t="str">
-            <v>森林巨魔巫师</v>
+            <v>狂暴熊怪</v>
           </cell>
           <cell r="C140" t="str">
-            <v>森林巨魔巫师</v>
+            <v>狂暴熊怪</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>building_hero_t19</v>
+            <v>building_hero_t21</v>
           </cell>
           <cell r="B141" t="str">
-            <v>狂暴熊怪</v>
+            <v>虚灵守卫</v>
           </cell>
           <cell r="C141" t="str">
-            <v>狂暴熊怪</v>
+            <v>虚灵守卫</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>building_hero_t21</v>
+            <v>building_hero_t22</v>
           </cell>
           <cell r="B142" t="str">
-            <v>虚灵守卫</v>
+            <v>魔火精灵</v>
           </cell>
           <cell r="C142" t="str">
-            <v>虚灵守卫</v>
+            <v>魔火精灵</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>building_hero_t22</v>
+            <v>building_hero_t23</v>
           </cell>
           <cell r="B143" t="str">
-            <v>魔火精灵</v>
+            <v>恐怖之狼</v>
           </cell>
           <cell r="C143" t="str">
-            <v>魔火精灵</v>
+            <v>恐怖之狼</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>building_hero_t23</v>
+            <v>building_hero_t25</v>
           </cell>
           <cell r="B144" t="str">
-            <v>恐怖之狼</v>
+            <v>恶魔之魂</v>
           </cell>
           <cell r="C144" t="str">
-            <v>恐怖之狼</v>
+            <v>恶魔之魂</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>building_hero_t25</v>
+            <v>building_hero_t27</v>
           </cell>
           <cell r="B145" t="str">
-            <v>恶魔之魂</v>
+            <v>风元素使</v>
           </cell>
           <cell r="C145" t="str">
-            <v>恶魔之魂</v>
+            <v>风元素使</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>building_hero_t27</v>
+            <v>building_hero_t28</v>
           </cell>
           <cell r="B146" t="str">
-            <v>风元素使</v>
+            <v>土元素使</v>
           </cell>
           <cell r="C146" t="str">
-            <v>风元素使</v>
+            <v>土元素使</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>building_hero_t28</v>
+            <v>building_hero_t29</v>
           </cell>
           <cell r="B147" t="str">
-            <v>土元素使</v>
+            <v>火元素使</v>
           </cell>
           <cell r="C147" t="str">
-            <v>土元素使</v>
+            <v>火元素使</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>building_hero_t29</v>
+            <v>building_hero_t34</v>
           </cell>
           <cell r="B148" t="str">
-            <v>火元素使</v>
+            <v>花岗石傀儡</v>
           </cell>
           <cell r="C148" t="str">
-            <v>火元素使</v>
+            <v>花岗石傀儡</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>building_hero_t34</v>
+            <v>building_hero_t35</v>
           </cell>
           <cell r="B149" t="str">
-            <v>花岗石傀儡</v>
+            <v>地狱火</v>
           </cell>
           <cell r="C149" t="str">
-            <v>花岗石傀儡</v>
+            <v>地狱火</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>building_hero_t35</v>
+            <v>building_hero_t36</v>
           </cell>
           <cell r="B150" t="str">
-            <v>地狱火</v>
+            <v>远古黑龙</v>
           </cell>
           <cell r="C150" t="str">
-            <v>地狱火</v>
+            <v>远古黑龙</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>building_hero_t36</v>
+            <v>building_hero_t37</v>
           </cell>
           <cell r="B151" t="str">
-            <v>远古黑龙</v>
+            <v>虚无元素使</v>
           </cell>
           <cell r="C151" t="str">
-            <v>远古黑龙</v>
+            <v>虚无元素使</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>building_hero_t37</v>
+            <v>building_hero_t41</v>
           </cell>
           <cell r="B152" t="str">
-            <v>虚无元素使</v>
+            <v>巨魔勇士</v>
           </cell>
           <cell r="C152" t="str">
-            <v>虚无元素使</v>
+            <v>巨魔勇士</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>building_hero_t41</v>
+            <v>building_unit_mango_tree</v>
           </cell>
           <cell r="B153" t="str">
-            <v>巨魔勇士</v>
+            <v>芒果树</v>
           </cell>
           <cell r="C153" t="str">
-            <v>巨魔勇士</v>
+            <v>芒果树</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>building_unit_mango_tree</v>
+            <v>building_hero_spirit_bear</v>
           </cell>
           <cell r="B154" t="str">
-            <v>芒果树</v>
+            <v>熊灵</v>
           </cell>
           <cell r="C154" t="str">
-            <v>芒果树</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155" t="str">
-            <v>building_hero_spirit_bear</v>
-          </cell>
-          <cell r="B155" t="str">
-            <v>熊灵</v>
-          </cell>
-          <cell r="C155" t="str">
             <v>熊灵</v>
           </cell>
         </row>
@@ -4653,6 +4649,7 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4919,16 +4916,16 @@
   <dimension ref="A1:U155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I75" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3:H155"/>
+      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.325" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.6166666666667" style="2" customWidth="1"/>
     <col min="2" max="4" width="11.0833333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.975" style="11" customWidth="1"/>
     <col min="6" max="6" width="28.55" style="2" customWidth="1"/>
@@ -10607,20 +10604,20 @@
       <c r="A88" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="B88" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C88" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D88" s="14" t="e">
-        <v>#N/A</v>
+      <c r="B88" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>335</v>
       </c>
       <c r="E88" s="11">
         <v>1086</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>42</v>
@@ -10629,7 +10626,7 @@
         <v>43</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>45</v>
@@ -10670,7 +10667,7 @@
     </row>
     <row r="89" ht="15.5" spans="1:21">
       <c r="A89" s="14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B89" s="14" t="e">
         <v>#N/A</v>
@@ -10685,7 +10682,7 @@
         <v>1087</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>42</v>
@@ -10694,7 +10691,7 @@
         <v>43</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>45</v>
@@ -10735,7 +10732,7 @@
     </row>
     <row r="90" ht="15.5" spans="1:21">
       <c r="A90" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B90" s="14" t="e">
         <v>#N/A</v>
@@ -10750,7 +10747,7 @@
         <v>1088</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>42</v>
@@ -10759,7 +10756,7 @@
         <v>43</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>45</v>
@@ -10800,22 +10797,22 @@
     </row>
     <row r="91" ht="15.5" spans="1:21">
       <c r="A91" s="14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E91" s="12">
         <v>1089</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>42</v>
@@ -10824,7 +10821,7 @@
         <v>43</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>45</v>
@@ -10865,7 +10862,7 @@
     </row>
     <row r="92" ht="15.5" spans="1:21">
       <c r="A92" s="14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B92" s="14" t="e">
         <v>#N/A</v>
@@ -10880,7 +10877,7 @@
         <v>1090</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>42</v>
@@ -10889,7 +10886,7 @@
         <v>43</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>45</v>
@@ -10930,22 +10927,22 @@
     </row>
     <row r="93" ht="15.5" spans="1:21">
       <c r="A93" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E93" s="12">
         <v>1091</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>42</v>
@@ -10954,7 +10951,7 @@
         <v>43</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J93" s="5" t="s">
         <v>45</v>
@@ -10995,7 +10992,7 @@
     </row>
     <row r="94" ht="15.5" spans="1:21">
       <c r="A94" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B94" s="14" t="e">
         <v>#N/A</v>
@@ -11010,7 +11007,7 @@
         <v>1092</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>42</v>
@@ -11019,7 +11016,7 @@
         <v>43</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>45</v>
@@ -11060,22 +11057,22 @@
     </row>
     <row r="95" ht="15.5" spans="1:21">
       <c r="A95" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E95" s="12">
         <v>1093</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>42</v>
@@ -11084,7 +11081,7 @@
         <v>43</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>45</v>
@@ -11125,22 +11122,22 @@
     </row>
     <row r="96" ht="15.5" spans="1:21">
       <c r="A96" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E96" s="11">
         <v>1094</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>42</v>
@@ -11149,7 +11146,7 @@
         <v>43</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>45</v>
@@ -11190,7 +11187,7 @@
     </row>
     <row r="97" ht="15.5" spans="1:21">
       <c r="A97" s="14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B97" s="14" t="e">
         <v>#N/A</v>
@@ -11205,7 +11202,7 @@
         <v>1095</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>42</v>
@@ -11214,7 +11211,7 @@
         <v>43</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>45</v>
@@ -11255,22 +11252,22 @@
     </row>
     <row r="98" ht="15.5" spans="1:21">
       <c r="A98" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E98" s="11">
         <v>1096</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>42</v>
@@ -11279,7 +11276,7 @@
         <v>43</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>45</v>
@@ -11320,7 +11317,7 @@
     </row>
     <row r="99" ht="15.5" spans="1:21">
       <c r="A99" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B99" s="14" t="e">
         <v>#N/A</v>
@@ -11335,7 +11332,7 @@
         <v>1097</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>42</v>
@@ -11344,7 +11341,7 @@
         <v>43</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>45</v>
@@ -11385,7 +11382,7 @@
     </row>
     <row r="100" ht="15.5" spans="1:21">
       <c r="A100" s="14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B100" s="14" t="e">
         <v>#N/A</v>
@@ -11400,7 +11397,7 @@
         <v>1098</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>42</v>
@@ -11409,7 +11406,7 @@
         <v>43</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>45</v>
@@ -11450,22 +11447,22 @@
     </row>
     <row r="101" ht="15.5" spans="1:21">
       <c r="A101" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E101" s="12">
         <v>1099</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>42</v>
@@ -11474,7 +11471,7 @@
         <v>43</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>45</v>
@@ -11515,22 +11512,22 @@
     </row>
     <row r="102" ht="15.5" spans="1:21">
       <c r="A102" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E102" s="11">
         <v>1100</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>42</v>
@@ -11539,7 +11536,7 @@
         <v>43</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>45</v>
@@ -11580,7 +11577,7 @@
     </row>
     <row r="103" ht="15.5" spans="1:21">
       <c r="A103" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B103" s="14" t="e">
         <v>#N/A</v>
@@ -11595,7 +11592,7 @@
         <v>1101</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>42</v>
@@ -11604,7 +11601,7 @@
         <v>43</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>45</v>
@@ -11645,7 +11642,7 @@
     </row>
     <row r="104" ht="15.5" spans="1:21">
       <c r="A104" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B104" s="14" t="e">
         <v>#N/A</v>
@@ -11660,7 +11657,7 @@
         <v>1102</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>42</v>
@@ -11669,7 +11666,7 @@
         <v>43</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J104" s="5" t="s">
         <v>45</v>
@@ -11710,22 +11707,22 @@
     </row>
     <row r="105" ht="15.5" spans="1:21">
       <c r="A105" s="14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E105" s="12">
         <v>1103</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>42</v>
@@ -11734,7 +11731,7 @@
         <v>43</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>45</v>
@@ -11775,7 +11772,7 @@
     </row>
     <row r="106" ht="15.5" spans="1:21">
       <c r="A106" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B106" s="14" t="e">
         <v>#N/A</v>
@@ -11790,7 +11787,7 @@
         <v>1104</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>42</v>
@@ -11799,7 +11796,7 @@
         <v>43</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J106" s="5" t="s">
         <v>45</v>
@@ -11840,7 +11837,7 @@
     </row>
     <row r="107" ht="15.5" spans="1:21">
       <c r="A107" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B107" s="14" t="e">
         <v>#N/A</v>
@@ -11855,7 +11852,7 @@
         <v>1105</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>42</v>
@@ -11864,7 +11861,7 @@
         <v>43</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>45</v>
@@ -11905,22 +11902,22 @@
     </row>
     <row r="108" ht="15.5" spans="1:21">
       <c r="A108" s="14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E108" s="11">
         <v>1106</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>42</v>
@@ -11929,7 +11926,7 @@
         <v>43</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>45</v>
@@ -11970,7 +11967,7 @@
     </row>
     <row r="109" ht="15.5" spans="1:21">
       <c r="A109" s="14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B109" s="14" t="e">
         <v>#N/A</v>
@@ -11985,7 +11982,7 @@
         <v>1107</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>42</v>
@@ -11994,7 +11991,7 @@
         <v>43</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J109" s="5" t="s">
         <v>45</v>
@@ -12035,7 +12032,7 @@
     </row>
     <row r="110" ht="15.5" spans="1:21">
       <c r="A110" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B110" s="14" t="e">
         <v>#N/A</v>
@@ -12050,7 +12047,7 @@
         <v>1108</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>42</v>
@@ -12059,7 +12056,7 @@
         <v>43</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J110" s="5" t="s">
         <v>45</v>
@@ -12100,22 +12097,22 @@
     </row>
     <row r="111" ht="15.5" spans="1:21">
       <c r="A111" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E111" s="12">
         <v>1109</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>42</v>
@@ -12124,7 +12121,7 @@
         <v>43</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J111" s="5" t="s">
         <v>45</v>
@@ -12165,22 +12162,22 @@
     </row>
     <row r="112" ht="15.5" spans="1:21">
       <c r="A112" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E112" s="11">
         <v>1110</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>42</v>
@@ -12189,7 +12186,7 @@
         <v>43</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J112" s="5" t="s">
         <v>45</v>
@@ -12230,7 +12227,7 @@
     </row>
     <row r="113" ht="15.5" spans="1:21">
       <c r="A113" s="14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B113" s="14" t="e">
         <v>#N/A</v>
@@ -12245,7 +12242,7 @@
         <v>1111</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>42</v>
@@ -12254,7 +12251,7 @@
         <v>43</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J113" s="5" t="s">
         <v>45</v>
@@ -12295,22 +12292,22 @@
     </row>
     <row r="114" ht="15.5" spans="1:21">
       <c r="A114" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E114" s="11">
         <v>1112</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>42</v>
@@ -12319,7 +12316,7 @@
         <v>43</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J114" s="5" t="s">
         <v>45</v>
@@ -12360,7 +12357,7 @@
     </row>
     <row r="115" ht="15.5" spans="1:21">
       <c r="A115" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B115" s="14" t="e">
         <v>#N/A</v>
@@ -12375,7 +12372,7 @@
         <v>1113</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>42</v>
@@ -12384,7 +12381,7 @@
         <v>43</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J115" s="5" t="s">
         <v>45</v>
@@ -12425,22 +12422,22 @@
     </row>
     <row r="116" ht="15.5" spans="1:21">
       <c r="A116" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E116" s="11">
         <v>1114</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>42</v>
@@ -12449,7 +12446,7 @@
         <v>43</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J116" s="5" t="s">
         <v>45</v>
@@ -12490,22 +12487,22 @@
     </row>
     <row r="117" ht="15.5" spans="1:21">
       <c r="A117" s="14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E117" s="12">
         <v>1115</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>42</v>
@@ -12514,7 +12511,7 @@
         <v>43</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J117" s="5" t="s">
         <v>45</v>
@@ -12555,7 +12552,7 @@
     </row>
     <row r="118" ht="15.5" spans="1:21">
       <c r="A118" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B118" s="14" t="e">
         <v>#N/A</v>
@@ -12570,7 +12567,7 @@
         <v>1116</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>42</v>
@@ -12579,7 +12576,7 @@
         <v>43</v>
       </c>
       <c r="I118" s="14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J118" s="5" t="s">
         <v>45</v>
@@ -12620,22 +12617,22 @@
     </row>
     <row r="119" ht="15.5" spans="1:21">
       <c r="A119" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E119" s="12">
         <v>1117</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>42</v>
@@ -12644,7 +12641,7 @@
         <v>43</v>
       </c>
       <c r="I119" s="14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J119" s="5" t="s">
         <v>45</v>
@@ -12685,7 +12682,7 @@
     </row>
     <row r="120" ht="15.5" spans="1:21">
       <c r="A120" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B120" s="14" t="e">
         <v>#N/A</v>
@@ -12700,7 +12697,7 @@
         <v>1118</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>42</v>
@@ -12709,7 +12706,7 @@
         <v>43</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J120" s="5" t="s">
         <v>45</v>
@@ -12750,7 +12747,7 @@
     </row>
     <row r="121" ht="15.5" spans="1:21">
       <c r="A121" s="14" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B121" s="14" t="e">
         <v>#N/A</v>
@@ -12765,7 +12762,7 @@
         <v>1119</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>42</v>
@@ -12774,7 +12771,7 @@
         <v>43</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J121" s="5" t="s">
         <v>45</v>
@@ -12815,7 +12812,7 @@
     </row>
     <row r="122" ht="15.5" spans="1:21">
       <c r="A122" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B122" s="14" t="e">
         <v>#N/A</v>
@@ -12830,7 +12827,7 @@
         <v>1120</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>42</v>
@@ -12839,7 +12836,7 @@
         <v>43</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J122" s="5" t="s">
         <v>45</v>
@@ -12880,22 +12877,22 @@
     </row>
     <row r="123" ht="15.5" spans="1:21">
       <c r="A123" s="14" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E123" s="12">
         <v>1121</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>42</v>
@@ -12904,7 +12901,7 @@
         <v>43</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J123" s="5" t="s">
         <v>45</v>
@@ -12945,7 +12942,7 @@
     </row>
     <row r="124" ht="15.5" spans="1:21">
       <c r="A124" s="14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B124" s="14" t="e">
         <v>#N/A</v>
@@ -12960,7 +12957,7 @@
         <v>1122</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>42</v>
@@ -12969,7 +12966,7 @@
         <v>43</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J124" s="5" t="s">
         <v>45</v>
@@ -13010,7 +13007,7 @@
     </row>
     <row r="125" ht="15.5" spans="1:21">
       <c r="A125" s="14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B125" s="14" t="e">
         <v>#N/A</v>
@@ -13022,7 +13019,7 @@
         <v>#N/A</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>42</v>
@@ -13031,7 +13028,7 @@
         <v>43</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J125" s="5" t="s">
         <v>45</v>
@@ -13072,19 +13069,19 @@
     </row>
     <row r="126" ht="15.5" spans="1:21">
       <c r="A126" s="14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>42</v>
@@ -13093,7 +13090,7 @@
         <v>43</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J126" s="5" t="s">
         <v>45</v>
@@ -13134,19 +13131,19 @@
     </row>
     <row r="127" spans="1:21">
       <c r="A127" s="16" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>42</v>
@@ -13155,7 +13152,7 @@
         <v>43</v>
       </c>
       <c r="I127" s="16" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J127" s="5" t="s">
         <v>45</v>
@@ -13196,19 +13193,19 @@
     </row>
     <row r="128" spans="1:21">
       <c r="A128" s="16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>42</v>
@@ -13217,7 +13214,7 @@
         <v>43</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J128" s="5" t="s">
         <v>45</v>
@@ -13258,19 +13255,19 @@
     </row>
     <row r="129" spans="1:21">
       <c r="A129" s="16" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>42</v>
@@ -13279,7 +13276,7 @@
         <v>43</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J129" s="5" t="s">
         <v>45</v>
@@ -13320,19 +13317,19 @@
     </row>
     <row r="130" spans="1:21">
       <c r="A130" s="16" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>42</v>
@@ -13341,7 +13338,7 @@
         <v>43</v>
       </c>
       <c r="I130" s="16" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J130" s="5" t="s">
         <v>45</v>
@@ -13382,19 +13379,19 @@
     </row>
     <row r="131" spans="1:21">
       <c r="A131" s="16" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>42</v>
@@ -13403,7 +13400,7 @@
         <v>43</v>
       </c>
       <c r="I131" s="16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J131" s="5" t="s">
         <v>45</v>
@@ -13444,19 +13441,19 @@
     </row>
     <row r="132" spans="1:21">
       <c r="A132" s="16" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>42</v>
@@ -13465,7 +13462,7 @@
         <v>43</v>
       </c>
       <c r="I132" s="16" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J132" s="5" t="s">
         <v>45</v>
@@ -13506,19 +13503,19 @@
     </row>
     <row r="133" spans="1:21">
       <c r="A133" s="16" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>42</v>
@@ -13527,7 +13524,7 @@
         <v>43</v>
       </c>
       <c r="I133" s="16" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J133" s="5" t="s">
         <v>45</v>
@@ -13568,19 +13565,19 @@
     </row>
     <row r="134" spans="1:21">
       <c r="A134" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>42</v>
@@ -13589,7 +13586,7 @@
         <v>43</v>
       </c>
       <c r="I134" s="16" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J134" s="5" t="s">
         <v>45</v>
@@ -13630,19 +13627,19 @@
     </row>
     <row r="135" spans="1:21">
       <c r="A135" s="16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>42</v>
@@ -13651,7 +13648,7 @@
         <v>43</v>
       </c>
       <c r="I135" s="16" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J135" s="5" t="s">
         <v>45</v>
@@ -13692,19 +13689,19 @@
     </row>
     <row r="136" spans="1:21">
       <c r="A136" s="16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>42</v>
@@ -13713,7 +13710,7 @@
         <v>43</v>
       </c>
       <c r="I136" s="16" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J136" s="5" t="s">
         <v>45</v>
@@ -13754,19 +13751,19 @@
     </row>
     <row r="137" spans="1:21">
       <c r="A137" s="16" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>42</v>
@@ -13775,7 +13772,7 @@
         <v>43</v>
       </c>
       <c r="I137" s="16" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J137" s="5" t="s">
         <v>45</v>
@@ -13816,19 +13813,19 @@
     </row>
     <row r="138" spans="1:21">
       <c r="A138" s="16" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>42</v>
@@ -13837,7 +13834,7 @@
         <v>43</v>
       </c>
       <c r="I138" s="16" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J138" s="5" t="s">
         <v>45</v>
@@ -13878,19 +13875,19 @@
     </row>
     <row r="139" spans="1:21">
       <c r="A139" s="16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>42</v>
@@ -13899,7 +13896,7 @@
         <v>43</v>
       </c>
       <c r="I139" s="16" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J139" s="5" t="s">
         <v>45</v>
@@ -13940,19 +13937,19 @@
     </row>
     <row r="140" spans="1:21">
       <c r="A140" s="16" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>42</v>
@@ -13961,7 +13958,7 @@
         <v>43</v>
       </c>
       <c r="I140" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J140" s="5" t="s">
         <v>45</v>
@@ -14002,19 +13999,19 @@
     </row>
     <row r="141" spans="1:21">
       <c r="A141" s="16" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>42</v>
@@ -14023,7 +14020,7 @@
         <v>43</v>
       </c>
       <c r="I141" s="16" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J141" s="5" t="s">
         <v>45</v>
@@ -14064,19 +14061,19 @@
     </row>
     <row r="142" spans="1:21">
       <c r="A142" s="16" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>42</v>
@@ -14085,7 +14082,7 @@
         <v>43</v>
       </c>
       <c r="I142" s="16" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J142" s="5" t="s">
         <v>45</v>
@@ -14126,19 +14123,19 @@
     </row>
     <row r="143" spans="1:21">
       <c r="A143" s="16" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>42</v>
@@ -14147,7 +14144,7 @@
         <v>43</v>
       </c>
       <c r="I143" s="16" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="J143" s="5" t="s">
         <v>45</v>
@@ -14188,19 +14185,19 @@
     </row>
     <row r="144" spans="1:21">
       <c r="A144" s="16" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>42</v>
@@ -14209,7 +14206,7 @@
         <v>43</v>
       </c>
       <c r="I144" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J144" s="5" t="s">
         <v>45</v>
@@ -14250,19 +14247,19 @@
     </row>
     <row r="145" spans="1:21">
       <c r="A145" s="16" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>42</v>
@@ -14271,7 +14268,7 @@
         <v>43</v>
       </c>
       <c r="I145" s="16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J145" s="5" t="s">
         <v>45</v>
@@ -14312,19 +14309,19 @@
     </row>
     <row r="146" spans="1:21">
       <c r="A146" s="16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>42</v>
@@ -14333,7 +14330,7 @@
         <v>43</v>
       </c>
       <c r="I146" s="16" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J146" s="5" t="s">
         <v>45</v>
@@ -14374,19 +14371,19 @@
     </row>
     <row r="147" spans="1:21">
       <c r="A147" s="16" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>42</v>
@@ -14395,7 +14392,7 @@
         <v>43</v>
       </c>
       <c r="I147" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J147" s="5" t="s">
         <v>45</v>
@@ -14436,19 +14433,19 @@
     </row>
     <row r="148" spans="1:21">
       <c r="A148" s="16" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F148" s="16" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>42</v>
@@ -14457,7 +14454,7 @@
         <v>43</v>
       </c>
       <c r="I148" s="16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J148" s="5" t="s">
         <v>45</v>
@@ -14498,19 +14495,19 @@
     </row>
     <row r="149" spans="1:21">
       <c r="A149" s="16" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>42</v>
@@ -14519,7 +14516,7 @@
         <v>43</v>
       </c>
       <c r="I149" s="16" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J149" s="5" t="s">
         <v>45</v>
@@ -14560,19 +14557,19 @@
     </row>
     <row r="150" spans="1:21">
       <c r="A150" s="16" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>42</v>
@@ -14581,7 +14578,7 @@
         <v>43</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J150" s="5" t="s">
         <v>45</v>
@@ -14622,19 +14619,19 @@
     </row>
     <row r="151" spans="1:21">
       <c r="A151" s="16" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>42</v>
@@ -14643,7 +14640,7 @@
         <v>43</v>
       </c>
       <c r="I151" s="16" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J151" s="5" t="s">
         <v>45</v>
@@ -14684,19 +14681,19 @@
     </row>
     <row r="152" spans="1:21">
       <c r="A152" s="16" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>42</v>
@@ -14705,7 +14702,7 @@
         <v>43</v>
       </c>
       <c r="I152" s="16" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J152" s="5" t="s">
         <v>45</v>
@@ -14746,19 +14743,19 @@
     </row>
     <row r="153" spans="1:21">
       <c r="A153" s="16" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>42</v>
@@ -14767,7 +14764,7 @@
         <v>43</v>
       </c>
       <c r="I153" s="16" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J153" s="5" t="s">
         <v>45</v>
@@ -14808,19 +14805,19 @@
     </row>
     <row r="154" spans="1:21">
       <c r="A154" s="16" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>42</v>
@@ -14829,7 +14826,7 @@
         <v>43</v>
       </c>
       <c r="I154" s="16" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J154" s="5" t="s">
         <v>45</v>
@@ -14870,19 +14867,19 @@
     </row>
     <row r="155" spans="1:21">
       <c r="A155" s="16" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>42</v>
@@ -14891,7 +14888,7 @@
         <v>43</v>
       </c>
       <c r="I155" s="16" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J155" s="5" t="s">
         <v>45</v>
@@ -14970,10 +14967,10 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="31.5" customHeight="1" spans="1:20">
       <c r="A1" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -15032,10 +15029,10 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="36.75" customHeight="1" spans="1:20">
       <c r="A2" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
@@ -15094,75 +15091,75 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:20">
       <c r="A4" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -15328,21 +15325,21 @@
   <sheetData>
     <row r="5" spans="11:14">
       <c r="K5" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="9:14">
       <c r="I6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" ref="K6:N6" si="0">CONCATENATE(K$5,$I6)</f>
@@ -15363,7 +15360,7 @@
     </row>
     <row r="7" spans="9:14">
       <c r="I7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" ref="K7:N7" si="1">CONCATENATE(K$5,$I7)</f>
@@ -15384,7 +15381,7 @@
     </row>
     <row r="8" spans="9:14">
       <c r="I8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" ref="K8:N8" si="2">CONCATENATE(K$5,$I8)</f>
@@ -15405,7 +15402,7 @@
     </row>
     <row r="9" spans="9:14">
       <c r="I9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" ref="K9:N9" si="3">CONCATENATE(K$5,$I9)</f>
@@ -15426,7 +15423,7 @@
     </row>
     <row r="10" spans="9:14">
       <c r="I10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" ref="K10:N10" si="4">CONCATENATE(K$5,$I10)</f>
@@ -15447,7 +15444,7 @@
     </row>
     <row r="11" spans="9:14">
       <c r="I11" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" ref="K11:N11" si="5">CONCATENATE(K$5,$I11)</f>
@@ -15468,7 +15465,7 @@
     </row>
     <row r="12" spans="9:14">
       <c r="I12" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" ref="K12:N12" si="6">CONCATENATE(K$5,$I12)</f>
@@ -15489,7 +15486,7 @@
     </row>
     <row r="13" spans="9:14">
       <c r="I13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" ref="K13:N13" si="7">CONCATENATE(K$5,$I13)</f>
@@ -15510,7 +15507,7 @@
     </row>
     <row r="14" spans="9:14">
       <c r="I14" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" ref="K14:N14" si="8">CONCATENATE(K$5,$I14)</f>
@@ -15531,7 +15528,7 @@
     </row>
     <row r="15" spans="9:14">
       <c r="I15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" ref="K15:N15" si="9">CONCATENATE(K$5,$I15)</f>
@@ -15552,7 +15549,7 @@
     </row>
     <row r="16" spans="9:14">
       <c r="I16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" ref="K16:N16" si="10">CONCATENATE(K$5,$I16)</f>
@@ -15573,7 +15570,7 @@
     </row>
     <row r="17" spans="9:14">
       <c r="I17" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" ref="K17:N17" si="11">CONCATENATE(K$5,$I17)</f>
@@ -15594,7 +15591,7 @@
     </row>
     <row r="18" spans="9:14">
       <c r="I18" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ref="K18:N18" si="12">CONCATENATE(K$5,$I18)</f>
@@ -15615,7 +15612,7 @@
     </row>
     <row r="19" spans="9:14">
       <c r="I19" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" ref="K19:N19" si="13">CONCATENATE(K$5,$I19)</f>
@@ -15636,7 +15633,7 @@
     </row>
     <row r="20" spans="9:14">
       <c r="I20" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" ref="K20:N20" si="14">CONCATENATE(K$5,$I20)</f>
@@ -15657,7 +15654,7 @@
     </row>
     <row r="21" spans="9:14">
       <c r="I21" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" ref="K21:N21" si="15">CONCATENATE(K$5,$I21)</f>
@@ -15678,7 +15675,7 @@
     </row>
     <row r="22" spans="9:14">
       <c r="I22" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" ref="K22:N22" si="16">CONCATENATE(K$5,$I22)</f>
@@ -15699,7 +15696,7 @@
     </row>
     <row r="23" spans="9:14">
       <c r="I23" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" ref="K23:N23" si="17">CONCATENATE(K$5,$I23)</f>
@@ -15720,7 +15717,7 @@
     </row>
     <row r="24" spans="9:14">
       <c r="I24" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" ref="K24:N24" si="18">CONCATENATE(K$5,$I24)</f>
@@ -15741,7 +15738,7 @@
     </row>
     <row r="25" spans="9:14">
       <c r="I25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" ref="K25:N25" si="19">CONCATENATE(K$5,$I25)</f>
@@ -15762,7 +15759,7 @@
     </row>
     <row r="26" spans="9:14">
       <c r="I26" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" ref="K26:N26" si="20">CONCATENATE(K$5,$I26)</f>
@@ -15783,7 +15780,7 @@
     </row>
     <row r="27" spans="9:14">
       <c r="I27" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" ref="K27:N27" si="21">CONCATENATE(K$5,$I27)</f>
@@ -15804,7 +15801,7 @@
     </row>
     <row r="28" spans="9:14">
       <c r="I28" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" ref="K28:N28" si="22">CONCATENATE(K$5,$I28)</f>
@@ -15825,7 +15822,7 @@
     </row>
     <row r="29" spans="9:14">
       <c r="I29" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" ref="K29:N29" si="23">CONCATENATE(K$5,$I29)</f>
@@ -15846,7 +15843,7 @@
     </row>
     <row r="30" spans="9:14">
       <c r="I30" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:N30" si="24">CONCATENATE(K$5,$I30)</f>
@@ -15867,7 +15864,7 @@
     </row>
     <row r="31" spans="9:14">
       <c r="I31" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" ref="K31:N31" si="25">CONCATENATE(K$5,$I31)</f>
@@ -15888,7 +15885,7 @@
     </row>
     <row r="32" spans="9:14">
       <c r="I32" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" ref="K32:N32" si="26">CONCATENATE(K$5,$I32)</f>
@@ -15909,7 +15906,7 @@
     </row>
     <row r="33" spans="9:14">
       <c r="I33" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" ref="K33:N33" si="27">CONCATENATE(K$5,$I33)</f>
@@ -15930,7 +15927,7 @@
     </row>
     <row r="34" spans="9:14">
       <c r="I34" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" ref="K34:N34" si="28">CONCATENATE(K$5,$I34)</f>
@@ -15951,7 +15948,7 @@
     </row>
     <row r="35" spans="9:14">
       <c r="I35" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" ref="K35:N35" si="29">CONCATENATE(K$5,$I35)</f>
@@ -15972,7 +15969,7 @@
     </row>
     <row r="36" spans="9:14">
       <c r="I36" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" ref="K36:N36" si="30">CONCATENATE(K$5,$I36)</f>
@@ -15993,7 +15990,7 @@
     </row>
     <row r="37" spans="9:14">
       <c r="I37" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" ref="K37:N37" si="31">CONCATENATE(K$5,$I37)</f>
@@ -16014,7 +16011,7 @@
     </row>
     <row r="38" spans="9:14">
       <c r="I38" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" ref="K38:N38" si="32">CONCATENATE(K$5,$I38)</f>
@@ -16035,7 +16032,7 @@
     </row>
     <row r="39" spans="9:14">
       <c r="I39" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" ref="K39:N39" si="33">CONCATENATE(K$5,$I39)</f>
@@ -16056,7 +16053,7 @@
     </row>
     <row r="40" spans="9:14">
       <c r="I40" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" ref="K40:N40" si="34">CONCATENATE(K$5,$I40)</f>
@@ -16077,7 +16074,7 @@
     </row>
     <row r="41" spans="9:14">
       <c r="I41" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" ref="K41:N41" si="35">CONCATENATE(K$5,$I41)</f>
@@ -16098,7 +16095,7 @@
     </row>
     <row r="42" spans="9:14">
       <c r="I42" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" ref="K42:N42" si="36">CONCATENATE(K$5,$I42)</f>
@@ -16119,7 +16116,7 @@
     </row>
     <row r="43" spans="9:14">
       <c r="I43" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ref="K43:N43" si="37">CONCATENATE(K$5,$I43)</f>
@@ -16140,7 +16137,7 @@
     </row>
     <row r="44" spans="9:14">
       <c r="I44" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" ref="K44:N44" si="38">CONCATENATE(K$5,$I44)</f>
@@ -16161,7 +16158,7 @@
     </row>
     <row r="45" spans="9:14">
       <c r="I45" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" ref="K45:N45" si="39">CONCATENATE(K$5,$I45)</f>
@@ -16182,7 +16179,7 @@
     </row>
     <row r="46" spans="9:14">
       <c r="I46" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" ref="K46:N46" si="40">CONCATENATE(K$5,$I46)</f>
@@ -16203,7 +16200,7 @@
     </row>
     <row r="47" spans="9:14">
       <c r="I47" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" ref="K47:N47" si="41">CONCATENATE(K$5,$I47)</f>
@@ -16224,7 +16221,7 @@
     </row>
     <row r="48" spans="9:14">
       <c r="I48" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" ref="K48:N48" si="42">CONCATENATE(K$5,$I48)</f>
@@ -16245,7 +16242,7 @@
     </row>
     <row r="49" spans="9:14">
       <c r="I49" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" ref="K49:N49" si="43">CONCATENATE(K$5,$I49)</f>
@@ -16266,7 +16263,7 @@
     </row>
     <row r="50" spans="9:14">
       <c r="I50" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" ref="K50:N50" si="44">CONCATENATE(K$5,$I50)</f>
@@ -16287,7 +16284,7 @@
     </row>
     <row r="51" spans="9:14">
       <c r="I51" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" ref="K51:N51" si="45">CONCATENATE(K$5,$I51)</f>
@@ -16308,7 +16305,7 @@
     </row>
     <row r="52" spans="9:14">
       <c r="I52" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" ref="K52:N52" si="46">CONCATENATE(K$5,$I52)</f>
@@ -16329,7 +16326,7 @@
     </row>
     <row r="53" spans="9:14">
       <c r="I53" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" ref="K53:N53" si="47">CONCATENATE(K$5,$I53)</f>
@@ -16350,7 +16347,7 @@
     </row>
     <row r="54" spans="9:14">
       <c r="I54" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" ref="K54:N54" si="48">CONCATENATE(K$5,$I54)</f>
@@ -16371,7 +16368,7 @@
     </row>
     <row r="55" spans="9:14">
       <c r="I55" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" ref="K55:N55" si="49">CONCATENATE(K$5,$I55)</f>
@@ -16392,7 +16389,7 @@
     </row>
     <row r="56" spans="9:14">
       <c r="I56" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" ref="K56:N56" si="50">CONCATENATE(K$5,$I56)</f>
@@ -16413,7 +16410,7 @@
     </row>
     <row r="57" spans="9:14">
       <c r="I57" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" ref="K57:N57" si="51">CONCATENATE(K$5,$I57)</f>
@@ -16434,7 +16431,7 @@
     </row>
     <row r="58" spans="9:14">
       <c r="I58" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" ref="K58:N58" si="52">CONCATENATE(K$5,$I58)</f>
@@ -16455,7 +16452,7 @@
     </row>
     <row r="59" spans="9:14">
       <c r="I59" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" ref="K59:N59" si="53">CONCATENATE(K$5,$I59)</f>
@@ -16476,7 +16473,7 @@
     </row>
     <row r="60" spans="9:14">
       <c r="I60" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" ref="K60:N60" si="54">CONCATENATE(K$5,$I60)</f>
@@ -16497,7 +16494,7 @@
     </row>
     <row r="61" spans="9:14">
       <c r="I61" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" ref="K61:N61" si="55">CONCATENATE(K$5,$I61)</f>
@@ -16518,7 +16515,7 @@
     </row>
     <row r="62" spans="9:14">
       <c r="I62" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" ref="K62:N62" si="56">CONCATENATE(K$5,$I62)</f>
@@ -16539,7 +16536,7 @@
     </row>
     <row r="63" spans="9:14">
       <c r="I63" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" ref="K63:N63" si="57">CONCATENATE(K$5,$I63)</f>
@@ -16560,7 +16557,7 @@
     </row>
     <row r="64" spans="9:14">
       <c r="I64" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" ref="K64:N64" si="58">CONCATENATE(K$5,$I64)</f>
@@ -16581,7 +16578,7 @@
     </row>
     <row r="65" spans="9:14">
       <c r="I65" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" ref="K65:N65" si="59">CONCATENATE(K$5,$I65)</f>
@@ -16602,7 +16599,7 @@
     </row>
     <row r="66" spans="9:14">
       <c r="I66" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" ref="K66:N66" si="60">CONCATENATE(K$5,$I66)</f>
@@ -16623,7 +16620,7 @@
     </row>
     <row r="67" spans="9:14">
       <c r="I67" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" ref="K67:N67" si="61">CONCATENATE(K$5,$I67)</f>
@@ -16644,7 +16641,7 @@
     </row>
     <row r="68" spans="9:14">
       <c r="I68" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" ref="K68:N68" si="62">CONCATENATE(K$5,$I68)</f>
@@ -16665,7 +16662,7 @@
     </row>
     <row r="69" spans="9:14">
       <c r="I69" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" ref="K69:N69" si="63">CONCATENATE(K$5,$I69)</f>
@@ -16686,7 +16683,7 @@
     </row>
     <row r="70" spans="9:14">
       <c r="I70" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" ref="K70:N70" si="64">CONCATENATE(K$5,$I70)</f>
@@ -16707,7 +16704,7 @@
     </row>
     <row r="71" spans="9:14">
       <c r="I71" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" ref="K71:N71" si="65">CONCATENATE(K$5,$I71)</f>
@@ -16728,7 +16725,7 @@
     </row>
     <row r="72" spans="9:14">
       <c r="I72" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" ref="K72:N72" si="66">CONCATENATE(K$5,$I72)</f>
@@ -16749,7 +16746,7 @@
     </row>
     <row r="73" spans="9:14">
       <c r="I73" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="K73" t="str">
         <f t="shared" ref="K73:N73" si="67">CONCATENATE(K$5,$I73)</f>
@@ -16770,7 +16767,7 @@
     </row>
     <row r="74" spans="9:14">
       <c r="I74" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" ref="K74:N74" si="68">CONCATENATE(K$5,$I74)</f>
@@ -16791,7 +16788,7 @@
     </row>
     <row r="75" spans="9:14">
       <c r="I75" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K75" t="str">
         <f t="shared" ref="K75:N75" si="69">CONCATENATE(K$5,$I75)</f>
@@ -16812,7 +16809,7 @@
     </row>
     <row r="76" spans="9:14">
       <c r="I76" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K76" t="str">
         <f t="shared" ref="K76:N76" si="70">CONCATENATE(K$5,$I76)</f>
@@ -16833,7 +16830,7 @@
     </row>
     <row r="77" spans="9:14">
       <c r="I77" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="K77" t="str">
         <f t="shared" ref="K77:N77" si="71">CONCATENATE(K$5,$I77)</f>
@@ -16854,7 +16851,7 @@
     </row>
     <row r="78" spans="9:14">
       <c r="I78" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K78" t="str">
         <f t="shared" ref="K78:N78" si="72">CONCATENATE(K$5,$I78)</f>
@@ -16875,7 +16872,7 @@
     </row>
     <row r="79" spans="9:14">
       <c r="I79" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K79" t="str">
         <f t="shared" ref="K79:N79" si="73">CONCATENATE(K$5,$I79)</f>
@@ -16896,7 +16893,7 @@
     </row>
     <row r="80" spans="9:14">
       <c r="I80" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="K80" t="str">
         <f t="shared" ref="K80:N80" si="74">CONCATENATE(K$5,$I80)</f>
@@ -16917,7 +16914,7 @@
     </row>
     <row r="81" spans="9:14">
       <c r="I81" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K81" t="str">
         <f t="shared" ref="K81:N81" si="75">CONCATENATE(K$5,$I81)</f>
@@ -16938,7 +16935,7 @@
     </row>
     <row r="82" spans="9:14">
       <c r="I82" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="K82" t="str">
         <f t="shared" ref="K82:N82" si="76">CONCATENATE(K$5,$I82)</f>
@@ -16959,7 +16956,7 @@
     </row>
     <row r="83" spans="9:14">
       <c r="I83" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K83" t="str">
         <f t="shared" ref="K83:N83" si="77">CONCATENATE(K$5,$I83)</f>
@@ -16980,7 +16977,7 @@
     </row>
     <row r="84" spans="9:14">
       <c r="I84" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K84" t="str">
         <f t="shared" ref="K84:N84" si="78">CONCATENATE(K$5,$I84)</f>
@@ -17001,7 +16998,7 @@
     </row>
     <row r="85" spans="9:14">
       <c r="I85" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K85" t="str">
         <f t="shared" ref="K85:N85" si="79">CONCATENATE(K$5,$I85)</f>
@@ -17022,7 +17019,7 @@
     </row>
     <row r="86" spans="9:14">
       <c r="I86" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K86" t="str">
         <f t="shared" ref="K86:N86" si="80">CONCATENATE(K$5,$I86)</f>
@@ -17043,7 +17040,7 @@
     </row>
     <row r="87" spans="9:14">
       <c r="I87" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K87" t="str">
         <f t="shared" ref="K87:N87" si="81">CONCATENATE(K$5,$I87)</f>
@@ -17064,7 +17061,7 @@
     </row>
     <row r="88" spans="9:14">
       <c r="I88" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K88" t="str">
         <f t="shared" ref="K88:N88" si="82">CONCATENATE(K$5,$I88)</f>
@@ -17085,7 +17082,7 @@
     </row>
     <row r="89" spans="9:14">
       <c r="I89" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K89" t="str">
         <f t="shared" ref="K89:N89" si="83">CONCATENATE(K$5,$I89)</f>
@@ -17106,7 +17103,7 @@
     </row>
     <row r="90" spans="9:14">
       <c r="I90" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K90" t="str">
         <f t="shared" ref="K90:N90" si="84">CONCATENATE(K$5,$I90)</f>
@@ -17127,7 +17124,7 @@
     </row>
     <row r="91" spans="9:14">
       <c r="I91" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K91" t="str">
         <f t="shared" ref="K91:N91" si="85">CONCATENATE(K$5,$I91)</f>
@@ -17148,7 +17145,7 @@
     </row>
     <row r="92" spans="9:14">
       <c r="I92" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K92" t="str">
         <f t="shared" ref="K92:N92" si="86">CONCATENATE(K$5,$I92)</f>
@@ -17169,7 +17166,7 @@
     </row>
     <row r="93" spans="9:14">
       <c r="I93" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K93" t="str">
         <f t="shared" ref="K93:N93" si="87">CONCATENATE(K$5,$I93)</f>
@@ -17190,7 +17187,7 @@
     </row>
     <row r="94" spans="9:14">
       <c r="I94" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K94" t="str">
         <f t="shared" ref="K94:N94" si="88">CONCATENATE(K$5,$I94)</f>
@@ -17211,7 +17208,7 @@
     </row>
     <row r="95" spans="9:14">
       <c r="I95" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K95" t="str">
         <f t="shared" ref="K95:N95" si="89">CONCATENATE(K$5,$I95)</f>
@@ -17232,7 +17229,7 @@
     </row>
     <row r="96" spans="9:14">
       <c r="I96" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K96" t="str">
         <f t="shared" ref="K96:N96" si="90">CONCATENATE(K$5,$I96)</f>
@@ -17253,7 +17250,7 @@
     </row>
     <row r="97" spans="9:14">
       <c r="I97" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K97" t="str">
         <f t="shared" ref="K97:N97" si="91">CONCATENATE(K$5,$I97)</f>
@@ -17274,7 +17271,7 @@
     </row>
     <row r="98" spans="9:14">
       <c r="I98" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K98" t="str">
         <f t="shared" ref="K98:N98" si="92">CONCATENATE(K$5,$I98)</f>
@@ -17295,7 +17292,7 @@
     </row>
     <row r="99" spans="9:14">
       <c r="I99" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K99" t="str">
         <f t="shared" ref="K99:N99" si="93">CONCATENATE(K$5,$I99)</f>
@@ -17316,7 +17313,7 @@
     </row>
     <row r="100" spans="9:14">
       <c r="I100" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K100" t="str">
         <f t="shared" ref="K100:N100" si="94">CONCATENATE(K$5,$I100)</f>
@@ -17337,7 +17334,7 @@
     </row>
     <row r="101" spans="9:14">
       <c r="I101" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="K101" t="str">
         <f t="shared" ref="K101:N101" si="95">CONCATENATE(K$5,$I101)</f>
@@ -17358,7 +17355,7 @@
     </row>
     <row r="102" spans="9:14">
       <c r="I102" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="K102" t="str">
         <f t="shared" ref="K102:N102" si="96">CONCATENATE(K$5,$I102)</f>
@@ -17379,7 +17376,7 @@
     </row>
     <row r="103" spans="9:14">
       <c r="I103" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K103" t="str">
         <f t="shared" ref="K103:N103" si="97">CONCATENATE(K$5,$I103)</f>
@@ -17400,7 +17397,7 @@
     </row>
     <row r="104" spans="9:14">
       <c r="I104" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="K104" t="str">
         <f t="shared" ref="K104:N104" si="98">CONCATENATE(K$5,$I104)</f>
@@ -17421,7 +17418,7 @@
     </row>
     <row r="105" spans="9:14">
       <c r="I105" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K105" t="str">
         <f t="shared" ref="K105:N105" si="99">CONCATENATE(K$5,$I105)</f>
@@ -17442,7 +17439,7 @@
     </row>
     <row r="106" spans="9:14">
       <c r="I106" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="K106" t="str">
         <f t="shared" ref="K106:N106" si="100">CONCATENATE(K$5,$I106)</f>
@@ -17463,7 +17460,7 @@
     </row>
     <row r="107" spans="9:14">
       <c r="I107" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K107" t="str">
         <f t="shared" ref="K107:N107" si="101">CONCATENATE(K$5,$I107)</f>
@@ -17484,7 +17481,7 @@
     </row>
     <row r="108" spans="9:14">
       <c r="I108" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K108" t="str">
         <f t="shared" ref="K108:N108" si="102">CONCATENATE(K$5,$I108)</f>
@@ -17505,7 +17502,7 @@
     </row>
     <row r="109" spans="9:14">
       <c r="I109" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K109" t="str">
         <f t="shared" ref="K109:N109" si="103">CONCATENATE(K$5,$I109)</f>
@@ -17526,7 +17523,7 @@
     </row>
     <row r="110" spans="9:14">
       <c r="I110" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K110" t="str">
         <f t="shared" ref="K110:N110" si="104">CONCATENATE(K$5,$I110)</f>
@@ -17547,7 +17544,7 @@
     </row>
     <row r="111" spans="9:14">
       <c r="I111" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="K111" t="str">
         <f t="shared" ref="K111:N111" si="105">CONCATENATE(K$5,$I111)</f>
@@ -17568,7 +17565,7 @@
     </row>
     <row r="112" spans="9:14">
       <c r="I112" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K112" t="str">
         <f t="shared" ref="K112:N112" si="106">CONCATENATE(K$5,$I112)</f>
@@ -17589,7 +17586,7 @@
     </row>
     <row r="113" spans="9:14">
       <c r="I113" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K113" t="str">
         <f t="shared" ref="K113:N113" si="107">CONCATENATE(K$5,$I113)</f>
@@ -17610,7 +17607,7 @@
     </row>
     <row r="114" spans="9:14">
       <c r="I114" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K114" t="str">
         <f t="shared" ref="K114:N114" si="108">CONCATENATE(K$5,$I114)</f>
@@ -17631,7 +17628,7 @@
     </row>
     <row r="115" spans="9:14">
       <c r="I115" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K115" t="str">
         <f t="shared" ref="K115:N115" si="109">CONCATENATE(K$5,$I115)</f>
@@ -17652,7 +17649,7 @@
     </row>
     <row r="116" spans="9:14">
       <c r="I116" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K116" t="str">
         <f t="shared" ref="K116:N116" si="110">CONCATENATE(K$5,$I116)</f>
@@ -17673,7 +17670,7 @@
     </row>
     <row r="117" spans="9:14">
       <c r="I117" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="K117" t="str">
         <f t="shared" ref="K117:N117" si="111">CONCATENATE(K$5,$I117)</f>
@@ -17694,7 +17691,7 @@
     </row>
     <row r="118" spans="9:14">
       <c r="I118" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="K118" t="str">
         <f t="shared" ref="K118:N118" si="112">CONCATENATE(K$5,$I118)</f>
@@ -17715,7 +17712,7 @@
     </row>
     <row r="119" spans="9:14">
       <c r="I119" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="K119" t="str">
         <f t="shared" ref="K119:N119" si="113">CONCATENATE(K$5,$I119)</f>
@@ -17736,7 +17733,7 @@
     </row>
     <row r="120" spans="9:14">
       <c r="I120" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K120" t="str">
         <f t="shared" ref="K120:N120" si="114">CONCATENATE(K$5,$I120)</f>
@@ -17757,7 +17754,7 @@
     </row>
     <row r="121" spans="9:14">
       <c r="I121" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="K121" t="str">
         <f t="shared" ref="K121:N121" si="115">CONCATENATE(K$5,$I121)</f>
@@ -17778,7 +17775,7 @@
     </row>
     <row r="122" spans="9:14">
       <c r="I122" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K122" t="str">
         <f t="shared" ref="K122:N122" si="116">CONCATENATE(K$5,$I122)</f>
@@ -17799,7 +17796,7 @@
     </row>
     <row r="123" spans="9:14">
       <c r="I123" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K123" t="str">
         <f t="shared" ref="K123:N123" si="117">CONCATENATE(K$5,$I123)</f>
@@ -17820,7 +17817,7 @@
     </row>
     <row r="124" spans="9:14">
       <c r="I124" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K124" t="str">
         <f t="shared" ref="K124:N124" si="118">CONCATENATE(K$5,$I124)</f>
@@ -17841,7 +17838,7 @@
     </row>
     <row r="125" spans="9:14">
       <c r="I125" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="K125" t="str">
         <f t="shared" ref="K125:N125" si="119">CONCATENATE(K$5,$I125)</f>
@@ -17862,7 +17859,7 @@
     </row>
     <row r="126" spans="9:14">
       <c r="I126" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K126" t="str">
         <f t="shared" ref="K126:N126" si="120">CONCATENATE(K$5,$I126)</f>
@@ -17883,7 +17880,7 @@
     </row>
     <row r="127" spans="9:14">
       <c r="I127" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K127" t="str">
         <f t="shared" ref="K127:N127" si="121">CONCATENATE(K$5,$I127)</f>
@@ -17927,9 +17924,9 @@
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" t="e">
+      <c r="D2" t="str">
         <f>VLOOKUP(A2,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>敌法师</v>
       </c>
       <c r="F2" t="e">
         <v>#N/A</v>
@@ -17951,9 +17948,9 @@
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D4" t="e">
+      <c r="D4" t="str">
         <f>VLOOKUP(A4,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>祸乱之源</v>
       </c>
       <c r="F4" t="e">
         <v>#N/A</v>
@@ -17963,9 +17960,9 @@
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D5" t="e">
+      <c r="D5" t="str">
         <f>VLOOKUP(A5,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>血魔</v>
       </c>
       <c r="F5" t="e">
         <v>#N/A</v>
@@ -17987,9 +17984,9 @@
       <c r="A7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D7" t="e">
+      <c r="D7" t="str">
         <f>VLOOKUP(A7,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>卓尔游侠</v>
       </c>
       <c r="F7" t="e">
         <v>#N/A</v>
@@ -17999,9 +17996,9 @@
       <c r="A8" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D8" t="e">
+      <c r="D8" t="str">
         <f>VLOOKUP(A8,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>撼地者</v>
       </c>
       <c r="F8" t="e">
         <v>#N/A</v>
@@ -18035,9 +18032,9 @@
       <c r="A11" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D11" t="e">
+      <c r="D11" t="str">
         <f>VLOOKUP(A11,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>影魔</v>
       </c>
       <c r="F11" t="e">
         <v>#N/A</v>
@@ -18047,9 +18044,9 @@
       <c r="A12" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D12" t="e">
+      <c r="D12" t="str">
         <f>VLOOKUP(A12,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>水人</v>
       </c>
       <c r="F12" t="e">
         <v>#N/A</v>
@@ -18059,9 +18056,9 @@
       <c r="A13" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D13" t="e">
+      <c r="D13" t="str">
         <f>VLOOKUP(A13,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>幻影长矛手</v>
       </c>
       <c r="F13" t="e">
         <v>#N/A</v>
@@ -18071,9 +18068,9 @@
       <c r="A14" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D14" t="e">
+      <c r="D14" t="str">
         <f>VLOOKUP(A14,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>帕克</v>
       </c>
       <c r="F14" t="e">
         <v>#N/A</v>
@@ -18095,9 +18092,9 @@
       <c r="A16" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D16" t="e">
+      <c r="D16" t="str">
         <f>VLOOKUP(A16,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>电棍</v>
       </c>
       <c r="F16" t="e">
         <v>#N/A</v>
@@ -18105,7 +18102,7 @@
     </row>
     <row r="17" hidden="1" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>335</v>
+        <v>721</v>
       </c>
       <c r="D17" t="e">
         <f>VLOOKUP(A17,[1]data!$A:$C,3,FALSE)</f>
@@ -18117,35 +18114,35 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(A18,[1]data!$A:$C,3,FALSE)</f>
         <v>风暴之灵</v>
       </c>
       <c r="F18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(A19,[1]data!$A:$C,3,FALSE)</f>
         <v>斯文</v>
       </c>
       <c r="F19" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" hidden="1" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D20" t="e">
+        <v>408</v>
+      </c>
+      <c r="D20" t="str">
         <f>VLOOKUP(A20,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>小小</v>
       </c>
       <c r="F20" t="e">
         <v>#N/A</v>
@@ -18153,11 +18150,11 @@
     </row>
     <row r="21" hidden="1" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D21" t="e">
+        <v>429</v>
+      </c>
+      <c r="D21" t="str">
         <f>VLOOKUP(A21,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>复仇之魂</v>
       </c>
       <c r="F21" t="e">
         <v>#N/A</v>
@@ -18165,11 +18162,11 @@
     </row>
     <row r="22" hidden="1" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D22" t="e">
+        <v>453</v>
+      </c>
+      <c r="D22" t="str">
         <f>VLOOKUP(A22,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>风行者</v>
       </c>
       <c r="F22" t="e">
         <v>#N/A</v>
@@ -18177,14 +18174,14 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D23" t="e">
+        <f>VLOOKUP(A23,[1]data!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F23" t="s">
         <v>466</v>
-      </c>
-      <c r="D23" t="str">
-        <f>VLOOKUP(A23,[1]data!$A:$C,3,FALSE)</f>
-        <v>宙斯</v>
-      </c>
-      <c r="F23" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="24" hidden="1" spans="1:6">
@@ -18215,9 +18212,9 @@
       <c r="A26" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D26" t="e">
+      <c r="D26" t="str">
         <f>VLOOKUP(A26,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>巫妖</v>
       </c>
       <c r="F26" t="e">
         <v>#N/A</v>
@@ -18227,9 +18224,9 @@
       <c r="A27" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D27" t="e">
+      <c r="D27" t="str">
         <f>VLOOKUP(A27,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>莱恩</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
@@ -18237,11 +18234,11 @@
     </row>
     <row r="28" hidden="1" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D28" t="e">
+        <v>342</v>
+      </c>
+      <c r="D28" t="str">
         <f>VLOOKUP(A28,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>小Y</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
@@ -18249,23 +18246,23 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D29" t="str">
         <f>VLOOKUP(A29,[1]data!$A:$C,3,FALSE)</f>
         <v>斯拉达</v>
       </c>
       <c r="F29" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D30" t="e">
+        <v>401</v>
+      </c>
+      <c r="D30" t="str">
         <f>VLOOKUP(A30,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>潮汐猎人</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
@@ -18273,11 +18270,11 @@
     </row>
     <row r="31" hidden="1" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D31" t="e">
+        <v>463</v>
+      </c>
+      <c r="D31" t="str">
         <f>VLOOKUP(A31,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>巫医</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
@@ -18287,9 +18284,9 @@
       <c r="A32" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D32" t="e">
+      <c r="D32" t="str">
         <f>VLOOKUP(A32,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>力丸</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
@@ -18299,9 +18296,9 @@
       <c r="A33" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D33" t="e">
+      <c r="D33" t="str">
         <f>VLOOKUP(A33,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>谜团</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
@@ -18309,35 +18306,35 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D34" t="str">
         <f>VLOOKUP(A34,[1]data!$A:$C,3,FALSE)</f>
         <v>修补匠</v>
       </c>
       <c r="F34" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D35" t="str">
         <f>VLOOKUP(A35,[1]data!$A:$C,3,FALSE)</f>
         <v>狙击手</v>
       </c>
       <c r="F35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D36" t="e">
+      <c r="D36" t="str">
         <f>VLOOKUP(A36,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>瘟疫法师</v>
       </c>
       <c r="F36" t="e">
         <v>#N/A</v>
@@ -18345,11 +18342,11 @@
     </row>
     <row r="37" hidden="1" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D37" t="e">
+        <v>447</v>
+      </c>
+      <c r="D37" t="str">
         <f>VLOOKUP(A37,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>术士</v>
       </c>
       <c r="F37" t="e">
         <v>#N/A</v>
@@ -18359,9 +18356,9 @@
       <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D38" t="e">
+      <c r="D38" t="str">
         <f>VLOOKUP(A38,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>兽王</v>
       </c>
       <c r="F38" t="e">
         <v>#N/A</v>
@@ -18371,9 +18368,9 @@
       <c r="A39" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D39" t="e">
+      <c r="D39" t="str">
         <f>VLOOKUP(A39,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>痛苦女王</v>
       </c>
       <c r="F39" t="e">
         <v>#N/A</v>
@@ -18381,23 +18378,23 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D40" t="str">
         <f>VLOOKUP(A40,[1]data!$A:$C,3,FALSE)</f>
         <v>剧毒术士</v>
       </c>
       <c r="F40" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" hidden="1" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D41" t="e">
+      <c r="D41" t="str">
         <f>VLOOKUP(A41,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>JB脸</v>
       </c>
       <c r="F41" t="e">
         <v>#N/A</v>
@@ -18405,7 +18402,7 @@
     </row>
     <row r="42" hidden="1" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D42" t="str">
         <f>VLOOKUP(A42,[1]data!$A:$C,3,FALSE)</f>
@@ -18453,26 +18450,26 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D46" t="str">
         <f>VLOOKUP(A46,[1]data!$A:$C,3,FALSE)</f>
         <v>圣堂刺客</v>
       </c>
       <c r="F46" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D47" t="str">
         <f>VLOOKUP(A47,[1]data!$A:$C,3,FALSE)</f>
         <v>冥界亚龙</v>
       </c>
       <c r="F47" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -18503,9 +18500,9 @@
       <c r="A50" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D50" t="e">
+      <c r="D50" t="str">
         <f>VLOOKUP(A50,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>戴泽</v>
       </c>
       <c r="F50" t="e">
         <v>#N/A</v>
@@ -18515,9 +18512,9 @@
       <c r="A51" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D51" t="e">
+      <c r="D51" t="str">
         <f>VLOOKUP(A51,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>发条地精</v>
       </c>
       <c r="F51" t="e">
         <v>#N/A</v>
@@ -18551,9 +18548,9 @@
       <c r="A54" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D54" t="e">
+      <c r="D54" t="str">
         <f>VLOOKUP(A54,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>小狗</v>
       </c>
       <c r="F54" t="e">
         <v>#N/A</v>
@@ -18563,9 +18560,9 @@
       <c r="A55" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D55" t="e">
+      <c r="D55" t="str">
         <f>VLOOKUP(A55,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>黑暗贤者</v>
       </c>
       <c r="F55" t="e">
         <v>#N/A</v>
@@ -18575,9 +18572,9 @@
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D56" t="e">
+      <c r="D56" t="str">
         <f>VLOOKUP(A56,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>克林克兹</v>
       </c>
       <c r="F56" t="e">
         <v>#N/A</v>
@@ -18599,9 +18596,9 @@
       <c r="A58" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D58" t="e">
+      <c r="D58" t="str">
         <f>VLOOKUP(A58,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>魅惑魔女</v>
       </c>
       <c r="F58" t="e">
         <v>#N/A</v>
@@ -18623,9 +18620,9 @@
       <c r="A60" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D60" t="e">
+      <c r="D60" t="str">
         <f>VLOOKUP(A60,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>暗夜魔王</v>
       </c>
       <c r="F60" t="e">
         <v>#N/A</v>
@@ -18635,9 +18632,9 @@
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D61" t="e">
+      <c r="D61" t="str">
         <f>VLOOKUP(A61,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>蜘蛛</v>
       </c>
       <c r="F61" t="e">
         <v>#N/A</v>
@@ -18657,11 +18654,11 @@
     </row>
     <row r="63" hidden="1" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D63" t="e">
+        <v>450</v>
+      </c>
+      <c r="D63" t="str">
         <f>VLOOKUP(A63,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>编织者</v>
       </c>
       <c r="F63" t="e">
         <v>#N/A</v>
@@ -18671,9 +18668,9 @@
       <c r="A64" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D64" t="e">
+      <c r="D64" t="str">
         <f>VLOOKUP(A64,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>双头龙</v>
       </c>
       <c r="F64" t="e">
         <v>#N/A</v>
@@ -18683,9 +18680,9 @@
       <c r="A65" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D65" t="e">
+      <c r="D65" t="str">
         <f>VLOOKUP(A65,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>蝙蝠骑士</v>
       </c>
       <c r="F65" t="e">
         <v>#N/A</v>
@@ -18695,9 +18692,9 @@
       <c r="A66" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D66" t="e">
+      <c r="D66" t="str">
         <f>VLOOKUP(A66,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>陈</v>
       </c>
       <c r="F66" t="e">
         <v>#N/A</v>
@@ -18705,11 +18702,11 @@
     </row>
     <row r="67" hidden="1" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D67" t="e">
+        <v>374</v>
+      </c>
+      <c r="D67" t="str">
         <f>VLOOKUP(A67,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>幽鬼</v>
       </c>
       <c r="F67" t="e">
         <v>#N/A</v>
@@ -18719,9 +18716,9 @@
       <c r="A68" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D68" t="e">
+      <c r="D68" t="str">
         <f>VLOOKUP(A68,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>末日</v>
       </c>
       <c r="F68" t="e">
         <v>#N/A</v>
@@ -18731,9 +18728,9 @@
       <c r="A69" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D69" t="e">
+      <c r="D69" t="str">
         <f>VLOOKUP(A69,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>远古冰魄</v>
       </c>
       <c r="F69" t="e">
         <v>#N/A</v>
@@ -18741,23 +18738,23 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D70" t="str">
         <f>VLOOKUP(A70,[1]data!$A:$C,3,FALSE)</f>
         <v>熊战士</v>
       </c>
       <c r="F70" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" hidden="1" spans="1:6">
       <c r="A71" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D71" t="e">
+        <v>377</v>
+      </c>
+      <c r="D71" t="str">
         <f>VLOOKUP(A71,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>裂魂人</v>
       </c>
       <c r="F71" t="e">
         <v>#N/A</v>
@@ -18791,9 +18788,9 @@
       <c r="A74" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D74" t="e">
+      <c r="D74" t="str">
         <f>VLOOKUP(A74,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>祈求着</v>
       </c>
       <c r="F74" t="e">
         <v>#N/A</v>
@@ -18801,11 +18798,11 @@
     </row>
     <row r="75" hidden="1" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D75" t="e">
+        <v>349</v>
+      </c>
+      <c r="D75" t="str">
         <f>VLOOKUP(A75,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>沉默术士</v>
       </c>
       <c r="F75" t="e">
         <v>#N/A</v>
@@ -18815,9 +18812,9 @@
       <c r="A76" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D76" t="e">
+      <c r="D76" t="str">
         <f>VLOOKUP(A76,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>黑鸟</v>
       </c>
       <c r="F76" t="e">
         <v>#N/A</v>
@@ -18839,9 +18836,9 @@
       <c r="A78" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D78" t="e">
+      <c r="D78" t="str">
         <f>VLOOKUP(A78,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>熊猫酒仙</v>
       </c>
       <c r="F78" t="e">
         <v>#N/A</v>
@@ -18849,11 +18846,11 @@
     </row>
     <row r="79" hidden="1" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D79" t="e">
+        <v>339</v>
+      </c>
+      <c r="D79" t="str">
         <f>VLOOKUP(A79,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>暗影恶魔</v>
       </c>
       <c r="F79" t="e">
         <v>#N/A</v>
@@ -18887,9 +18884,9 @@
       <c r="A82" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D82" t="e">
+      <c r="D82" t="str">
         <f>VLOOKUP(A82,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>米波</v>
       </c>
       <c r="F82" t="e">
         <v>#N/A</v>
@@ -18897,11 +18894,11 @@
     </row>
     <row r="83" hidden="1" spans="1:6">
       <c r="A83" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D83" t="e">
+        <v>411</v>
+      </c>
+      <c r="D83" t="str">
         <f>VLOOKUP(A83,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>大树</v>
       </c>
       <c r="F83" t="e">
         <v>#N/A</v>
@@ -18921,11 +18918,11 @@
     </row>
     <row r="85" hidden="1" spans="1:6">
       <c r="A85" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D85" t="e">
+        <v>422</v>
+      </c>
+      <c r="D85" t="str">
         <f>VLOOKUP(A85,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>不朽尸王</v>
       </c>
       <c r="F85" t="e">
         <v>#N/A</v>
@@ -18935,9 +18932,9 @@
       <c r="A86" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D86" t="e">
+      <c r="D86" t="str">
         <f>VLOOKUP(A86,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>拉比克</v>
       </c>
       <c r="F86" t="e">
         <v>#N/A</v>
@@ -18959,9 +18956,9 @@
       <c r="A88" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D88" t="e">
+      <c r="D88" t="str">
         <f>VLOOKUP(A88,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>小强</v>
       </c>
       <c r="F88" t="e">
         <v>#N/A</v>
@@ -18971,9 +18968,9 @@
       <c r="A89" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D89" t="e">
+      <c r="D89" t="str">
         <f>VLOOKUP(A89,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>娜迦海妖</v>
       </c>
       <c r="F89" t="e">
         <v>#N/A</v>
@@ -18983,9 +18980,9 @@
       <c r="A90" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D90" t="e">
+      <c r="D90" t="str">
         <f>VLOOKUP(A90,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>光法</v>
       </c>
       <c r="F90" t="e">
         <v>#N/A</v>
@@ -18993,11 +18990,11 @@
     </row>
     <row r="91" hidden="1" spans="1:6">
       <c r="A91" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D91" t="e">
+        <v>460</v>
+      </c>
+      <c r="D91" t="str">
         <f>VLOOKUP(A91,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>艾欧</v>
       </c>
       <c r="F91" t="e">
         <v>#N/A</v>
@@ -19005,11 +19002,11 @@
     </row>
     <row r="92" hidden="1" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D92" t="e">
+        <v>440</v>
+      </c>
+      <c r="D92" t="str">
         <f>VLOOKUP(A92,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>维萨吉</v>
       </c>
       <c r="F92" t="e">
         <v>#N/A</v>
@@ -19017,14 +19014,14 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D93" t="str">
         <f>VLOOKUP(A93,[1]data!$A:$C,3,FALSE)</f>
         <v>斯拉克</v>
       </c>
       <c r="F93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -19041,7 +19038,7 @@
     </row>
     <row r="95" hidden="1" spans="1:6">
       <c r="A95" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D95" t="str">
         <f>VLOOKUP(A95,[1]data!$A:$C,3,FALSE)</f>
@@ -19067,9 +19064,9 @@
       <c r="A97" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D97" t="e">
+      <c r="D97" t="str">
         <f>VLOOKUP(A97,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>马格纳斯</v>
       </c>
       <c r="F97" t="e">
         <v>#N/A</v>
@@ -19077,23 +19074,23 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D98" t="str">
         <f>VLOOKUP(A98,[1]data!$A:$C,3,FALSE)</f>
         <v>伐木机</v>
       </c>
       <c r="F98" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" hidden="1" spans="1:6">
       <c r="A99" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D99" t="e">
+      <c r="D99" t="str">
         <f>VLOOKUP(A99,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>刚被兽</v>
       </c>
       <c r="F99" t="e">
         <v>#N/A</v>
@@ -19101,7 +19098,7 @@
     </row>
     <row r="100" hidden="1" spans="1:6">
       <c r="A100" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D100" t="str">
         <f>VLOOKUP(A100,[1]data!$A:$C,3,FALSE)</f>
@@ -19113,11 +19110,11 @@
     </row>
     <row r="101" hidden="1" spans="1:6">
       <c r="A101" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D101" t="e">
+        <v>356</v>
+      </c>
+      <c r="D101" t="str">
         <f>VLOOKUP(A101,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>天怒法师</v>
       </c>
       <c r="F101" t="e">
         <v>#N/A</v>
@@ -19127,9 +19124,9 @@
       <c r="A102" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D102" t="e">
+      <c r="D102" t="str">
         <f>VLOOKUP(A102,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>亚巴顿</v>
       </c>
       <c r="F102" t="e">
         <v>#N/A</v>
@@ -19139,9 +19136,9 @@
       <c r="A103" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D103" t="e">
+      <c r="D103" t="str">
         <f>VLOOKUP(A103,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>上古巨神</v>
       </c>
       <c r="F103" t="e">
         <v>#N/A</v>
@@ -19151,9 +19148,9 @@
       <c r="A104" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D104" t="e">
+      <c r="D104" t="str">
         <f>VLOOKUP(A104,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>军团</v>
       </c>
       <c r="F104" t="e">
         <v>#N/A</v>
@@ -19185,11 +19182,11 @@
     </row>
     <row r="107" hidden="1" spans="1:6">
       <c r="A107" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D107" t="e">
+        <v>398</v>
+      </c>
+      <c r="D107" t="str">
         <f>VLOOKUP(A107,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>灵魂守卫</v>
       </c>
       <c r="F107" t="e">
         <v>#N/A</v>
@@ -19199,9 +19196,9 @@
       <c r="A108" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D108" t="e">
+      <c r="D108" t="str">
         <f>VLOOKUP(A108,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>凤凰</v>
       </c>
       <c r="F108" t="e">
         <v>#N/A</v>
@@ -19211,9 +19208,9 @@
       <c r="A109" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D109" t="e">
+      <c r="D109" t="str">
         <f>VLOOKUP(A109,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>神谕者</v>
       </c>
       <c r="F109" t="e">
         <v>#N/A</v>
@@ -19221,11 +19218,11 @@
     </row>
     <row r="110" hidden="1" spans="1:6">
       <c r="A110" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D110" t="e">
+        <v>391</v>
+      </c>
+      <c r="D110" t="str">
         <f>VLOOKUP(A110,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>地精工程师</v>
       </c>
       <c r="F110" t="e">
         <v>#N/A</v>
@@ -19233,7 +19230,7 @@
     </row>
     <row r="111" hidden="1" spans="1:6">
       <c r="A111" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D111" t="e">
         <f>VLOOKUP(A111,[1]data!$A:$C,3,FALSE)</f>
@@ -19245,23 +19242,23 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D112" t="str">
         <f>VLOOKUP(A112,[1]data!$A:$C,3,FALSE)</f>
         <v>冰霜巨龙</v>
       </c>
       <c r="F112" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="113" hidden="1" spans="1:6">
       <c r="A113" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D113" t="e">
+      <c r="D113" t="str">
         <f>VLOOKUP(A113,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>天穹守望者</v>
       </c>
       <c r="F113" t="e">
         <v>#N/A</v>
@@ -19271,9 +19268,9 @@
       <c r="A114" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D114" t="e">
+      <c r="D114" t="str">
         <f>VLOOKUP(A114,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>孽主</v>
       </c>
       <c r="F114" t="e">
         <v>#N/A</v>
@@ -19283,9 +19280,9 @@
       <c r="A115" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D115" t="e">
+      <c r="D115" t="str">
         <f>VLOOKUP(A115,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>大圣</v>
       </c>
       <c r="F115" t="e">
         <v>#N/A</v>
@@ -19307,9 +19304,9 @@
       <c r="A117" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D117" t="e">
+      <c r="D117" t="str">
         <f>VLOOKUP(A117,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>邪影芳灵</v>
       </c>
       <c r="F117" t="e">
         <v>#N/A</v>
@@ -19319,9 +19316,9 @@
       <c r="A118" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D118" t="e">
+      <c r="D118" t="str">
         <f>VLOOKUP(A118,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>天涯墨客</v>
       </c>
       <c r="F118" t="e">
         <v>#N/A</v>
@@ -19341,23 +19338,23 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D120" t="str">
         <f>VLOOKUP(A120,[1]data!$A:$C,3,FALSE)</f>
         <v>虚无之灵</v>
       </c>
       <c r="F120" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="121" hidden="1" spans="1:6">
       <c r="A121" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D121" t="e">
+        <v>367</v>
+      </c>
+      <c r="D121" t="str">
         <f>VLOOKUP(A121,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>电炎绝手</v>
       </c>
       <c r="F121" t="e">
         <v>#N/A</v>
@@ -19367,9 +19364,9 @@
       <c r="A122" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D122" t="e">
+      <c r="D122" t="str">
         <f>VLOOKUP(A122,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>小松鼠</v>
       </c>
       <c r="F122" t="e">
         <v>#N/A</v>
@@ -19379,9 +19376,9 @@
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D123" t="e">
+      <c r="D123" t="str">
         <f>VLOOKUP(A123,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>破晓辰星</v>
       </c>
       <c r="F123" t="e">
         <v>#N/A</v>
@@ -19424,10 +19421,10 @@
     </row>
     <row r="140" spans="4:10">
       <c r="D140" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E140" t="s">
         <v>380</v>
-      </c>
-      <c r="E140" t="s">
-        <v>379</v>
       </c>
       <c r="J140" s="4" t="s">
         <v>70</v>
@@ -19435,10 +19432,10 @@
     </row>
     <row r="141" spans="4:10">
       <c r="D141" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E141" t="s">
         <v>384</v>
-      </c>
-      <c r="E141" t="s">
-        <v>383</v>
       </c>
       <c r="J141" s="4" t="s">
         <v>73</v>
@@ -19446,10 +19443,10 @@
     </row>
     <row r="142" spans="4:10">
       <c r="D142" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E142" t="s">
         <v>466</v>
-      </c>
-      <c r="E142" t="s">
-        <v>465</v>
       </c>
       <c r="J142" s="4" t="s">
         <v>82</v>
@@ -19468,10 +19465,10 @@
     </row>
     <row r="144" spans="4:10">
       <c r="D144" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E144" t="s">
         <v>359</v>
-      </c>
-      <c r="E144" t="s">
-        <v>358</v>
       </c>
       <c r="J144" s="4" t="s">
         <v>143</v>
@@ -19479,10 +19476,10 @@
     </row>
     <row r="145" spans="4:10">
       <c r="D145" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E145" t="s">
         <v>404</v>
-      </c>
-      <c r="E145" t="s">
-        <v>403</v>
       </c>
       <c r="J145" s="4" t="s">
         <v>150</v>
@@ -19490,10 +19487,10 @@
     </row>
     <row r="146" spans="4:10">
       <c r="D146" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E146" t="s">
         <v>370</v>
-      </c>
-      <c r="E146" t="s">
-        <v>369</v>
       </c>
       <c r="J146" s="4" t="s">
         <v>194</v>
@@ -19501,10 +19498,10 @@
     </row>
     <row r="147" spans="4:10">
       <c r="D147" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E147" t="s">
         <v>432</v>
-      </c>
-      <c r="E147" t="s">
-        <v>431</v>
       </c>
       <c r="J147" s="4" t="s">
         <v>254</v>
@@ -19545,10 +19542,10 @@
     </row>
     <row r="151" spans="4:10">
       <c r="D151" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E151" t="s">
         <v>394</v>
-      </c>
-      <c r="E151" t="s">
-        <v>393</v>
       </c>
       <c r="J151" s="4" t="s">
         <v>310</v>
@@ -19556,10 +19553,10 @@
     </row>
     <row r="152" spans="4:10">
       <c r="D152" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E152" t="s">
         <v>436</v>
-      </c>
-      <c r="E152" t="s">
-        <v>435</v>
       </c>
       <c r="J152" s="4" t="s">
         <v>314</v>
@@ -19584,7 +19581,7 @@
         <v>138</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="155" spans="4:10">
@@ -19595,7 +19592,7 @@
         <v>206</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="4:10">
@@ -19606,7 +19603,7 @@
         <v>168</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="4:10">
@@ -19617,7 +19614,7 @@
         <v>284</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="158" spans="4:10">
@@ -19628,7 +19625,7 @@
         <v>182</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="159" spans="4:10">
@@ -19639,18 +19636,18 @@
         <v>84</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="160" spans="4:10">
       <c r="D160" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E160" t="s">
         <v>425</v>
       </c>
-      <c r="E160" t="s">
-        <v>424</v>
-      </c>
       <c r="J160" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="161" spans="4:10">
@@ -19705,7 +19702,7 @@
         <v>101</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="166" spans="4:10">
@@ -19716,7 +19713,7 @@
         <v>280</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="167" spans="4:10">
@@ -19727,18 +19724,18 @@
         <v>131</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="168" spans="4:10">
       <c r="D168" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E168" t="s">
         <v>363</v>
       </c>
-      <c r="E168" t="s">
-        <v>362</v>
-      </c>
       <c r="J168" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169" spans="4:10">
@@ -19765,13 +19762,13 @@
     </row>
     <row r="171" spans="4:10">
       <c r="D171" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E171" t="s">
         <v>345</v>
       </c>
-      <c r="E171" t="s">
-        <v>344</v>
-      </c>
       <c r="J171" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="172" spans="4:10">
@@ -19782,7 +19779,7 @@
         <v>155</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="173" spans="4:10">
@@ -19798,13 +19795,13 @@
     </row>
     <row r="174" spans="4:10">
       <c r="D174" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E174" t="s">
         <v>456</v>
       </c>
-      <c r="E174" t="s">
-        <v>455</v>
-      </c>
       <c r="J174" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="175" spans="4:10">
@@ -19820,10 +19817,10 @@
     </row>
     <row r="176" spans="4:10">
       <c r="D176" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E176" t="s">
         <v>443</v>
-      </c>
-      <c r="E176" t="s">
-        <v>442</v>
       </c>
       <c r="J176" s="4" t="s">
         <v>321</v>
@@ -19831,7 +19828,7 @@
     </row>
     <row r="177" spans="10:10">
       <c r="J177" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="178" spans="10:10">
@@ -19841,7 +19838,7 @@
     </row>
     <row r="179" spans="10:10">
       <c r="J179" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180" spans="10:10">
@@ -19861,12 +19858,12 @@
     </row>
     <row r="183" spans="10:10">
       <c r="J183" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="184" spans="10:10">
       <c r="J184" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="185" spans="10:10">
@@ -19946,7 +19943,7 @@
     </row>
     <row r="200" spans="10:10">
       <c r="J200" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="201" spans="10:10">
@@ -19966,7 +19963,7 @@
     </row>
     <row r="204" spans="10:10">
       <c r="J204" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="205" spans="10:10">
@@ -19981,12 +19978,12 @@
     </row>
     <row r="207" spans="10:10">
       <c r="J207" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="208" spans="10:10">
       <c r="J208" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="209" spans="10:10">
@@ -20006,7 +20003,7 @@
     </row>
     <row r="212" spans="10:10">
       <c r="J212" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="213" spans="10:10">
@@ -20026,7 +20023,7 @@
     </row>
     <row r="216" spans="10:10">
       <c r="J216" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="217" spans="10:10">
@@ -20046,7 +20043,7 @@
     </row>
     <row r="220" spans="10:10">
       <c r="J220" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="221" spans="10:10">
@@ -20056,7 +20053,7 @@
     </row>
     <row r="222" spans="10:10">
       <c r="J222" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="223" spans="10:10">
@@ -20086,17 +20083,17 @@
     </row>
     <row r="228" spans="10:10">
       <c r="J228" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="229" spans="10:10">
       <c r="J229" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="230" spans="10:10">
       <c r="J230" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="231" spans="10:10">
@@ -20106,7 +20103,7 @@
     </row>
     <row r="232" spans="10:10">
       <c r="J232" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="233" spans="10:10">
@@ -20121,7 +20118,7 @@
     </row>
     <row r="235" spans="10:10">
       <c r="J235" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="236" spans="10:10">
@@ -20131,12 +20128,12 @@
     </row>
     <row r="237" spans="10:10">
       <c r="J237" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="238" spans="10:10">
       <c r="J238" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239" spans="10:10">
@@ -20166,7 +20163,7 @@
     </row>
     <row r="244" spans="10:10">
       <c r="J244" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245" spans="10:10">
@@ -20181,17 +20178,17 @@
     </row>
     <row r="247" spans="10:10">
       <c r="J247" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="248" spans="10:10">
       <c r="J248" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="249" spans="10:10">
       <c r="J249" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="250" spans="10:10">
@@ -20231,12 +20228,12 @@
     </row>
     <row r="257" spans="10:10">
       <c r="J257" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="258" spans="10:10">
       <c r="J258" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="259" spans="10:10">

--- a/code/excels/building/building_item_card.xlsx
+++ b/code/excels/building/building_item_card.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="721">
   <si>
     <t>主键</t>
   </si>
@@ -1028,13 +1028,13 @@
     <t>heroes/rubick</t>
   </si>
   <si>
-    <t>item_building_hero_sandking</t>
+    <t>item_building_hero_sand_king</t>
   </si>
   <si>
     <t>沙王</t>
   </si>
   <si>
-    <t>building_hero_sandking</t>
+    <t>building_hero_sand_king</t>
   </si>
   <si>
     <t>heroes/sand_king</t>
@@ -2187,9 +2187,6 @@
   </si>
   <si>
     <t>dawnbreaker</t>
-  </si>
-  <si>
-    <t>building_hero_sand_king</t>
   </si>
 </sst>
 </file>
@@ -3910,7 +3907,7 @@
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>building_hero_sandking</v>
+            <v>building_hero_sand_king</v>
           </cell>
           <cell r="B88" t="str">
             <v>沙王</v>
@@ -4317,7 +4314,7 @@
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>building_hero_zeus</v>
+            <v>building_hero_zuus</v>
           </cell>
           <cell r="B125" t="str">
             <v>宙斯</v>
@@ -4916,11 +4913,11 @@
   <dimension ref="A1:U155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I111" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
+      <selection pane="bottomRight" activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18102,11 +18099,11 @@
     </row>
     <row r="17" hidden="1" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="D17" t="e">
+        <v>336</v>
+      </c>
+      <c r="D17" t="str">
         <f>VLOOKUP(A17,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>沙王</v>
       </c>
       <c r="F17" t="e">
         <v>#N/A</v>
@@ -18176,9 +18173,9 @@
       <c r="A23" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D23" t="e">
+      <c r="D23" t="str">
         <f>VLOOKUP(A23,[1]data!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>宙斯</v>
       </c>
       <c r="F23" t="s">
         <v>466</v>

--- a/code/excels/building/building_item_card.xlsx
+++ b/code/excels/building/building_item_card.xlsx
@@ -4913,11 +4913,11 @@
   <dimension ref="A1:U155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I108" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H126" sqref="H126"/>
+      <selection pane="bottomRight" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/code/excels/building/building_item_card.xlsx
+++ b/code/excels/building/building_item_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>道具永久属性</t>
   </si>
   <si>
-    <t>道具初始售价</t>
+    <t>道具初始层数</t>
   </si>
   <si>
     <t>道具花费</t>
@@ -5169,12 +5169,12 @@
   <sheetPr/>
   <dimension ref="A1:V154"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:P2"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5182,7 +5182,7 @@
     <col min="1" max="1" width="34.275" style="13" customWidth="1"/>
     <col min="2" max="4" width="11.0833333333333" style="13" customWidth="1"/>
     <col min="5" max="5" width="7.975" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.99166666666667" style="13" customWidth="1"/>
+    <col min="6" max="6" width="14.7083333333333" style="13" customWidth="1"/>
     <col min="7" max="7" width="11.0833333333333" style="13" customWidth="1"/>
     <col min="8" max="8" width="8.54166666666667" style="15" customWidth="1"/>
     <col min="9" max="9" width="11.0833333333333" style="15" customWidth="1"/>
@@ -15591,8 +15591,8 @@
   <sheetPr/>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/code/excels/building/building_item_card.xlsx
+++ b/code/excels/building/building_item_card.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="548">
   <si>
     <t>主键</t>
   </si>
@@ -1626,90 +1626,6 @@
   </si>
   <si>
     <t>heroes/zuus</t>
-  </si>
-  <si>
-    <t>item_shop_gold_bag</t>
-  </si>
-  <si>
-    <t>金币福袋</t>
-  </si>
-  <si>
-    <t>npc/items/shop/item_shop_coin_bag</t>
-  </si>
-  <si>
-    <t>shop/gold_bag</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
-  </si>
-  <si>
-    <t>item_shop_wood_bag</t>
-  </si>
-  <si>
-    <t>木材福袋</t>
-  </si>
-  <si>
-    <t>shop/wood_bag</t>
-  </si>
-  <si>
-    <t>item_shop_soulcrystal_bag</t>
-  </si>
-  <si>
-    <t>魂晶福袋</t>
-  </si>
-  <si>
-    <t>shop/soulcrystal_bag</t>
-  </si>
-  <si>
-    <t>item_shop_lottery_ticket</t>
-  </si>
-  <si>
-    <t>刮刮乐</t>
-  </si>
-  <si>
-    <t>npc/items/shop/item_shop_lottery_ticket</t>
-  </si>
-  <si>
-    <t>shop/lottery_ticket</t>
-  </si>
-  <si>
-    <t>item_shop_equiptreasure_c</t>
-  </si>
-  <si>
-    <t>初级装备宝箱</t>
-  </si>
-  <si>
-    <t>npc/items/shop/item_shop_equiptreasure</t>
-  </si>
-  <si>
-    <t>shop/equiptreasure_c</t>
-  </si>
-  <si>
-    <t>item_shop_equiptreasure_b</t>
-  </si>
-  <si>
-    <t>中级装备宝箱</t>
-  </si>
-  <si>
-    <t>shop/equiptreasure_b</t>
-  </si>
-  <si>
-    <t>item_shop_equiptreasure_a</t>
-  </si>
-  <si>
-    <t>高级装备宝箱</t>
-  </si>
-  <si>
-    <t>shop/equiptreasure_a</t>
-  </si>
-  <si>
-    <t>item_shop_equiptreasure_s</t>
-  </si>
-  <si>
-    <t>传奇装备宝箱</t>
-  </si>
-  <si>
-    <t>shop/equiptreasure_s</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -2762,14 +2678,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S133"/>
+  <dimension ref="A1:S125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="K110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="N101" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K125" sqref="K125:P133"/>
+      <selection pane="bottomRight" activeCell="A126" sqref="$A126:$XFD133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.2416666666667" defaultRowHeight="14"/>
@@ -10157,454 +10073,6 @@
         <v>46</v>
       </c>
       <c r="S125" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" ht="15.5" spans="1:19">
-      <c r="A126" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="G126" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I126" s="9">
-        <v>0</v>
-      </c>
-      <c r="J126" s="9">
-        <v>0</v>
-      </c>
-      <c r="K126" s="9">
-        <v>500</v>
-      </c>
-      <c r="L126" s="9">
-        <v>250</v>
-      </c>
-      <c r="M126" s="9">
-        <v>50</v>
-      </c>
-      <c r="N126" s="9">
-        <v>0</v>
-      </c>
-      <c r="O126" s="9">
-        <v>1</v>
-      </c>
-      <c r="P126" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q126" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R126" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S126" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="127" ht="15.5" spans="1:19">
-      <c r="A127" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I127" s="9">
-        <v>0</v>
-      </c>
-      <c r="J127" s="9">
-        <v>0</v>
-      </c>
-      <c r="K127" s="9">
-        <v>500</v>
-      </c>
-      <c r="L127" s="9">
-        <v>250</v>
-      </c>
-      <c r="M127" s="9">
-        <v>50</v>
-      </c>
-      <c r="N127" s="9">
-        <v>0</v>
-      </c>
-      <c r="O127" s="9">
-        <v>1</v>
-      </c>
-      <c r="P127" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q127" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R127" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S127" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="128" ht="15.5" spans="1:19">
-      <c r="A128" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="G128" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I128" s="9">
-        <v>0</v>
-      </c>
-      <c r="J128" s="9">
-        <v>0</v>
-      </c>
-      <c r="K128" s="9">
-        <v>500</v>
-      </c>
-      <c r="L128" s="9">
-        <v>250</v>
-      </c>
-      <c r="M128" s="9">
-        <v>50</v>
-      </c>
-      <c r="N128" s="9">
-        <v>0</v>
-      </c>
-      <c r="O128" s="9">
-        <v>1</v>
-      </c>
-      <c r="P128" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q128" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R128" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S128" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="129" ht="15.5" spans="1:19">
-      <c r="A129" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="G129" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I129" s="9">
-        <v>0</v>
-      </c>
-      <c r="J129" s="9">
-        <v>0</v>
-      </c>
-      <c r="K129" s="9">
-        <v>500</v>
-      </c>
-      <c r="L129" s="9">
-        <v>250</v>
-      </c>
-      <c r="M129" s="9">
-        <v>50</v>
-      </c>
-      <c r="N129" s="9">
-        <v>0</v>
-      </c>
-      <c r="O129" s="9">
-        <v>1</v>
-      </c>
-      <c r="P129" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q129" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R129" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S129" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="130" ht="15.5" spans="1:19">
-      <c r="A130" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="G130" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I130" s="9">
-        <v>0</v>
-      </c>
-      <c r="J130" s="9">
-        <v>0</v>
-      </c>
-      <c r="K130" s="9">
-        <v>500</v>
-      </c>
-      <c r="L130" s="9">
-        <v>250</v>
-      </c>
-      <c r="M130" s="9">
-        <v>50</v>
-      </c>
-      <c r="N130" s="9">
-        <v>0</v>
-      </c>
-      <c r="O130" s="9">
-        <v>1</v>
-      </c>
-      <c r="P130" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q130" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R130" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S130" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="131" ht="15.5" spans="1:19">
-      <c r="A131" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="F131" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="G131" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I131" s="9">
-        <v>0</v>
-      </c>
-      <c r="J131" s="9">
-        <v>0</v>
-      </c>
-      <c r="K131" s="9">
-        <v>500</v>
-      </c>
-      <c r="L131" s="9">
-        <v>250</v>
-      </c>
-      <c r="M131" s="9">
-        <v>50</v>
-      </c>
-      <c r="N131" s="9">
-        <v>0</v>
-      </c>
-      <c r="O131" s="9">
-        <v>1</v>
-      </c>
-      <c r="P131" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q131" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R131" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S131" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="132" ht="15.5" spans="1:19">
-      <c r="A132" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="G132" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I132" s="9">
-        <v>0</v>
-      </c>
-      <c r="J132" s="9">
-        <v>0</v>
-      </c>
-      <c r="K132" s="9">
-        <v>500</v>
-      </c>
-      <c r="L132" s="9">
-        <v>250</v>
-      </c>
-      <c r="M132" s="9">
-        <v>50</v>
-      </c>
-      <c r="N132" s="9">
-        <v>0</v>
-      </c>
-      <c r="O132" s="9">
-        <v>1</v>
-      </c>
-      <c r="P132" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q132" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R132" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S132" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="133" ht="15.5" spans="1:19">
-      <c r="A133" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="F133" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="G133" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I133" s="9">
-        <v>0</v>
-      </c>
-      <c r="J133" s="9">
-        <v>0</v>
-      </c>
-      <c r="K133" s="9">
-        <v>500</v>
-      </c>
-      <c r="L133" s="9">
-        <v>250</v>
-      </c>
-      <c r="M133" s="9">
-        <v>50</v>
-      </c>
-      <c r="N133" s="9">
-        <v>0</v>
-      </c>
-      <c r="O133" s="9">
-        <v>1</v>
-      </c>
-      <c r="P133" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R133" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S133" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -10647,10 +10115,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:21">
       <c r="A1" s="2" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -10674,7 +10142,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
@@ -10712,10 +10180,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:21">
       <c r="A2" s="2" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -10739,7 +10207,7 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>569</v>
+        <v>541</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>26</v>
@@ -10777,78 +10245,78 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="5" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>18</v>

--- a/code/excels/building/building_item_card.xlsx
+++ b/code/excels/building/building_item_card.xlsx
@@ -149,7 +149,7 @@
     <t>heroes/abaddon</t>
   </si>
   <si>
-    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_IMMEDIATE | DOTA_ABILITY_BEHAVIOR_DONT_RESUME_ATTACK</t>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET| DOTA_ABILITY_BEHAVIOR_IMMEDIATE | DOTA_ABILITY_BEHAVIOR_DONT_RESUME_ATTACK</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_INVULNERABLE</t>
@@ -2295,7 +2295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2355,9 +2355,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2681,11 +2678,11 @@
   <dimension ref="A1:S125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="N101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A126" sqref="$A126:$XFD133"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.2416666666667" defaultRowHeight="14"/>
@@ -2851,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L3" s="9">
         <v>300</v>
-      </c>
-      <c r="L3" s="9">
-        <v>150</v>
       </c>
       <c r="M3" s="9">
         <v>30</v>
@@ -2910,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L4" s="9">
         <v>500</v>
-      </c>
-      <c r="L4" s="9">
-        <v>250</v>
       </c>
       <c r="M4" s="9">
         <v>50</v>
@@ -2969,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L5" s="9">
         <v>300</v>
-      </c>
-      <c r="L5" s="9">
-        <v>150</v>
       </c>
       <c r="M5" s="9">
         <v>30</v>
@@ -3028,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L6" s="9">
         <v>300</v>
-      </c>
-      <c r="L6" s="9">
-        <v>150</v>
       </c>
       <c r="M6" s="9">
         <v>30</v>
@@ -3087,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="K7" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L7" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M7" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N7" s="9">
         <v>0</v>
@@ -3146,10 +3143,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L8" s="9">
         <v>500</v>
-      </c>
-      <c r="L8" s="9">
-        <v>250</v>
       </c>
       <c r="M8" s="9">
         <v>50</v>
@@ -3205,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="K9" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L9" s="9">
         <v>50</v>
       </c>
       <c r="M9" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N9" s="9">
         <v>0</v>
@@ -3264,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L10" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M10" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N10" s="9">
         <v>0</v>
@@ -3382,13 +3379,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L12" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M12" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N12" s="9">
         <v>0</v>
@@ -3441,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L13" s="9">
         <v>300</v>
-      </c>
-      <c r="L13" s="9">
-        <v>150</v>
       </c>
       <c r="M13" s="9">
         <v>30</v>
@@ -3500,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L14" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M14" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N14" s="9">
         <v>0</v>
@@ -3559,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L15" s="9">
         <v>50</v>
       </c>
       <c r="M15" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N15" s="9">
         <v>0</v>
@@ -3618,13 +3615,13 @@
         <v>0</v>
       </c>
       <c r="K16" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L16" s="9">
         <v>50</v>
       </c>
       <c r="M16" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N16" s="9">
         <v>0</v>
@@ -3677,10 +3674,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L17" s="9">
         <v>300</v>
-      </c>
-      <c r="L17" s="9">
-        <v>150</v>
       </c>
       <c r="M17" s="9">
         <v>30</v>
@@ -3736,13 +3733,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L18" s="9">
         <v>50</v>
       </c>
       <c r="M18" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N18" s="9">
         <v>0</v>
@@ -3795,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L19" s="9">
         <v>300</v>
-      </c>
-      <c r="L19" s="9">
-        <v>150</v>
       </c>
       <c r="M19" s="9">
         <v>30</v>
@@ -3854,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L20" s="9">
         <v>300</v>
-      </c>
-      <c r="L20" s="9">
-        <v>150</v>
       </c>
       <c r="M20" s="9">
         <v>30</v>
@@ -3913,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L21" s="9">
         <v>300</v>
-      </c>
-      <c r="L21" s="9">
-        <v>150</v>
       </c>
       <c r="M21" s="9">
         <v>30</v>
@@ -3972,13 +3969,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L22" s="9">
         <v>50</v>
       </c>
       <c r="M22" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N22" s="9">
         <v>0</v>
@@ -4031,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="K23" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L23" s="9">
         <v>500</v>
-      </c>
-      <c r="L23" s="9">
-        <v>250</v>
       </c>
       <c r="M23" s="9">
         <v>50</v>
@@ -4090,10 +4087,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L24" s="9">
         <v>300</v>
-      </c>
-      <c r="L24" s="9">
-        <v>150</v>
       </c>
       <c r="M24" s="9">
         <v>30</v>
@@ -4208,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="K26" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L26" s="9">
         <v>50</v>
       </c>
       <c r="M26" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N26" s="9">
         <v>0</v>
@@ -4326,10 +4323,10 @@
         <v>0</v>
       </c>
       <c r="K28" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L28" s="9">
         <v>500</v>
-      </c>
-      <c r="L28" s="9">
-        <v>250</v>
       </c>
       <c r="M28" s="9">
         <v>50</v>
@@ -4444,10 +4441,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L30" s="9">
         <v>300</v>
-      </c>
-      <c r="L30" s="9">
-        <v>150</v>
       </c>
       <c r="M30" s="9">
         <v>30</v>
@@ -4503,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L31" s="9">
         <v>300</v>
-      </c>
-      <c r="L31" s="9">
-        <v>150</v>
       </c>
       <c r="M31" s="9">
         <v>30</v>
@@ -4562,13 +4559,13 @@
         <v>0</v>
       </c>
       <c r="K32" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L32" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M32" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N32" s="9">
         <v>0</v>
@@ -4621,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="K33" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L33" s="9">
         <v>300</v>
-      </c>
-      <c r="L33" s="9">
-        <v>150</v>
       </c>
       <c r="M33" s="9">
         <v>30</v>
@@ -4680,10 +4677,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L34" s="9">
         <v>300</v>
-      </c>
-      <c r="L34" s="9">
-        <v>150</v>
       </c>
       <c r="M34" s="9">
         <v>30</v>
@@ -4739,10 +4736,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L35" s="9">
         <v>300</v>
-      </c>
-      <c r="L35" s="9">
-        <v>150</v>
       </c>
       <c r="M35" s="9">
         <v>30</v>
@@ -4798,13 +4795,13 @@
         <v>0</v>
       </c>
       <c r="K36" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L36" s="9">
         <v>50</v>
       </c>
       <c r="M36" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N36" s="9">
         <v>0</v>
@@ -4857,10 +4854,10 @@
         <v>0</v>
       </c>
       <c r="K37" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L37" s="9">
         <v>500</v>
-      </c>
-      <c r="L37" s="9">
-        <v>250</v>
       </c>
       <c r="M37" s="9">
         <v>50</v>
@@ -4916,13 +4913,13 @@
         <v>0</v>
       </c>
       <c r="K38" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L38" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M38" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N38" s="9">
         <v>0</v>
@@ -5034,13 +5031,13 @@
         <v>0</v>
       </c>
       <c r="K40" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L40" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M40" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N40" s="9">
         <v>0</v>
@@ -5093,10 +5090,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L41" s="9">
         <v>500</v>
-      </c>
-      <c r="L41" s="9">
-        <v>250</v>
       </c>
       <c r="M41" s="9">
         <v>50</v>
@@ -5211,10 +5208,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L43" s="9">
         <v>300</v>
-      </c>
-      <c r="L43" s="9">
-        <v>150</v>
       </c>
       <c r="M43" s="9">
         <v>30</v>
@@ -5329,10 +5326,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L45" s="9">
         <v>500</v>
-      </c>
-      <c r="L45" s="9">
-        <v>250</v>
       </c>
       <c r="M45" s="9">
         <v>50</v>
@@ -5388,10 +5385,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L46" s="9">
         <v>300</v>
-      </c>
-      <c r="L46" s="9">
-        <v>150</v>
       </c>
       <c r="M46" s="9">
         <v>30</v>
@@ -5447,10 +5444,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L47" s="9">
         <v>300</v>
-      </c>
-      <c r="L47" s="9">
-        <v>150</v>
       </c>
       <c r="M47" s="9">
         <v>30</v>
@@ -5506,10 +5503,10 @@
         <v>0</v>
       </c>
       <c r="K48" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L48" s="9">
         <v>300</v>
-      </c>
-      <c r="L48" s="9">
-        <v>150</v>
       </c>
       <c r="M48" s="9">
         <v>30</v>
@@ -5624,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L50" s="9">
         <v>500</v>
-      </c>
-      <c r="L50" s="9">
-        <v>250</v>
       </c>
       <c r="M50" s="9">
         <v>50</v>
@@ -5683,10 +5680,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L51" s="9">
         <v>300</v>
-      </c>
-      <c r="L51" s="9">
-        <v>150</v>
       </c>
       <c r="M51" s="9">
         <v>30</v>
@@ -5742,10 +5739,10 @@
         <v>0</v>
       </c>
       <c r="K52" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L52" s="9">
         <v>300</v>
-      </c>
-      <c r="L52" s="9">
-        <v>150</v>
       </c>
       <c r="M52" s="9">
         <v>30</v>
@@ -5801,10 +5798,10 @@
         <v>0</v>
       </c>
       <c r="K53" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L53" s="9">
         <v>300</v>
-      </c>
-      <c r="L53" s="9">
-        <v>150</v>
       </c>
       <c r="M53" s="9">
         <v>30</v>
@@ -5860,13 +5857,13 @@
         <v>0</v>
       </c>
       <c r="K54" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L54" s="9">
         <v>50</v>
       </c>
       <c r="M54" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N54" s="9">
         <v>0</v>
@@ -5978,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="K56" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L56" s="9">
         <v>300</v>
-      </c>
-      <c r="L56" s="9">
-        <v>150</v>
       </c>
       <c r="M56" s="9">
         <v>30</v>
@@ -6037,10 +6034,10 @@
         <v>0</v>
       </c>
       <c r="K57" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L57" s="9">
         <v>500</v>
-      </c>
-      <c r="L57" s="9">
-        <v>250</v>
       </c>
       <c r="M57" s="9">
         <v>50</v>
@@ -6096,10 +6093,10 @@
         <v>0</v>
       </c>
       <c r="K58" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L58" s="9">
         <v>300</v>
-      </c>
-      <c r="L58" s="9">
-        <v>150</v>
       </c>
       <c r="M58" s="9">
         <v>30</v>
@@ -6214,13 +6211,13 @@
         <v>0</v>
       </c>
       <c r="K60" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L60" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M60" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N60" s="9">
         <v>0</v>
@@ -6273,10 +6270,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L61" s="9">
         <v>300</v>
-      </c>
-      <c r="L61" s="9">
-        <v>150</v>
       </c>
       <c r="M61" s="9">
         <v>30</v>
@@ -6391,13 +6388,13 @@
         <v>0</v>
       </c>
       <c r="K63" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L63" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M63" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N63" s="9">
         <v>0</v>
@@ -6568,13 +6565,13 @@
         <v>0</v>
       </c>
       <c r="K66" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L66" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M66" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N66" s="9">
         <v>0</v>
@@ -6627,10 +6624,10 @@
         <v>0</v>
       </c>
       <c r="K67" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L67" s="9">
         <v>300</v>
-      </c>
-      <c r="L67" s="9">
-        <v>150</v>
       </c>
       <c r="M67" s="9">
         <v>30</v>
@@ -6686,10 +6683,10 @@
         <v>0</v>
       </c>
       <c r="K68" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L68" s="9">
         <v>300</v>
-      </c>
-      <c r="L68" s="9">
-        <v>150</v>
       </c>
       <c r="M68" s="9">
         <v>30</v>
@@ -6745,10 +6742,10 @@
         <v>0</v>
       </c>
       <c r="K69" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L69" s="9">
         <v>500</v>
-      </c>
-      <c r="L69" s="9">
-        <v>250</v>
       </c>
       <c r="M69" s="9">
         <v>50</v>
@@ -6804,13 +6801,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L70" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M70" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N70" s="9">
         <v>0</v>
@@ -6863,10 +6860,10 @@
         <v>0</v>
       </c>
       <c r="K71" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L71" s="9">
         <v>500</v>
-      </c>
-      <c r="L71" s="9">
-        <v>250</v>
       </c>
       <c r="M71" s="9">
         <v>50</v>
@@ -6981,13 +6978,13 @@
         <v>0</v>
       </c>
       <c r="K73" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L73" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M73" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N73" s="9">
         <v>0</v>
@@ -7040,13 +7037,13 @@
         <v>0</v>
       </c>
       <c r="K74" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L74" s="9">
         <v>50</v>
       </c>
       <c r="M74" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N74" s="9">
         <v>0</v>
@@ -7099,10 +7096,10 @@
         <v>0</v>
       </c>
       <c r="K75" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L75" s="9">
         <v>300</v>
-      </c>
-      <c r="L75" s="9">
-        <v>150</v>
       </c>
       <c r="M75" s="9">
         <v>30</v>
@@ -7158,10 +7155,10 @@
         <v>0</v>
       </c>
       <c r="K76" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L76" s="9">
         <v>500</v>
-      </c>
-      <c r="L76" s="9">
-        <v>250</v>
       </c>
       <c r="M76" s="9">
         <v>50</v>
@@ -7217,10 +7214,10 @@
         <v>0</v>
       </c>
       <c r="K77" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L77" s="9">
         <v>500</v>
-      </c>
-      <c r="L77" s="9">
-        <v>250</v>
       </c>
       <c r="M77" s="9">
         <v>50</v>
@@ -7276,13 +7273,13 @@
         <v>0</v>
       </c>
       <c r="K78" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L78" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M78" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N78" s="9">
         <v>0</v>
@@ -7453,10 +7450,10 @@
         <v>0</v>
       </c>
       <c r="K81" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L81" s="9">
         <v>300</v>
-      </c>
-      <c r="L81" s="9">
-        <v>150</v>
       </c>
       <c r="M81" s="9">
         <v>30</v>
@@ -7512,13 +7509,13 @@
         <v>0</v>
       </c>
       <c r="K82" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L82" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M82" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N82" s="9">
         <v>0</v>
@@ -7571,10 +7568,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L83" s="9">
         <v>500</v>
-      </c>
-      <c r="L83" s="9">
-        <v>250</v>
       </c>
       <c r="M83" s="9">
         <v>50</v>
@@ -7630,13 +7627,13 @@
         <v>0</v>
       </c>
       <c r="K84" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L84" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M84" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N84" s="9">
         <v>0</v>
@@ -7748,13 +7745,13 @@
         <v>0</v>
       </c>
       <c r="K86" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L86" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M86" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N86" s="9">
         <v>0</v>
@@ -7866,10 +7863,10 @@
         <v>0</v>
       </c>
       <c r="K88" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L88" s="9">
         <v>300</v>
-      </c>
-      <c r="L88" s="9">
-        <v>150</v>
       </c>
       <c r="M88" s="9">
         <v>30</v>
@@ -7925,13 +7922,13 @@
         <v>0</v>
       </c>
       <c r="K89" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L89" s="9">
         <v>50</v>
       </c>
       <c r="M89" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N89" s="9">
         <v>0</v>
@@ -7984,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="K90" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L90" s="9">
         <v>300</v>
-      </c>
-      <c r="L90" s="9">
-        <v>150</v>
       </c>
       <c r="M90" s="9">
         <v>30</v>
@@ -8043,13 +8040,13 @@
         <v>0</v>
       </c>
       <c r="K91" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L91" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M91" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N91" s="9">
         <v>0</v>
@@ -8102,10 +8099,10 @@
         <v>0</v>
       </c>
       <c r="K92" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L92" s="9">
         <v>300</v>
-      </c>
-      <c r="L92" s="9">
-        <v>150</v>
       </c>
       <c r="M92" s="9">
         <v>30</v>
@@ -8161,10 +8158,10 @@
         <v>0</v>
       </c>
       <c r="K93" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L93" s="9">
         <v>500</v>
-      </c>
-      <c r="L93" s="9">
-        <v>250</v>
       </c>
       <c r="M93" s="9">
         <v>50</v>
@@ -8220,13 +8217,13 @@
         <v>0</v>
       </c>
       <c r="K94" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L94" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M94" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N94" s="9">
         <v>0</v>
@@ -8279,13 +8276,13 @@
         <v>0</v>
       </c>
       <c r="K95" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L95" s="9">
         <v>50</v>
       </c>
       <c r="M95" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N95" s="9">
         <v>0</v>
@@ -8338,13 +8335,13 @@
         <v>0</v>
       </c>
       <c r="K96" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L96" s="9">
         <v>50</v>
       </c>
       <c r="M96" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N96" s="9">
         <v>0</v>
@@ -8397,10 +8394,10 @@
         <v>0</v>
       </c>
       <c r="K97" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L97" s="9">
         <v>300</v>
-      </c>
-      <c r="L97" s="9">
-        <v>150</v>
       </c>
       <c r="M97" s="9">
         <v>30</v>
@@ -8456,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K98" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L98" s="9">
         <v>500</v>
-      </c>
-      <c r="L98" s="9">
-        <v>250</v>
       </c>
       <c r="M98" s="9">
         <v>50</v>
@@ -8574,13 +8571,13 @@
         <v>0</v>
       </c>
       <c r="K100" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L100" s="9">
         <v>50</v>
       </c>
       <c r="M100" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N100" s="9">
         <v>0</v>
@@ -8633,10 +8630,10 @@
         <v>0</v>
       </c>
       <c r="K101" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L101" s="9">
         <v>300</v>
-      </c>
-      <c r="L101" s="9">
-        <v>150</v>
       </c>
       <c r="M101" s="9">
         <v>30</v>
@@ -8692,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="K102" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L102" s="9">
         <v>500</v>
-      </c>
-      <c r="L102" s="9">
-        <v>250</v>
       </c>
       <c r="M102" s="9">
         <v>50</v>
@@ -8751,10 +8748,10 @@
         <v>0</v>
       </c>
       <c r="K103" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L103" s="9">
         <v>500</v>
-      </c>
-      <c r="L103" s="9">
-        <v>250</v>
       </c>
       <c r="M103" s="9">
         <v>50</v>
@@ -8810,10 +8807,10 @@
         <v>0</v>
       </c>
       <c r="K104" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L104" s="9">
         <v>300</v>
-      </c>
-      <c r="L104" s="9">
-        <v>150</v>
       </c>
       <c r="M104" s="9">
         <v>30</v>
@@ -8869,10 +8866,10 @@
         <v>0</v>
       </c>
       <c r="K105" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L105" s="9">
         <v>300</v>
-      </c>
-      <c r="L105" s="9">
-        <v>150</v>
       </c>
       <c r="M105" s="9">
         <v>30</v>
@@ -8928,10 +8925,10 @@
         <v>0</v>
       </c>
       <c r="K106" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L106" s="9">
         <v>500</v>
-      </c>
-      <c r="L106" s="9">
-        <v>250</v>
       </c>
       <c r="M106" s="9">
         <v>50</v>
@@ -8987,13 +8984,13 @@
         <v>0</v>
       </c>
       <c r="K107" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L107" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M107" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N107" s="9">
         <v>0</v>
@@ -9046,13 +9043,13 @@
         <v>0</v>
       </c>
       <c r="K108" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L108" s="9">
         <v>50</v>
       </c>
       <c r="M108" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N108" s="9">
         <v>0</v>
@@ -9105,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="K109" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L109" s="9">
         <v>300</v>
-      </c>
-      <c r="L109" s="9">
-        <v>150</v>
       </c>
       <c r="M109" s="9">
         <v>30</v>
@@ -9164,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="K110" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L110" s="9">
         <v>500</v>
-      </c>
-      <c r="L110" s="9">
-        <v>250</v>
       </c>
       <c r="M110" s="9">
         <v>50</v>
@@ -9282,13 +9279,13 @@
         <v>0</v>
       </c>
       <c r="K112" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L112" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M112" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N112" s="9">
         <v>0</v>
@@ -9341,13 +9338,13 @@
         <v>0</v>
       </c>
       <c r="K113" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L113" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M113" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N113" s="9">
         <v>0</v>
@@ -9400,10 +9397,10 @@
         <v>0</v>
       </c>
       <c r="K114" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L114" s="9">
         <v>300</v>
-      </c>
-      <c r="L114" s="9">
-        <v>150</v>
       </c>
       <c r="M114" s="9">
         <v>30</v>
@@ -9459,13 +9456,13 @@
         <v>0</v>
       </c>
       <c r="K115" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L115" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M115" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N115" s="9">
         <v>0</v>
@@ -9577,13 +9574,13 @@
         <v>0</v>
       </c>
       <c r="K117" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L117" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M117" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N117" s="9">
         <v>0</v>
@@ -9636,13 +9633,13 @@
         <v>0</v>
       </c>
       <c r="K118" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L118" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M118" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N118" s="9">
         <v>0</v>
@@ -9695,10 +9692,10 @@
         <v>0</v>
       </c>
       <c r="K119" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L119" s="9">
         <v>500</v>
-      </c>
-      <c r="L119" s="9">
-        <v>250</v>
       </c>
       <c r="M119" s="9">
         <v>50</v>
@@ -9754,13 +9751,13 @@
         <v>0</v>
       </c>
       <c r="K120" s="9">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L120" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M120" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N120" s="9">
         <v>0</v>
@@ -9813,13 +9810,13 @@
         <v>0</v>
       </c>
       <c r="K121" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L121" s="9">
         <v>50</v>
       </c>
       <c r="M121" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N121" s="9">
         <v>0</v>
@@ -9872,13 +9869,13 @@
         <v>0</v>
       </c>
       <c r="K122" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L122" s="9">
         <v>50</v>
       </c>
       <c r="M122" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N122" s="9">
         <v>0</v>
@@ -9977,7 +9974,7 @@
       <c r="F124" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="G124" s="19" t="s">
+      <c r="G124" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H124" s="8" t="s">
@@ -9990,13 +9987,13 @@
         <v>0</v>
       </c>
       <c r="K124" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L124" s="9">
         <v>50</v>
       </c>
       <c r="M124" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N124" s="9">
         <v>0</v>
@@ -10036,7 +10033,7 @@
       <c r="F125" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="G125" s="19" t="s">
+      <c r="G125" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H125" s="8" t="s">
@@ -10049,10 +10046,10 @@
         <v>0</v>
       </c>
       <c r="K125" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L125" s="9">
         <v>500</v>
-      </c>
-      <c r="L125" s="9">
-        <v>250</v>
       </c>
       <c r="M125" s="9">
         <v>50</v>

--- a/code/excels/building/building_item_card.xlsx
+++ b/code/excels/building/building_item_card.xlsx
@@ -2678,11 +2678,11 @@
   <dimension ref="A1:S125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K$1:K$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.2416666666667" defaultRowHeight="14"/>
@@ -2695,7 +2695,11 @@
     <col min="6" max="6" width="22.2416666666667" style="11" customWidth="1"/>
     <col min="7" max="7" width="34.1166666666667" style="11" customWidth="1"/>
     <col min="8" max="8" width="22.2416666666667" style="11" customWidth="1"/>
-    <col min="9" max="19" width="22.2416666666667" style="12" customWidth="1"/>
+    <col min="9" max="10" width="22.2416666666667" style="12" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="12" customWidth="1"/>
+    <col min="12" max="12" width="10" style="12" customWidth="1"/>
+    <col min="13" max="13" width="14.1666666666667" style="12" customWidth="1"/>
+    <col min="14" max="19" width="22.2416666666667" style="12" customWidth="1"/>
     <col min="20" max="16381" width="22.2416666666667" style="13" customWidth="1"/>
     <col min="16382" max="16384" width="22.2416666666667" style="13"/>
   </cols>
@@ -2848,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L3" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M3" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N3" s="9">
         <v>0</v>
@@ -2907,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L4" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M4" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N4" s="9">
         <v>0</v>
@@ -2966,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L5" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M5" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N5" s="9">
         <v>0</v>
@@ -3025,13 +3029,13 @@
         <v>0</v>
       </c>
       <c r="K6" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L6" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M6" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N6" s="9">
         <v>0</v>
@@ -3084,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="K7" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L7" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M7" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N7" s="9">
         <v>0</v>
@@ -3143,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="K8" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L8" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M8" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N8" s="9">
         <v>0</v>
@@ -3202,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="K9" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L9" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M9" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N9" s="9">
         <v>0</v>
@@ -3261,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L10" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M10" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N10" s="9">
         <v>0</v>
@@ -3379,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L12" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M12" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N12" s="9">
         <v>0</v>
@@ -3438,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L13" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M13" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N13" s="9">
         <v>0</v>
@@ -3497,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L14" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M14" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N14" s="9">
         <v>0</v>
@@ -3556,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L15" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M15" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N15" s="9">
         <v>0</v>
@@ -3615,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="K16" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L16" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M16" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N16" s="9">
         <v>0</v>
@@ -3674,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L17" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M17" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N17" s="9">
         <v>0</v>
@@ -3733,13 +3737,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L18" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M18" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N18" s="9">
         <v>0</v>
@@ -3792,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="K19" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L19" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M19" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N19" s="9">
         <v>0</v>
@@ -3851,13 +3855,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L20" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M20" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N20" s="9">
         <v>0</v>
@@ -3910,13 +3914,13 @@
         <v>0</v>
       </c>
       <c r="K21" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L21" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M21" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N21" s="9">
         <v>0</v>
@@ -3969,13 +3973,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L22" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M22" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N22" s="9">
         <v>0</v>
@@ -4028,13 +4032,13 @@
         <v>0</v>
       </c>
       <c r="K23" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L23" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M23" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N23" s="9">
         <v>0</v>
@@ -4087,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L24" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M24" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N24" s="9">
         <v>0</v>
@@ -4205,13 +4209,13 @@
         <v>0</v>
       </c>
       <c r="K26" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L26" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M26" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N26" s="9">
         <v>0</v>
@@ -4323,13 +4327,13 @@
         <v>0</v>
       </c>
       <c r="K28" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L28" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M28" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N28" s="9">
         <v>0</v>
@@ -4441,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="K30" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L30" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M30" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N30" s="9">
         <v>0</v>
@@ -4500,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="K31" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L31" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M31" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N31" s="9">
         <v>0</v>
@@ -4559,13 +4563,13 @@
         <v>0</v>
       </c>
       <c r="K32" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L32" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M32" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N32" s="9">
         <v>0</v>
@@ -4618,13 +4622,13 @@
         <v>0</v>
       </c>
       <c r="K33" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L33" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M33" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N33" s="9">
         <v>0</v>
@@ -4677,13 +4681,13 @@
         <v>0</v>
       </c>
       <c r="K34" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L34" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M34" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N34" s="9">
         <v>0</v>
@@ -4736,13 +4740,13 @@
         <v>0</v>
       </c>
       <c r="K35" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L35" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M35" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N35" s="9">
         <v>0</v>
@@ -4795,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="K36" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L36" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M36" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N36" s="9">
         <v>0</v>
@@ -4854,13 +4858,13 @@
         <v>0</v>
       </c>
       <c r="K37" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L37" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M37" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N37" s="9">
         <v>0</v>
@@ -4913,13 +4917,13 @@
         <v>0</v>
       </c>
       <c r="K38" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L38" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M38" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N38" s="9">
         <v>0</v>
@@ -5031,13 +5035,13 @@
         <v>0</v>
       </c>
       <c r="K40" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L40" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M40" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N40" s="9">
         <v>0</v>
@@ -5090,13 +5094,13 @@
         <v>0</v>
       </c>
       <c r="K41" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L41" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M41" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N41" s="9">
         <v>0</v>
@@ -5208,13 +5212,13 @@
         <v>0</v>
       </c>
       <c r="K43" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L43" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M43" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N43" s="9">
         <v>0</v>
@@ -5326,13 +5330,13 @@
         <v>0</v>
       </c>
       <c r="K45" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L45" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M45" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N45" s="9">
         <v>0</v>
@@ -5385,13 +5389,13 @@
         <v>0</v>
       </c>
       <c r="K46" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L46" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M46" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N46" s="9">
         <v>0</v>
@@ -5444,13 +5448,13 @@
         <v>0</v>
       </c>
       <c r="K47" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L47" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M47" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N47" s="9">
         <v>0</v>
@@ -5503,13 +5507,13 @@
         <v>0</v>
       </c>
       <c r="K48" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L48" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M48" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N48" s="9">
         <v>0</v>
@@ -5621,13 +5625,13 @@
         <v>0</v>
       </c>
       <c r="K50" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L50" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M50" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N50" s="9">
         <v>0</v>
@@ -5680,13 +5684,13 @@
         <v>0</v>
       </c>
       <c r="K51" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L51" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M51" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N51" s="9">
         <v>0</v>
@@ -5739,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L52" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M52" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N52" s="9">
         <v>0</v>
@@ -5798,13 +5802,13 @@
         <v>0</v>
       </c>
       <c r="K53" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L53" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M53" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N53" s="9">
         <v>0</v>
@@ -5857,13 +5861,13 @@
         <v>0</v>
       </c>
       <c r="K54" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L54" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M54" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N54" s="9">
         <v>0</v>
@@ -5975,13 +5979,13 @@
         <v>0</v>
       </c>
       <c r="K56" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L56" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M56" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N56" s="9">
         <v>0</v>
@@ -6034,13 +6038,13 @@
         <v>0</v>
       </c>
       <c r="K57" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L57" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M57" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N57" s="9">
         <v>0</v>
@@ -6093,13 +6097,13 @@
         <v>0</v>
       </c>
       <c r="K58" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L58" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M58" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N58" s="9">
         <v>0</v>
@@ -6211,13 +6215,13 @@
         <v>0</v>
       </c>
       <c r="K60" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L60" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M60" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N60" s="9">
         <v>0</v>
@@ -6270,13 +6274,13 @@
         <v>0</v>
       </c>
       <c r="K61" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L61" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M61" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N61" s="9">
         <v>0</v>
@@ -6388,13 +6392,13 @@
         <v>0</v>
       </c>
       <c r="K63" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L63" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M63" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N63" s="9">
         <v>0</v>
@@ -6565,13 +6569,13 @@
         <v>0</v>
       </c>
       <c r="K66" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L66" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M66" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N66" s="9">
         <v>0</v>
@@ -6624,13 +6628,13 @@
         <v>0</v>
       </c>
       <c r="K67" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L67" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M67" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N67" s="9">
         <v>0</v>
@@ -6683,13 +6687,13 @@
         <v>0</v>
       </c>
       <c r="K68" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L68" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M68" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N68" s="9">
         <v>0</v>
@@ -6742,13 +6746,13 @@
         <v>0</v>
       </c>
       <c r="K69" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L69" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M69" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N69" s="9">
         <v>0</v>
@@ -6801,13 +6805,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L70" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M70" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N70" s="9">
         <v>0</v>
@@ -6860,13 +6864,13 @@
         <v>0</v>
       </c>
       <c r="K71" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L71" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M71" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N71" s="9">
         <v>0</v>
@@ -6978,13 +6982,13 @@
         <v>0</v>
       </c>
       <c r="K73" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L73" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M73" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N73" s="9">
         <v>0</v>
@@ -7037,13 +7041,13 @@
         <v>0</v>
       </c>
       <c r="K74" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L74" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M74" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N74" s="9">
         <v>0</v>
@@ -7096,13 +7100,13 @@
         <v>0</v>
       </c>
       <c r="K75" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L75" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M75" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N75" s="9">
         <v>0</v>
@@ -7155,13 +7159,13 @@
         <v>0</v>
       </c>
       <c r="K76" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L76" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M76" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N76" s="9">
         <v>0</v>
@@ -7214,13 +7218,13 @@
         <v>0</v>
       </c>
       <c r="K77" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L77" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M77" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N77" s="9">
         <v>0</v>
@@ -7273,13 +7277,13 @@
         <v>0</v>
       </c>
       <c r="K78" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L78" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M78" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N78" s="9">
         <v>0</v>
@@ -7450,13 +7454,13 @@
         <v>0</v>
       </c>
       <c r="K81" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L81" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M81" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N81" s="9">
         <v>0</v>
@@ -7509,13 +7513,13 @@
         <v>0</v>
       </c>
       <c r="K82" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L82" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M82" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N82" s="9">
         <v>0</v>
@@ -7568,13 +7572,13 @@
         <v>0</v>
       </c>
       <c r="K83" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L83" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M83" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N83" s="9">
         <v>0</v>
@@ -7627,13 +7631,13 @@
         <v>0</v>
       </c>
       <c r="K84" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L84" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M84" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N84" s="9">
         <v>0</v>
@@ -7745,13 +7749,13 @@
         <v>0</v>
       </c>
       <c r="K86" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L86" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M86" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N86" s="9">
         <v>0</v>
@@ -7863,13 +7867,13 @@
         <v>0</v>
       </c>
       <c r="K88" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L88" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M88" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N88" s="9">
         <v>0</v>
@@ -7922,13 +7926,13 @@
         <v>0</v>
       </c>
       <c r="K89" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L89" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M89" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N89" s="9">
         <v>0</v>
@@ -7981,13 +7985,13 @@
         <v>0</v>
       </c>
       <c r="K90" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L90" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M90" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N90" s="9">
         <v>0</v>
@@ -8040,13 +8044,13 @@
         <v>0</v>
       </c>
       <c r="K91" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L91" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M91" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N91" s="9">
         <v>0</v>
@@ -8099,13 +8103,13 @@
         <v>0</v>
       </c>
       <c r="K92" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L92" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M92" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N92" s="9">
         <v>0</v>
@@ -8158,13 +8162,13 @@
         <v>0</v>
       </c>
       <c r="K93" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L93" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M93" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N93" s="9">
         <v>0</v>
@@ -8217,13 +8221,13 @@
         <v>0</v>
       </c>
       <c r="K94" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L94" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M94" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N94" s="9">
         <v>0</v>
@@ -8276,13 +8280,13 @@
         <v>0</v>
       </c>
       <c r="K95" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L95" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M95" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N95" s="9">
         <v>0</v>
@@ -8335,13 +8339,13 @@
         <v>0</v>
       </c>
       <c r="K96" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L96" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M96" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N96" s="9">
         <v>0</v>
@@ -8394,13 +8398,13 @@
         <v>0</v>
       </c>
       <c r="K97" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L97" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M97" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N97" s="9">
         <v>0</v>
@@ -8453,13 +8457,13 @@
         <v>0</v>
       </c>
       <c r="K98" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L98" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M98" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N98" s="9">
         <v>0</v>
@@ -8571,13 +8575,13 @@
         <v>0</v>
       </c>
       <c r="K100" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L100" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M100" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N100" s="9">
         <v>0</v>
@@ -8630,13 +8634,13 @@
         <v>0</v>
       </c>
       <c r="K101" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L101" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M101" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N101" s="9">
         <v>0</v>
@@ -8689,13 +8693,13 @@
         <v>0</v>
       </c>
       <c r="K102" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L102" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M102" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N102" s="9">
         <v>0</v>
@@ -8748,13 +8752,13 @@
         <v>0</v>
       </c>
       <c r="K103" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L103" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M103" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N103" s="9">
         <v>0</v>
@@ -8807,13 +8811,13 @@
         <v>0</v>
       </c>
       <c r="K104" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L104" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M104" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N104" s="9">
         <v>0</v>
@@ -8866,13 +8870,13 @@
         <v>0</v>
       </c>
       <c r="K105" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L105" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M105" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N105" s="9">
         <v>0</v>
@@ -8925,13 +8929,13 @@
         <v>0</v>
       </c>
       <c r="K106" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L106" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M106" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N106" s="9">
         <v>0</v>
@@ -8984,13 +8988,13 @@
         <v>0</v>
       </c>
       <c r="K107" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L107" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M107" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N107" s="9">
         <v>0</v>
@@ -9043,13 +9047,13 @@
         <v>0</v>
       </c>
       <c r="K108" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L108" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M108" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N108" s="9">
         <v>0</v>
@@ -9102,13 +9106,13 @@
         <v>0</v>
       </c>
       <c r="K109" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L109" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M109" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N109" s="9">
         <v>0</v>
@@ -9161,13 +9165,13 @@
         <v>0</v>
       </c>
       <c r="K110" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L110" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M110" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N110" s="9">
         <v>0</v>
@@ -9279,13 +9283,13 @@
         <v>0</v>
       </c>
       <c r="K112" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L112" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M112" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N112" s="9">
         <v>0</v>
@@ -9338,13 +9342,13 @@
         <v>0</v>
       </c>
       <c r="K113" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L113" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M113" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N113" s="9">
         <v>0</v>
@@ -9397,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="K114" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L114" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M114" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N114" s="9">
         <v>0</v>
@@ -9456,13 +9460,13 @@
         <v>0</v>
       </c>
       <c r="K115" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L115" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M115" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N115" s="9">
         <v>0</v>
@@ -9574,13 +9578,13 @@
         <v>0</v>
       </c>
       <c r="K117" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L117" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M117" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N117" s="9">
         <v>0</v>
@@ -9633,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="K118" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L118" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M118" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N118" s="9">
         <v>0</v>
@@ -9692,13 +9696,13 @@
         <v>0</v>
       </c>
       <c r="K119" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L119" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M119" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N119" s="9">
         <v>0</v>
@@ -9751,13 +9755,13 @@
         <v>0</v>
       </c>
       <c r="K120" s="9">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L120" s="9">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M120" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N120" s="9">
         <v>0</v>
@@ -9810,13 +9814,13 @@
         <v>0</v>
       </c>
       <c r="K121" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L121" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M121" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N121" s="9">
         <v>0</v>
@@ -9869,13 +9873,13 @@
         <v>0</v>
       </c>
       <c r="K122" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L122" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M122" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N122" s="9">
         <v>0</v>
@@ -9987,13 +9991,13 @@
         <v>0</v>
       </c>
       <c r="K124" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L124" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M124" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N124" s="9">
         <v>0</v>
@@ -10046,13 +10050,13 @@
         <v>0</v>
       </c>
       <c r="K125" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L125" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M125" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N125" s="9">
         <v>0</v>
